--- a/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="1067">
   <si>
     <t>chassisdef_adder_ADR-CN.Description.Details</t>
   </si>
@@ -422,9 +422,6 @@
     <t>chassisdef_battlemaster_BLR-1SH_hans.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">A Prototype that was modified For Hans Davions personal use.  .</t>
-  </si>
-  <si>
     <t>A Prototype that was modified For Hans Davions personal use. .</t>
   </si>
   <si>
@@ -2229,9 +2226,6 @@
     <t>chassisdef_merlin_MLN-1Bp.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">A  uniquely customized Merlin introduced in 3064, which was created by a tech named Porter Romero on the world of Armington. He salvaged the 'Mech from a pirate raid during the 3060s. Using a wrecked militia Bulldog for parts, he replaced the ruined PPC and LRM-5 with the tank's Large Laser and SRM 4 Launcher as well as adding additional armor.</t>
-  </si>
-  <si>
     <t>A uniquely customized Merlin introduced in 3064, which was created by a tech named Porter Romero on the world of Armington. He salvaged the 'Mech from a pirate raid during the 3060s. Using a wrecked militia Bulldog for parts, he replaced the ruined PPC and LRM-5 with the tank's Large Laser and SRM 4 Launcher as well as adding additional armor.</t>
   </si>
   <si>
@@ -2903,9 +2897,6 @@
     <t>chassisdef_summoner_SMN-ADN_Aidan.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">Hey Boss, the clans call these things the Summoner but I've always called em' the Thor.  These OmniMechs are a tad light on available pod space for their weight class and those early structural mounts are not compatable with anything else. But with that huge engine and lots of jumpjet hardpoints you will be hard pressed to find many 'Mechs its size that are faster.</t>
-  </si>
-  <si>
     <t>Hey Boss, the clans call these things the Summoner but I've always called em' the Thor. These OmniMechs are a tad light on available pod space for their weight class and those early structural mounts are not compatable with anything else. But with that huge engine and lots of jumpjet hardpoints you will be hard pressed to find many 'Mechs its size that are faster.</t>
   </si>
   <si>
@@ -3344,9 +3335,6 @@
   </si>
   <si>
     <t>chassisdef_Valkyrie_VLK-LAM.YangsThoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nice heavily armored scout, not too bad.  Probably best to keep it at range however, out of harm's range.  But an easy mech to find parts for and keep running.</t>
   </si>
   <si>
     <t>A nice heavily armored scout, not too bad. Probably best to keep it at range however, out of harm's range. But an easy mech to find parts for and keep running.</t>
@@ -4788,12 +4776,13 @@
   <dimension ref="A1:C532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1">
@@ -5247,31 +5236,31 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1">
-      <c r="A42" s="3" t="s">
+    <row r="42">
+      <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>99</v>
+      <c r="C42" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1">
       <c r="A43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>34</v>
@@ -5282,557 +5271,557 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1">
       <c r="A46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1">
       <c r="A49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1">
       <c r="A52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1">
       <c r="A55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1">
       <c r="A58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" s="3" customFormat="1">
       <c r="A61" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1">
       <c r="A64" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" s="3" customFormat="1">
       <c r="A67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1">
       <c r="A70" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="72" s="3" customFormat="1">
       <c r="A72" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="73" s="3" customFormat="1">
       <c r="A73" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" s="3" customFormat="1">
       <c r="A76" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" s="3" customFormat="1">
       <c r="A79" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" s="3" customFormat="1">
       <c r="A82" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="1">
       <c r="A85" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="87" s="3" customFormat="1">
       <c r="A87" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="88" s="3" customFormat="1">
       <c r="A88" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" s="3" customFormat="1">
       <c r="A91" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" s="3" customFormat="1">
       <c r="A94" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>26</v>
@@ -5843,161 +5832,161 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" s="3" customFormat="1">
       <c r="A97" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="1">
       <c r="A100" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1">
       <c r="A103" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1">
       <c r="A106" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1">
       <c r="A109" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>26</v>
@@ -6008,128 +5997,128 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1">
       <c r="A112" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1">
       <c r="A114" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1">
       <c r="A115" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" s="3" customFormat="1">
       <c r="A118" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" s="3" customFormat="1">
       <c r="A121" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>4</v>
@@ -6140,293 +6129,293 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" s="3" customFormat="1">
       <c r="A124" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" s="3" customFormat="1">
       <c r="A127" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" s="3" customFormat="1">
       <c r="A130" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" s="3" customFormat="1">
       <c r="A133" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" s="3" customFormat="1">
       <c r="A136" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139" s="3" customFormat="1">
       <c r="A139" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" s="3" customFormat="1">
       <c r="A142" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" s="3" customFormat="1">
       <c r="A145" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" s="3" customFormat="1">
       <c r="A148" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>61</v>
@@ -6437,29 +6426,29 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="C150" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="151" s="3" customFormat="1">
       <c r="A151" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="C151" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>61</v>
@@ -6470,62 +6459,62 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" s="3" customFormat="1">
       <c r="A154" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157" s="3" customFormat="1">
       <c r="A157" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>4</v>
@@ -6536,425 +6525,425 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="160" s="3" customFormat="1">
       <c r="A160" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="C162" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="163" s="3" customFormat="1">
       <c r="A163" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="C163" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="C164" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="166" s="3" customFormat="1">
       <c r="A166" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="C167" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C168" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" s="3" customFormat="1">
       <c r="A169" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="C169" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="C170" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="172" s="3" customFormat="1">
       <c r="A172" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="C174" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="175" s="3" customFormat="1">
       <c r="A175" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="178" s="3" customFormat="1">
       <c r="A178" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="180" s="3" customFormat="1">
       <c r="A180" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="181" s="3" customFormat="1">
       <c r="A181" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="C182" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="C183" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="184" s="3" customFormat="1">
       <c r="A184" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="186" s="3" customFormat="1">
       <c r="A186" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="187" s="3" customFormat="1">
       <c r="A187" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="C189" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="190" s="3" customFormat="1">
       <c r="A190" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="C192" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="193" s="3" customFormat="1">
       <c r="A193" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="C193" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="C195" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="196" s="3" customFormat="1">
       <c r="A196" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="C196" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>34</v>
@@ -6965,95 +6954,95 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="C198" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="199" s="3" customFormat="1">
       <c r="A199" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="C199" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="C201" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="202" s="3" customFormat="1">
       <c r="A202" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="C202" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C204" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="205" s="3" customFormat="1">
       <c r="A205" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="C205" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>34</v>
@@ -7064,788 +7053,788 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="C207" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="208" s="3" customFormat="1">
       <c r="A208" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="C208" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="C210" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" s="3" customFormat="1">
       <c r="A211" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="C211" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="C213" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="214" s="3" customFormat="1">
       <c r="A214" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="C214" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="216" s="3" customFormat="1">
       <c r="A216" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="C216" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="217" s="3" customFormat="1">
       <c r="A217" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="C217" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="219" s="3" customFormat="1">
       <c r="A219" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="C219" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="220" s="3" customFormat="1">
       <c r="A220" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="C220" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="C221" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="C222" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="223" s="3" customFormat="1">
       <c r="A223" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="C223" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="C225" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="226" s="3" customFormat="1">
       <c r="A226" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="C226" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C227" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="C228" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="229" s="3" customFormat="1">
       <c r="A229" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="C229" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="C231" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="232" s="3" customFormat="1">
       <c r="A232" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="C232" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="C234" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="235" s="3" customFormat="1">
       <c r="A235" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="C235" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="C237" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="238" s="3" customFormat="1">
       <c r="A238" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="C238" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" s="3" customFormat="1">
-      <c r="A240" s="3" t="s">
+      <c r="B240" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>537</v>
+      <c r="C240" s="2" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="241" s="3" customFormat="1">
       <c r="A241" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="244" s="3" customFormat="1">
       <c r="A244" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" s="3" customFormat="1">
       <c r="A247" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="250" s="3" customFormat="1">
       <c r="A250" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="253" s="3" customFormat="1">
       <c r="A253" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="256" s="3" customFormat="1">
       <c r="A256" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="259" s="3" customFormat="1">
       <c r="A259" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="262" s="3" customFormat="1">
       <c r="A262" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="265" s="3" customFormat="1">
       <c r="A265" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="268" s="3" customFormat="1">
       <c r="A268" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="270" s="3" customFormat="1">
       <c r="A270" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="271" s="3" customFormat="1">
       <c r="A271" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="274" s="3" customFormat="1">
       <c r="A274" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>614</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="277" s="3" customFormat="1">
       <c r="A277" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>61</v>
@@ -7856,161 +7845,161 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="280" s="3" customFormat="1">
       <c r="A280" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="283" s="3" customFormat="1">
       <c r="A283" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="286" s="3" customFormat="1">
       <c r="A286" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="289" s="3" customFormat="1">
       <c r="A289" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="292" s="3" customFormat="1">
       <c r="A292" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>4</v>
@@ -8021,128 +8010,128 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="295" s="3" customFormat="1">
       <c r="A295" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="298" s="3" customFormat="1">
       <c r="A298" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="301" s="3" customFormat="1">
       <c r="A301" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="303" s="3" customFormat="1">
       <c r="A303" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="304" s="3" customFormat="1">
       <c r="A304" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>4</v>
@@ -8153,128 +8142,128 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="307" s="3" customFormat="1">
       <c r="A307" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="309" s="3" customFormat="1">
-      <c r="A309" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>696</v>
+      <c r="C309" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="310" s="3" customFormat="1">
       <c r="A310" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="312" s="3" customFormat="1">
-      <c r="A312" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>696</v>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="313" s="3" customFormat="1">
       <c r="A313" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="315" s="3" customFormat="1">
-      <c r="A315" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>696</v>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="316" s="3" customFormat="1">
       <c r="A316" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>4</v>
@@ -8285,909 +8274,909 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="319" s="3" customFormat="1">
       <c r="A319" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="322" s="3" customFormat="1">
       <c r="A322" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="325" s="3" customFormat="1">
       <c r="A325" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="328" s="3" customFormat="1">
       <c r="A328" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="330" s="3" customFormat="1">
       <c r="A330" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="331" s="3" customFormat="1">
       <c r="A331" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="334" s="3" customFormat="1">
       <c r="A334" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="336" s="3" customFormat="1">
       <c r="A336" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="337" s="3" customFormat="1">
       <c r="A337" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="339" s="3" customFormat="1">
       <c r="A339" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="340" s="3" customFormat="1">
       <c r="A340" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="342" s="3" customFormat="1">
       <c r="A342" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="343" s="3" customFormat="1">
       <c r="A343" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="346" s="3" customFormat="1">
       <c r="A346" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="349" s="3" customFormat="1">
       <c r="A349" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="352" s="3" customFormat="1">
       <c r="A352" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B354" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="354" s="3" customFormat="1">
-      <c r="A354" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>799</v>
+      <c r="C354" s="2" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="355" s="3" customFormat="1">
       <c r="A355" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="358" s="3" customFormat="1">
       <c r="A358" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="361" s="3" customFormat="1">
       <c r="A361" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="364" s="3" customFormat="1">
       <c r="A364" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="367" s="3" customFormat="1">
       <c r="A367" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="370" s="3" customFormat="1">
       <c r="A370" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="373" s="3" customFormat="1">
       <c r="A373" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="375" s="3" customFormat="1">
       <c r="A375" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="376" s="3" customFormat="1">
       <c r="A376" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B377" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="379" s="3" customFormat="1">
       <c r="A379" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="382" s="3" customFormat="1">
       <c r="A382" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="385" s="3" customFormat="1">
       <c r="A385" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="388" s="3" customFormat="1">
       <c r="A388" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B389" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="391" s="3" customFormat="1">
       <c r="A391" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="394" s="3" customFormat="1">
       <c r="A394" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="396" s="3" customFormat="1">
       <c r="A396" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="397" s="3" customFormat="1">
       <c r="A397" s="3" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="400" s="3" customFormat="1">
       <c r="A400" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>1</v>
@@ -9198,7 +9187,7 @@
     </row>
     <row r="401" s="3" customFormat="1">
       <c r="A401" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>9</v>
@@ -9209,7 +9198,7 @@
     </row>
     <row r="402" s="3" customFormat="1">
       <c r="A402" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>16</v>
@@ -9220,7 +9209,7 @@
     </row>
     <row r="403" s="3" customFormat="1">
       <c r="A403" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>23</v>
@@ -9231,7 +9220,7 @@
     </row>
     <row r="404" s="3" customFormat="1">
       <c r="A404" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>31</v>
@@ -9242,7 +9231,7 @@
     </row>
     <row r="405" s="3" customFormat="1">
       <c r="A405" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>39</v>
@@ -9253,7 +9242,7 @@
     </row>
     <row r="406" s="3" customFormat="1">
       <c r="A406" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>45</v>
@@ -9264,7 +9253,7 @@
     </row>
     <row r="407" s="3" customFormat="1">
       <c r="A407" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>51</v>
@@ -9275,18 +9264,18 @@
     </row>
     <row r="408" s="3" customFormat="1">
       <c r="A408" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="409" s="3" customFormat="1">
       <c r="A409" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>66</v>
@@ -9297,7 +9286,7 @@
     </row>
     <row r="410" s="3" customFormat="1">
       <c r="A410" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>72</v>
@@ -9308,7 +9297,7 @@
     </row>
     <row r="411" s="3" customFormat="1">
       <c r="A411" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>80</v>
@@ -9319,7 +9308,7 @@
     </row>
     <row r="412" s="3" customFormat="1">
       <c r="A412" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>86</v>
@@ -9330,1322 +9319,1322 @@
     </row>
     <row r="413" s="3" customFormat="1">
       <c r="A413" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="414" s="3" customFormat="1">
       <c r="A414" s="3" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B414" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C414" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="415" s="3" customFormat="1">
       <c r="A415" s="3" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="416" s="3" customFormat="1">
       <c r="A416" s="3" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="417" s="3" customFormat="1">
       <c r="A417" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B417" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C417" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="418" s="3" customFormat="1">
       <c r="A418" s="3" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="419" s="3" customFormat="1">
       <c r="A419" s="3" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B419" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C419" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="420" s="3" customFormat="1">
       <c r="A420" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B420" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C420" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="421" s="3" customFormat="1">
       <c r="A421" s="3" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B421" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C421" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="422" s="3" customFormat="1">
       <c r="A422" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B422" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C422" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="423" s="3" customFormat="1">
       <c r="A423" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B423" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C423" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="424" s="3" customFormat="1">
       <c r="A424" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B424" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C424" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="425" s="3" customFormat="1">
       <c r="A425" s="3" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="426" s="3" customFormat="1">
       <c r="A426" s="3" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="427" s="3" customFormat="1">
       <c r="A427" s="3" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B427" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C427" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="428" s="3" customFormat="1">
       <c r="A428" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="429" s="3" customFormat="1">
       <c r="A429" s="3" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B429" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C429" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="430" s="3" customFormat="1">
       <c r="A430" s="3" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="431" s="3" customFormat="1">
       <c r="A431" s="3" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="432" s="3" customFormat="1">
       <c r="A432" s="3" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B432" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C432" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="433" s="3" customFormat="1">
       <c r="A433" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="434" s="3" customFormat="1">
       <c r="A434" s="3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B434" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C434" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="C434" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="435" s="3" customFormat="1">
       <c r="A435" s="3" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="436" s="3" customFormat="1">
       <c r="A436" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B436" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C436" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="437" s="3" customFormat="1">
       <c r="A437" s="3" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B437" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C437" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="438" s="3" customFormat="1">
       <c r="A438" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B438" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C438" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="439" s="3" customFormat="1">
       <c r="A439" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B439" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C439" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="440" s="3" customFormat="1">
       <c r="A440" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B440" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C440" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="441" s="3" customFormat="1">
       <c r="A441" s="3" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B441" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C441" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="442" s="3" customFormat="1">
       <c r="A442" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B442" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C442" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="443" s="3" customFormat="1">
       <c r="A443" s="3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B443" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C443" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="444" s="3" customFormat="1">
       <c r="A444" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B444" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C444" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="445" s="3" customFormat="1">
       <c r="A445" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B445" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C445" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="446" s="3" customFormat="1">
       <c r="A446" s="3" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B446" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C446" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="447" s="3" customFormat="1">
       <c r="A447" s="3" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B447" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="448" s="3" customFormat="1">
       <c r="A448" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B448" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="449" s="3" customFormat="1">
       <c r="A449" s="3" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="450" s="3" customFormat="1">
       <c r="A450" s="3" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="451" s="3" customFormat="1">
       <c r="A451" s="3" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B451" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C451" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="452" s="3" customFormat="1">
       <c r="A452" s="3" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B452" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="453" s="3" customFormat="1">
       <c r="A453" s="3" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="454" s="3" customFormat="1">
       <c r="A454" s="3" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B454" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C454" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C454" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="455" s="3" customFormat="1">
       <c r="A455" s="3" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B455" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C455" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="456" s="3" customFormat="1">
       <c r="A456" s="3" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B456" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C456" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C456" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="457" s="3" customFormat="1">
       <c r="A457" s="3" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B457" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C457" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="458" s="3" customFormat="1">
       <c r="A458" s="3" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B458" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C458" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="459" s="3" customFormat="1">
       <c r="A459" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B459" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C459" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="C459" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="460" s="3" customFormat="1">
       <c r="A460" s="3" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B460" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C460" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="C460" s="3" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="461" s="3" customFormat="1">
       <c r="A461" s="3" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="462" s="3" customFormat="1">
       <c r="A462" s="3" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B462" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C462" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="C462" s="3" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="463" s="3" customFormat="1">
       <c r="A463" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B463" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C463" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="464" s="3" customFormat="1">
       <c r="A464" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B464" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C464" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="C464" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="465" s="3" customFormat="1">
       <c r="A465" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B465" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C465" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="466" s="3" customFormat="1">
       <c r="A466" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="467" s="3" customFormat="1">
       <c r="A467" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B467" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C467" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="C467" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="468" s="3" customFormat="1">
       <c r="A468" s="3" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B468" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C468" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="469" s="3" customFormat="1">
       <c r="A469" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B469" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C469" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="470" s="3" customFormat="1">
       <c r="A470" s="3" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="471" s="3" customFormat="1">
       <c r="A471" s="3" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B471" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C471" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="472" s="3" customFormat="1">
       <c r="A472" s="3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="473" s="3" customFormat="1">
       <c r="A473" s="3" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B473" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C473" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="474" s="3" customFormat="1">
       <c r="A474" s="3" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B474" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C474" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="475" s="3" customFormat="1">
       <c r="A475" s="3" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B475" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C475" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="476" s="3" customFormat="1">
       <c r="A476" s="3" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="477" s="3" customFormat="1">
       <c r="A477" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="478" s="3" customFormat="1">
       <c r="A478" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B478" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C478" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="479" s="3" customFormat="1">
       <c r="A479" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B479" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C479" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="480" s="3" customFormat="1">
       <c r="A480" s="3" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="481" s="3" customFormat="1">
       <c r="A481" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="482" s="3" customFormat="1">
       <c r="A482" s="3" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="483" s="3" customFormat="1">
       <c r="A483" s="3" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="484" s="3" customFormat="1">
       <c r="A484" s="3" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="485" s="3" customFormat="1">
       <c r="A485" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" s="3" customFormat="1">
       <c r="A486" s="3" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="487" s="3" customFormat="1">
       <c r="A487" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="488" s="3" customFormat="1">
       <c r="A488" s="3" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="489" s="3" customFormat="1">
       <c r="A489" s="3" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="490" s="3" customFormat="1">
       <c r="A490" s="3" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="491" s="3" customFormat="1">
       <c r="A491" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="492" s="3" customFormat="1">
       <c r="A492" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="493" s="3" customFormat="1">
       <c r="A493" s="3" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="494" s="3" customFormat="1">
       <c r="A494" s="3" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="495" s="3" customFormat="1">
       <c r="A495" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="496" s="3" customFormat="1">
       <c r="A496" s="3" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="497" s="3" customFormat="1">
       <c r="A497" s="3" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="498" s="3" customFormat="1">
       <c r="A498" s="3" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="499" s="3" customFormat="1">
       <c r="A499" s="3" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="500" s="3" customFormat="1">
       <c r="A500" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="501" s="3" customFormat="1">
       <c r="A501" s="3" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="502" s="3" customFormat="1">
       <c r="A502" s="3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="503" s="3" customFormat="1">
       <c r="A503" s="3" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="504" s="3" customFormat="1">
       <c r="A504" s="3" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="505" s="3" customFormat="1">
       <c r="A505" s="3" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="506" s="3" customFormat="1">
       <c r="A506" s="3" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="507" s="3" customFormat="1">
       <c r="A507" s="3" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="508" s="3" customFormat="1">
       <c r="A508" s="3" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="509" s="3" customFormat="1">
       <c r="A509" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="510" s="3" customFormat="1">
       <c r="A510" s="3" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="511" s="3" customFormat="1">
       <c r="A511" s="3" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="512" s="3" customFormat="1">
       <c r="A512" s="3" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="513" s="3" customFormat="1">
       <c r="A513" s="3" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="514" s="3" customFormat="1">
       <c r="A514" s="3" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="515" s="3" customFormat="1">
       <c r="A515" s="3" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="516" s="3" customFormat="1">
       <c r="A516" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="517" s="3" customFormat="1">
       <c r="A517" s="3" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="518" s="3" customFormat="1">
       <c r="A518" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="519" s="3" customFormat="1">
       <c r="A519" s="3" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="520" s="3" customFormat="1">
       <c r="A520" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="521" s="3" customFormat="1">
       <c r="A521" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="522" s="3" customFormat="1">
       <c r="A522" s="3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="523" s="3" customFormat="1">
       <c r="A523" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="524" s="3" customFormat="1">
       <c r="A524" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="525" s="3" customFormat="1">
       <c r="A525" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="526" s="3" customFormat="1">
       <c r="A526" s="3" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="527" s="3" customFormat="1">
       <c r="A527" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="528" s="3" customFormat="1">
       <c r="A528" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="529" s="3" customFormat="1">
       <c r="A529" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="530" s="3" customFormat="1">
       <c r="A530" s="3" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="531" s="3" customFormat="1">
       <c r="A531" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="532" s="3" customFormat="1">
       <c r="A532" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1071">
   <si>
     <t>chassisdef_adder_ADR-CN.Description.Details</t>
   </si>
@@ -422,6 +422,9 @@
     <t>chassisdef_battlemaster_BLR-1SH_hans.YangsThoughts</t>
   </si>
   <si>
+    <t xml:space="preserve">A Prototype that was modified For Hans Davions personal use.  .</t>
+  </si>
+  <si>
     <t>A Prototype that was modified For Hans Davions personal use. .</t>
   </si>
   <si>
@@ -2226,6 +2229,9 @@
     <t>chassisdef_merlin_MLN-1Bp.YangsThoughts</t>
   </si>
   <si>
+    <t xml:space="preserve">A  uniquely customized Merlin introduced in 3064, which was created by a tech named Porter Romero on the world of Armington. He salvaged the 'Mech from a pirate raid during the 3060s. Using a wrecked militia Bulldog for parts, he replaced the ruined PPC and LRM-5 with the tank's Large Laser and SRM 4 Launcher as well as adding additional armor.</t>
+  </si>
+  <si>
     <t>A uniquely customized Merlin introduced in 3064, which was created by a tech named Porter Romero on the world of Armington. He salvaged the 'Mech from a pirate raid during the 3060s. Using a wrecked militia Bulldog for parts, he replaced the ruined PPC and LRM-5 with the tank's Large Laser and SRM 4 Launcher as well as adding additional armor.</t>
   </si>
   <si>
@@ -2897,6 +2903,9 @@
     <t>chassisdef_summoner_SMN-ADN_Aidan.YangsThoughts</t>
   </si>
   <si>
+    <t xml:space="preserve">Hey Boss, the clans call these things the Summoner but I've always called em' the Thor.  These OmniMechs are a tad light on available pod space for their weight class and those early structural mounts are not compatable with anything else. But with that huge engine and lots of jumpjet hardpoints you will be hard pressed to find many 'Mechs its size that are faster.</t>
+  </si>
+  <si>
     <t>Hey Boss, the clans call these things the Summoner but I've always called em' the Thor. These OmniMechs are a tad light on available pod space for their weight class and those early structural mounts are not compatable with anything else. But with that huge engine and lots of jumpjet hardpoints you will be hard pressed to find many 'Mechs its size that are faster.</t>
   </si>
   <si>
@@ -3335,6 +3344,9 @@
   </si>
   <si>
     <t>chassisdef_Valkyrie_VLK-LAM.YangsThoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nice heavily armored scout, not too bad.  Probably best to keep it at range however, out of harm's range.  But an easy mech to find parts for and keep running.</t>
   </si>
   <si>
     <t>A nice heavily armored scout, not too bad. Probably best to keep it at range however, out of harm's range. But an easy mech to find parts for and keep running.</t>
@@ -4776,13 +4788,12 @@
   <dimension ref="A1:C532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1">
@@ -5236,31 +5247,31 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
+    <row r="42" s="3" customFormat="1">
+      <c r="A42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>98</v>
+      <c r="C42" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1">
       <c r="A43" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>34</v>
@@ -5271,557 +5282,557 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1">
       <c r="A46" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1">
       <c r="A52" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1">
       <c r="A55" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1">
       <c r="A58" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" s="3" customFormat="1">
       <c r="A61" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1">
       <c r="A64" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" s="3" customFormat="1">
       <c r="A67" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1">
       <c r="A70" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" s="3" customFormat="1">
       <c r="A72" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" s="3" customFormat="1">
       <c r="A73" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" s="3" customFormat="1">
       <c r="A76" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" s="3" customFormat="1">
       <c r="A79" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" s="3" customFormat="1">
       <c r="A82" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="1">
       <c r="A85" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" s="3" customFormat="1">
       <c r="A87" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" s="3" customFormat="1">
       <c r="A88" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" s="3" customFormat="1">
       <c r="A91" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" s="3" customFormat="1">
       <c r="A94" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>26</v>
@@ -5832,161 +5843,161 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" s="3" customFormat="1">
       <c r="A97" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="1">
       <c r="A100" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1">
       <c r="A103" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1">
       <c r="A106" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1">
       <c r="A109" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>26</v>
@@ -5997,128 +6008,128 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1">
       <c r="A112" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1">
       <c r="A114" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1">
       <c r="A115" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" s="3" customFormat="1">
       <c r="A118" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" s="3" customFormat="1">
       <c r="A121" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>4</v>
@@ -6129,293 +6140,293 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" s="3" customFormat="1">
       <c r="A124" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" s="3" customFormat="1">
       <c r="A127" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" s="3" customFormat="1">
       <c r="A130" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="133" s="3" customFormat="1">
       <c r="A133" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" s="3" customFormat="1">
       <c r="A136" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" s="3" customFormat="1">
       <c r="A139" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" s="3" customFormat="1">
       <c r="A142" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145" s="3" customFormat="1">
       <c r="A145" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" s="3" customFormat="1">
       <c r="A148" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>61</v>
@@ -6426,29 +6437,29 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" s="3" customFormat="1">
       <c r="A151" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>61</v>
@@ -6459,62 +6470,62 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="154" s="3" customFormat="1">
       <c r="A154" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="157" s="3" customFormat="1">
       <c r="A157" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>4</v>
@@ -6525,425 +6536,425 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" s="3" customFormat="1">
       <c r="A160" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" s="3" customFormat="1">
       <c r="A163" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="166" s="3" customFormat="1">
       <c r="A166" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" s="3" customFormat="1">
       <c r="A169" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="172" s="3" customFormat="1">
       <c r="A172" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="175" s="3" customFormat="1">
       <c r="A175" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="178" s="3" customFormat="1">
       <c r="A178" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" s="3" customFormat="1">
       <c r="A180" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="181" s="3" customFormat="1">
       <c r="A181" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="184" s="3" customFormat="1">
       <c r="A184" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="186" s="3" customFormat="1">
       <c r="A186" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="187" s="3" customFormat="1">
       <c r="A187" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" s="3" customFormat="1">
       <c r="A190" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="193" s="3" customFormat="1">
       <c r="A193" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="196" s="3" customFormat="1">
       <c r="A196" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>34</v>
@@ -6954,95 +6965,95 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="199" s="3" customFormat="1">
       <c r="A199" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="202" s="3" customFormat="1">
       <c r="A202" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="205" s="3" customFormat="1">
       <c r="A205" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>34</v>
@@ -7053,788 +7064,788 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208" s="3" customFormat="1">
       <c r="A208" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="211" s="3" customFormat="1">
       <c r="A211" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="214" s="3" customFormat="1">
       <c r="A214" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="216" s="3" customFormat="1">
       <c r="A216" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="217" s="3" customFormat="1">
       <c r="A217" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219" s="3" customFormat="1">
       <c r="A219" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="220" s="3" customFormat="1">
       <c r="A220" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" s="3" customFormat="1">
       <c r="A223" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="226" s="3" customFormat="1">
       <c r="A226" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="229" s="3" customFormat="1">
       <c r="A229" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="232" s="3" customFormat="1">
       <c r="A232" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="235" s="3" customFormat="1">
       <c r="A235" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="238" s="3" customFormat="1">
       <c r="A238" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B240" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" s="3" customFormat="1">
+      <c r="A240" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>535</v>
+      <c r="B240" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="241" s="3" customFormat="1">
       <c r="A241" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="244" s="3" customFormat="1">
       <c r="A244" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="247" s="3" customFormat="1">
       <c r="A247" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="250" s="3" customFormat="1">
       <c r="A250" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="253" s="3" customFormat="1">
       <c r="A253" s="3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="256" s="3" customFormat="1">
       <c r="A256" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="259" s="3" customFormat="1">
       <c r="A259" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="262" s="3" customFormat="1">
       <c r="A262" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="265" s="3" customFormat="1">
       <c r="A265" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="268" s="3" customFormat="1">
       <c r="A268" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="270" s="3" customFormat="1">
       <c r="A270" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="271" s="3" customFormat="1">
       <c r="A271" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="274" s="3" customFormat="1">
       <c r="A274" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="277" s="3" customFormat="1">
       <c r="A277" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>61</v>
@@ -7845,161 +7856,161 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="280" s="3" customFormat="1">
       <c r="A280" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="283" s="3" customFormat="1">
       <c r="A283" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="286" s="3" customFormat="1">
       <c r="A286" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="289" s="3" customFormat="1">
       <c r="A289" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="292" s="3" customFormat="1">
       <c r="A292" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>4</v>
@@ -8010,128 +8021,128 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="295" s="3" customFormat="1">
       <c r="A295" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="298" s="3" customFormat="1">
       <c r="A298" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="301" s="3" customFormat="1">
       <c r="A301" s="3" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="303" s="3" customFormat="1">
       <c r="A303" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="304" s="3" customFormat="1">
       <c r="A304" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>4</v>
@@ -8142,128 +8153,128 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="307" s="3" customFormat="1">
       <c r="A307" s="3" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>693</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="309" s="3" customFormat="1">
+      <c r="A309" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="310" s="3" customFormat="1">
       <c r="A310" s="3" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>693</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="312" s="3" customFormat="1">
+      <c r="A312" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="313" s="3" customFormat="1">
       <c r="A313" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>693</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="315" s="3" customFormat="1">
+      <c r="A315" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="316" s="3" customFormat="1">
       <c r="A316" s="3" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>4</v>
@@ -8274,909 +8285,909 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="319" s="3" customFormat="1">
       <c r="A319" s="3" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="322" s="3" customFormat="1">
       <c r="A322" s="3" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="325" s="3" customFormat="1">
       <c r="A325" s="3" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="328" s="3" customFormat="1">
       <c r="A328" s="3" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" s="3" customFormat="1">
       <c r="A330" s="3" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="331" s="3" customFormat="1">
       <c r="A331" s="3" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="334" s="3" customFormat="1">
       <c r="A334" s="3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="336" s="3" customFormat="1">
       <c r="A336" s="3" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="337" s="3" customFormat="1">
       <c r="A337" s="3" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="339" s="3" customFormat="1">
       <c r="A339" s="3" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="340" s="3" customFormat="1">
       <c r="A340" s="3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="342" s="3" customFormat="1">
       <c r="A342" s="3" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="343" s="3" customFormat="1">
       <c r="A343" s="3" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="346" s="3" customFormat="1">
       <c r="A346" s="3" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="349" s="3" customFormat="1">
       <c r="A349" s="3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="352" s="3" customFormat="1">
       <c r="A352" s="3" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="354" s="3" customFormat="1">
+      <c r="A354" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="355" s="3" customFormat="1">
       <c r="A355" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="358" s="3" customFormat="1">
       <c r="A358" s="3" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="361" s="3" customFormat="1">
       <c r="A361" s="3" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="364" s="3" customFormat="1">
       <c r="A364" s="3" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="367" s="3" customFormat="1">
       <c r="A367" s="3" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="370" s="3" customFormat="1">
       <c r="A370" s="3" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="373" s="3" customFormat="1">
       <c r="A373" s="3" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="375" s="3" customFormat="1">
       <c r="A375" s="3" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="376" s="3" customFormat="1">
       <c r="A376" s="3" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="379" s="3" customFormat="1">
       <c r="A379" s="3" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="382" s="3" customFormat="1">
       <c r="A382" s="3" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="385" s="3" customFormat="1">
       <c r="A385" s="3" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="388" s="3" customFormat="1">
       <c r="A388" s="3" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="391" s="3" customFormat="1">
       <c r="A391" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="394" s="3" customFormat="1">
       <c r="A394" s="3" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="396" s="3" customFormat="1">
       <c r="A396" s="3" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="397" s="3" customFormat="1">
       <c r="A397" s="3" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="400" s="3" customFormat="1">
       <c r="A400" s="3" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>1</v>
@@ -9187,7 +9198,7 @@
     </row>
     <row r="401" s="3" customFormat="1">
       <c r="A401" s="3" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>9</v>
@@ -9198,7 +9209,7 @@
     </row>
     <row r="402" s="3" customFormat="1">
       <c r="A402" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>16</v>
@@ -9209,7 +9220,7 @@
     </row>
     <row r="403" s="3" customFormat="1">
       <c r="A403" s="3" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>23</v>
@@ -9220,7 +9231,7 @@
     </row>
     <row r="404" s="3" customFormat="1">
       <c r="A404" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>31</v>
@@ -9231,7 +9242,7 @@
     </row>
     <row r="405" s="3" customFormat="1">
       <c r="A405" s="3" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>39</v>
@@ -9242,7 +9253,7 @@
     </row>
     <row r="406" s="3" customFormat="1">
       <c r="A406" s="3" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>45</v>
@@ -9253,7 +9264,7 @@
     </row>
     <row r="407" s="3" customFormat="1">
       <c r="A407" s="3" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>51</v>
@@ -9264,18 +9275,18 @@
     </row>
     <row r="408" s="3" customFormat="1">
       <c r="A408" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="409" s="3" customFormat="1">
       <c r="A409" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>66</v>
@@ -9286,7 +9297,7 @@
     </row>
     <row r="410" s="3" customFormat="1">
       <c r="A410" s="3" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>72</v>
@@ -9297,7 +9308,7 @@
     </row>
     <row r="411" s="3" customFormat="1">
       <c r="A411" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>80</v>
@@ -9308,7 +9319,7 @@
     </row>
     <row r="412" s="3" customFormat="1">
       <c r="A412" s="3" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>86</v>
@@ -9319,1322 +9330,1322 @@
     </row>
     <row r="413" s="3" customFormat="1">
       <c r="A413" s="3" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="414" s="3" customFormat="1">
       <c r="A414" s="3" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="415" s="3" customFormat="1">
       <c r="A415" s="3" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="416" s="3" customFormat="1">
       <c r="A416" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="417" s="3" customFormat="1">
       <c r="A417" s="3" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="418" s="3" customFormat="1">
       <c r="A418" s="3" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="419" s="3" customFormat="1">
       <c r="A419" s="3" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="420" s="3" customFormat="1">
       <c r="A420" s="3" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="421" s="3" customFormat="1">
       <c r="A421" s="3" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="422" s="3" customFormat="1">
       <c r="A422" s="3" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="423" s="3" customFormat="1">
       <c r="A423" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="424" s="3" customFormat="1">
       <c r="A424" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="425" s="3" customFormat="1">
       <c r="A425" s="3" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="426" s="3" customFormat="1">
       <c r="A426" s="3" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
     </row>
     <row r="427" s="3" customFormat="1">
       <c r="A427" s="3" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="428" s="3" customFormat="1">
       <c r="A428" s="3" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="429" s="3" customFormat="1">
       <c r="A429" s="3" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="430" s="3" customFormat="1">
       <c r="A430" s="3" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="431" s="3" customFormat="1">
       <c r="A431" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="432" s="3" customFormat="1">
       <c r="A432" s="3" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="433" s="3" customFormat="1">
       <c r="A433" s="3" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="434" s="3" customFormat="1">
       <c r="A434" s="3" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="435" s="3" customFormat="1">
       <c r="A435" s="3" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="436" s="3" customFormat="1">
       <c r="A436" s="3" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="437" s="3" customFormat="1">
       <c r="A437" s="3" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="438" s="3" customFormat="1">
       <c r="A438" s="3" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="439" s="3" customFormat="1">
       <c r="A439" s="3" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="440" s="3" customFormat="1">
       <c r="A440" s="3" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="441" s="3" customFormat="1">
       <c r="A441" s="3" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="442" s="3" customFormat="1">
       <c r="A442" s="3" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="443" s="3" customFormat="1">
       <c r="A443" s="3" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="444" s="3" customFormat="1">
       <c r="A444" s="3" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="445" s="3" customFormat="1">
       <c r="A445" s="3" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="446" s="3" customFormat="1">
       <c r="A446" s="3" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="447" s="3" customFormat="1">
       <c r="A447" s="3" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="448" s="3" customFormat="1">
       <c r="A448" s="3" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="449" s="3" customFormat="1">
       <c r="A449" s="3" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
     </row>
     <row r="450" s="3" customFormat="1">
       <c r="A450" s="3" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="451" s="3" customFormat="1">
       <c r="A451" s="3" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="452" s="3" customFormat="1">
       <c r="A452" s="3" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="453" s="3" customFormat="1">
       <c r="A453" s="3" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
     </row>
     <row r="454" s="3" customFormat="1">
       <c r="A454" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="455" s="3" customFormat="1">
       <c r="A455" s="3" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="456" s="3" customFormat="1">
       <c r="A456" s="3" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="457" s="3" customFormat="1">
       <c r="A457" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="458" s="3" customFormat="1">
       <c r="A458" s="3" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="459" s="3" customFormat="1">
       <c r="A459" s="3" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="460" s="3" customFormat="1">
       <c r="A460" s="3" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="461" s="3" customFormat="1">
       <c r="A461" s="3" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
     </row>
     <row r="462" s="3" customFormat="1">
       <c r="A462" s="3" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="463" s="3" customFormat="1">
       <c r="A463" s="3" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="464" s="3" customFormat="1">
       <c r="A464" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="465" s="3" customFormat="1">
       <c r="A465" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="466" s="3" customFormat="1">
       <c r="A466" s="3" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="467" s="3" customFormat="1">
       <c r="A467" s="3" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="468" s="3" customFormat="1">
       <c r="A468" s="3" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="469" s="3" customFormat="1">
       <c r="A469" s="3" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="470" s="3" customFormat="1">
       <c r="A470" s="3" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="471" s="3" customFormat="1">
       <c r="A471" s="3" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="472" s="3" customFormat="1">
       <c r="A472" s="3" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="473" s="3" customFormat="1">
       <c r="A473" s="3" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="474" s="3" customFormat="1">
       <c r="A474" s="3" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="475" s="3" customFormat="1">
       <c r="A475" s="3" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="476" s="3" customFormat="1">
       <c r="A476" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="477" s="3" customFormat="1">
       <c r="A477" s="3" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="478" s="3" customFormat="1">
       <c r="A478" s="3" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="479" s="3" customFormat="1">
       <c r="A479" s="3" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="480" s="3" customFormat="1">
       <c r="A480" s="3" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="481" s="3" customFormat="1">
       <c r="A481" s="3" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="482" s="3" customFormat="1">
       <c r="A482" s="3" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="483" s="3" customFormat="1">
       <c r="A483" s="3" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="484" s="3" customFormat="1">
       <c r="A484" s="3" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="485" s="3" customFormat="1">
       <c r="A485" s="3" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="486" s="3" customFormat="1">
       <c r="A486" s="3" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="487" s="3" customFormat="1">
       <c r="A487" s="3" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="488" s="3" customFormat="1">
       <c r="A488" s="3" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="489" s="3" customFormat="1">
       <c r="A489" s="3" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="490" s="3" customFormat="1">
       <c r="A490" s="3" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="491" s="3" customFormat="1">
       <c r="A491" s="3" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="492" s="3" customFormat="1">
       <c r="A492" s="3" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="493" s="3" customFormat="1">
       <c r="A493" s="3" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="494" s="3" customFormat="1">
       <c r="A494" s="3" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="495" s="3" customFormat="1">
       <c r="A495" s="3" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="496" s="3" customFormat="1">
       <c r="A496" s="3" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="497" s="3" customFormat="1">
       <c r="A497" s="3" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="498" s="3" customFormat="1">
       <c r="A498" s="3" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="499" s="3" customFormat="1">
       <c r="A499" s="3" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="500" s="3" customFormat="1">
       <c r="A500" s="3" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="501" s="3" customFormat="1">
       <c r="A501" s="3" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="502" s="3" customFormat="1">
       <c r="A502" s="3" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="503" s="3" customFormat="1">
       <c r="A503" s="3" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="504" s="3" customFormat="1">
       <c r="A504" s="3" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="505" s="3" customFormat="1">
       <c r="A505" s="3" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="506" s="3" customFormat="1">
       <c r="A506" s="3" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="507" s="3" customFormat="1">
       <c r="A507" s="3" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="508" s="3" customFormat="1">
       <c r="A508" s="3" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="509" s="3" customFormat="1">
       <c r="A509" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="510" s="3" customFormat="1">
       <c r="A510" s="3" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="511" s="3" customFormat="1">
       <c r="A511" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="512" s="3" customFormat="1">
       <c r="A512" s="3" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="513" s="3" customFormat="1">
       <c r="A513" s="3" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="514" s="3" customFormat="1">
       <c r="A514" s="3" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="515" s="3" customFormat="1">
       <c r="A515" s="3" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="516" s="3" customFormat="1">
       <c r="A516" s="3" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="517" s="3" customFormat="1">
       <c r="A517" s="3" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="518" s="3" customFormat="1">
       <c r="A518" s="3" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="519" s="3" customFormat="1">
       <c r="A519" s="3" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="520" s="3" customFormat="1">
       <c r="A520" s="3" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="521" s="3" customFormat="1">
       <c r="A521" s="3" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="522" s="3" customFormat="1">
       <c r="A522" s="3" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="523" s="3" customFormat="1">
       <c r="A523" s="3" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="524" s="3" customFormat="1">
       <c r="A524" s="3" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="525" s="3" customFormat="1">
       <c r="A525" s="3" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="526" s="3" customFormat="1">
       <c r="A526" s="3" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="527" s="3" customFormat="1">
       <c r="A527" s="3" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="528" s="3" customFormat="1">
       <c r="A528" s="3" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="529" s="3" customFormat="1">
       <c r="A529" s="3" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="530" s="3" customFormat="1">
       <c r="A530" s="3" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="531" s="3" customFormat="1">
       <c r="A531" s="3" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="532" s="3" customFormat="1">
       <c r="A532" s="3" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1095">
   <si>
     <t>chassisdef_adder_ADR-CN.Description.Details</t>
   </si>
@@ -26,7 +26,7 @@
   <si>
     <t xml:space="preserve">Reportedly piloted by Dirk Radick, the Adder Hero 'Mech, the Cinder mounts an ER Large Laser in each arm supported by a Machine Gun in each side torso complimented by the head mounted Flamer. Carrying two and half tons of machine gun rounds, five extra Double Heat Sinks maintain a high rate of laser fire. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t/>
@@ -57,7 +57,7 @@
   <si>
     <t xml:space="preserve">The personal 'Mech of Marcus GioAvanti, commander of Avanti's Angels, all of Archangel's weapons are upgraded to Clantech equivalents with the right arm medium pulse laser moved to the left arm and an extra Clan medium pulse laser added to the center torso. The resulted weight and space saved allowed the mounting of an extra double heat sink as well as additional armor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Hyper-Extending Actuactors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_archangel_CES-3R-AA.StockRole</t>
@@ -82,7 +82,7 @@
   <si>
     <t xml:space="preserve">The very first Argus Design spec's that was rejected by the AFFCS, while being a lot more flexible then contemporary Chassis did its more advanced and rare components make it unfit for larger Engagements.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Artemis V&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_argus_AGS-1X.StockRole</t>
@@ -107,7 +107,7 @@
   <si>
     <t xml:space="preserve">Michael Ubodo's Arrow is armed with a trio of Machine Guns in each arm supplied with two tons of ammo, supported by a Medium Laser in side torso and a Large Pulse Laser mounted in the center torso. Mounting a 235 standard engine, its varation of the Arrow is clad in Ferro-Fibrous armor on an Endo Steel frame, carrying eleven Double Heat Sinks and just two Jump Jets.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Extended Torso Twist&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_arrow_BJ-A.StockRole</t>
@@ -135,7 +135,7 @@
   <si>
     <t xml:space="preserve">Piloted by Wolf's Dragoons Captain Danielle Rondema, this modified Atlas carried three medium lasers in each arm, trading away the SRM rack to do so. The additional heat was dissipated by two additional heat sinks that replaced the rear-firing medium lasers. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_atlas_AS7-D_Danielle.StockRole</t>
@@ -163,7 +163,7 @@
   <si>
     <t xml:space="preserve">The Atlas D is the king of the battlefield, capable of bringing a dizzying array of weapons to bear on targets at any range. It is also noteworthy for normally mounting the maximum amount of armor possible. Few opponents can survive even brief contact with this monster.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_atlas_AS7-GG.StockRole</t>
@@ -185,7 +185,7 @@
   <si>
     <t xml:space="preserve">Another typical Export from the Gamesworld is this Atlas redesigned around an Articulated and 3 Directional Jump Jets, to close in and punch the Enemy with its Hydraulic Fists.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_atlas_AS7-S7.StockRole</t>
@@ -207,7 +207,7 @@
   <si>
     <t xml:space="preserve">The personal 'Mech of Galedon Military District commander Warlord Grieg Samsonov during the DCMS's Third Succession War invasion of Galtor III in 3025, only the massive autocannon remains, with the rest of the standard weaponry replaced with a PPC mounted in each arm. The remaining weight and space is devoted to six additional heat sinks. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_atlas_AS7-WGS_Samsonov.StockRole</t>
@@ -232,7 +232,7 @@
   <si>
     <t xml:space="preserve">A customized variant of the stock AWS-9M model that was utilized by Adam Steiner during the 1st Somerset Strikers' liberation of Somerset in the midst of the Clan Invasion.. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_awesome_AWS-9Ma_adam.StockRole</t>
@@ -260,7 +260,7 @@
   <si>
     <t xml:space="preserve">A customized BNC-5S that sacrifices weaponry for mobility. An ER PPC and heat sink are removed to add four jump jets.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_banshee_BNC-5S-SR_sawyer.StockRole</t>
@@ -282,7 +282,7 @@
   <si>
     <t xml:space="preserve">The Banshee HK mounts two Hydraulic Fists and is outfitted with a selection of newly developed defensive technologies.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_banshee_BNC-HK.StockRole</t>
@@ -310,7 +310,7 @@
   <si>
     <t xml:space="preserve">The unique “La Malinche” variant is a powerful war machine, and with the Aztec-inspired art of old Terra, she is both as beautiful, as she is deadly.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_banshee_BNC-LM_la_malinche.StockRole</t>
@@ -332,7 +332,7 @@
   <si>
     <t xml:space="preserve">This Star League era variant removes two of the forward-facing medium lasers, both machine guns, the SRM launcher and their ammunition. In place of the SRM launcher are three Streak SRM-2 launchers with a single ton of ammunition with an extra PPC mounted in the left arm. Sixteen double heat sinks keep the 'Mech cool, and the 'Mech's armor is upgraded to Ferro-Fibrous armor. An extra half ton of armor is also installed.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_battlemaster_BLR-1GHE.StockRole</t>
@@ -360,7 +360,7 @@
   <si>
     <t xml:space="preserve">A Prototype that was modified For Hans Davions personal use. .
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_battlemaster_BLR-1SH_hans.StockRole</t>
@@ -385,7 +385,7 @@
   <si>
     <t xml:space="preserve">The AS7 'Boar's Head' is a little-seen trial Atlas run that attempted to make a more mobile striker assault 'Mech while still maintaining the dreaded reputation of the Atlas. Among Defiance's changes included routing all the energy weapon power couplings to the arms - 3 in each - and a massive XL engine. Ultimately, the AS7-BH proved too fragile and vulnerable to weapons loss for it's weight and altogether excessive cost.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_boars_head_AS7-BH.StockRole</t>
@@ -407,7 +407,7 @@
   <si>
     <t xml:space="preserve">While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a 'King Crab IIC'. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_boiler_SNV-BR.StockRole</t>
@@ -435,7 +435,7 @@
   <si>
     <t xml:space="preserve">Duncan Fisher once said the Butcher was the natural product of Solaris' sweaty and testosterone driven battles. Forged in the heat of battle and adorned with the remains of other Gladiator's Mechs.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_butcher_VND-BR.StockRole</t>
@@ -460,7 +460,7 @@
   <si>
     <t xml:space="preserve">The personal ride of MechWarrior Jenny Templeton of the Chesterton Reserves. This custom variant of the Catapult C1, the 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_butterbee_CPLT-C1.StockRole</t>
@@ -485,7 +485,7 @@
   <si>
     <t xml:space="preserve">The personal 'Mech of Force Commander Pasi Irin assigned to the First Free Worlds Legionnaires, this custom variant replaces the SRM-6 w/Artemis IV with a pair of Streak SRM-2 and additional armor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable Weapons&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_champion_CHP-1N2I.StockRole</t>
@@ -513,7 +513,7 @@
   <si>
     <t xml:space="preserve">Punch Bot started as an standard CGR-1A1 of a lance sized merc unit with limited funds available. The first pilot repeatedly threw his 'Mech first into every tough situation hoping to to be able to collect the insurance on the Charger, but the 'Mech just wouldn't die. Eventially the unit realized they could save over 10 tons by replacing the LTV 400 Engine with a GM 380 out of a salvaged Banshee. The then dropped 5 of those tons of the 'Mech's overall weight to keep the same stop speed. The extra tonnage allowed them to embrach Punch Bot's usual tactics with mounting Jump Jets, a ton and a half extra armor and upgraded arm actuators.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Protected Actuators&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_charger_CGR-PB.StockRole</t>
@@ -538,7 +538,7 @@
   <si>
     <t xml:space="preserve">Introduced in 2740, the 40 ton Cicada was developed as a competitor to the Locust. Slightly better armed and just as fast, the Cicada’s heavier armor and better melee capabilities enable it to function as an effective Light Mech hunter and scout. Powered by a 320 rated XL Engine, the prototype Cicada X5 is armed with quad Medium Lasers and a pair of SRM-2’s.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.07&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.07&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_cicada_CDA-X5.StockRole</t>
@@ -566,7 +566,7 @@
   <si>
     <t xml:space="preserve">The Clint was primarily designed as a cheap recon unit, with the capabilities of a well-armed, low-end medium weight 'Mech, and in this regard it served well. With a top speed of 97.2 km/h and a jumping capability of one hundred and eighty meters, the Clint can easily keep up with other recon elements and maneuver through mountainous or urban terrain. This custom model exchanges the Autocannon/5 with a Large Laser and four Heat Sinks.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Variable Range Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_clint_CLNT-2-3T_denton.StockRole</t>
@@ -591,7 +591,7 @@
   <si>
     <t xml:space="preserve">A Custom configuration of the NovaCat. Damage viable at any range.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Extended Torso Twist&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_cobra_cat_NCT-CC.StockRole</t>
@@ -616,7 +616,7 @@
   <si>
     <t xml:space="preserve">A unique Commando piloted by Captain Bono Duganmare of the 22nd Skye Rangers, the "Death's Knell"; is refitted with recovered LosTech. Swapping the standard SRM racks for an additional 3 Medium lasers, allows the TDK’s engine to be refitted with a 175 core. The inclusion of DHS keeps the mech comfortably cool. An extra half ton of armour round out the design.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_commando_COM-TDK.StockRole</t>
@@ -647,7 +647,7 @@
   <si>
     <t xml:space="preserve">Jake Kalmar's infamous Ravager was built around a 285-rated XL Engine to save weight to carry eighteen tons of armor and fifteen double heat sinks. Offensively the Ravager is armed with a Gauss Rifle in the left arm and a Ultra AC5 in the right torso, supported by a center torso mounted Large Pulse Laser, a standard Large Laser in the left torso and right arm, rounded out by a Medium Laser in the head and each arm. Two tons each of Gauss and UAC reloads gave it good endurance. The 'Mech was salvaged by Chloe's Cavaliers after they tracked Kalmar to Sigurd in 3037 and killed him there.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_corsair_COR-RA.StockRole</t>
@@ -675,7 +675,7 @@
   <si>
     <t xml:space="preserve">A custom Cougar configuration, the Blood Adder is armed with a pair of ATM-9’s. A pair of torso mounted HMG’s back the ATM’s up at closer ranges while a head mounted AMS enhances the configurations defensive capabilities. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Advanced Optics&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_cougar_CGR-BA.StockRole</t>
@@ -703,7 +703,7 @@
   <si>
     <t xml:space="preserve">The Hohiro configuration of the Dire Wolf is used by Hohiro Kurita and has a mixed long and short range weapons profile. For long range hitting power, an ER PPC and a Gauss Rifle provide overwhelming punch. To engage enemies at long to medium ranges, three Large Pulse Lasers are carried. One ER Small Laser and one Streak SRM-6 round out this configuration with some short range punch.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_dire_wolf_DW-HK.StockRole</t>
@@ -731,7 +731,7 @@
   <si>
     <t xml:space="preserve">The Dire Wolf is one of the OmniMechs that became feared throughout the Inner Sphere during the initial Clan Invasion and rightly so. The Dire Wolf weighs in at an impressive one hundred tons and has a relatively slow cruising speed of 54 km/h provided by a 300 XL engine. Its speed and armor protection matches that of an Atlas, but it has superior potential firepower with fifty and a half tons of free pod space for weapons and equipment. It is these traits which saw the 'Mech christened Daishi (pseudo-Japanese for 'Great Death') by the criminal underbelly of the Draconis Combine, a name that would be proven grimly accurate time and time again.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_direstar_DS-Prime.StockRole</t>
@@ -753,7 +753,7 @@
   <si>
     <t xml:space="preserve">This Custom Dragon was piloted by Warlord Syovo Yorioshi from 25th May to 26th September 3025 during the Battle of Galtor III. Only the left-arm mounted Medium Laser remains, with Large Laser in the right arm and an SRM4 and Flamer mounted in the Center. A Small Laser was also installed next to the Cockpit, with an additional 5 Heat Sinks and 3 more tons of armor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.13&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.13&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_dragon_DRG-2Y_Yorioshi.StockRole</t>
@@ -782,7 +782,7 @@
   <si>
     <t xml:space="preserve">The Ember was designed to bring the heat and keep cooking its enemies until they give up and go home.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Ubiquitous&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_ember_FS9-E.StockRole</t>
@@ -810,7 +810,7 @@
   <si>
     <t xml:space="preserve">A unique variant of the Emperor which was discovered in a Brian Cache by Clan Goliath Scorpion MechWarrior Nerran. The Clan warrior restored the ancient 'Mech by refitting the right arm's LB 10-X Autocannons with Clan produced Gauss Rifle and placed a Star League tech ER PPC in the right torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_emperor_EMP-6A_nerran.StockRole</t>
@@ -832,7 +832,7 @@
   <si>
     <t xml:space="preserve">The Enforcer 7S is an NAIS prototype carrying a mostly functional Gauss rifle prototype. This one seems to be stolen.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Gauss&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_enforcer_ENF-7S.StockRole</t>
@@ -854,7 +854,7 @@
   <si>
     <t xml:space="preserve">Capable of reaching speeds of 87 km/h with it’s MASC activated, the Executioner is a fast 95 ton Clan OmniMech. Powered by a 380 rated XL Engine, the Executioner has 26.5 tons of pod space. The MASC and 4 Jump Jets are hardwired into the chassis. The personal Mech of Gorman Bekker of the Ghost Bears, the Executioner EXE-CH (Cherbi) is armed with an LRM-15 for long range combat. For close range combat, the EXE-CH has a UAC/20, a trio of ER Small Lasers and a Streak SRM-6. \n\n
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_executioner_EXE-CH.StockRole</t>
@@ -872,7 +872,7 @@
     <t>Capable of reaching speeds of 87 km/h with it’s MASC activated, the Executioner is a fast 95 ton Clan OmniMech. Powered by a 380 rated XL Engine, the Executioner has 26.5 tons of pod space. The MASC and 4 Jump Jets are hardwired into the chassis. The personal Mech of Gorman Bekker of the Ghost Bears, the Executioner EXE-CH (Cherbi) is armed with an LRM-15 for long range combat. For close range combat, the EXE-CH has a UAC/20, a trio of ER Small Lasers and a Streak SRM-6. \n\n&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Capable of reaching speeds of 87 km/h with it’s MASC activated, the Executioner is a fast 95 ton Clan OmniMech. Powered by a 380 rated XL Engine, the Executioner has 26.5 tons of pod space. The MASC and 4 Jump Jets are hardwired into the chassis. The personal Mech of Gorman Bekker of the Ghost Bears, the Executioner EXE-CH (Cherbi) is armed with an LRM-15 for long range combat. For close range combat, the EXE-CH has a UAC/20, a trio of ER Small Lasers and a Streak SRM-6. \n\n&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
+    <t>Capable of reaching speeds of 87 km/h with it’s MASC activated, the Executioner is a fast 95 ton Clan OmniMech. Powered by a 380 rated XL Engine, the Executioner has 26.5 tons of pod space. The MASC and 4 Jump Jets are hardwired into the chassis. The personal Mech of Gorman Bekker of the Ghost Bears, the Executioner EXE-CH (Cherbi) is armed with an LRM-15 for long range combat. For close range combat, the EXE-CH has a UAC/20, a trio of ER Small Lasers and a Streak SRM-6. \n\n&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_falcon_FLC-4Nb-Saho.Description.Details</t>
@@ -885,7 +885,7 @@
   <si>
     <t xml:space="preserve">Designed for the SLDF in the wake of the Reunification War, the Falcon is a Scout Mech hunter and an anti-infantry Mech. A 30 ton Light Mech, the Falcon is powered by a 180 rated Fusion Core. The Falcon FLC-4Nb-Saho is armed with a Medium Laser and a Large Pulse Laser.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_falcon_FLC-4Nb-Saho.StockRole</t>
@@ -907,7 +907,7 @@
   <si>
     <t xml:space="preserve">The JagerMech Firebrand swaps the signature AC5s for PPCs and extra heatsinks, giving it reliable long range damage.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_firebrand_JM6-FB.StockRole</t>
@@ -935,7 +935,7 @@
   <si>
     <t xml:space="preserve">The personal 'Mech of David Kalasa, the Founding Khan of Clan Sea Fox, later renamed to Clan Diamond Shark. He was killed piloting it during Operation KLONDIKE, and while his 'Mech was recovered afterwards it somehow got "misplaced" during transport back from the battlefield. The 'Mech was heavily converted to use Clan tech, being able to convert all the lasers to Extended Range variants and still improve the cooling capbilities.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_flashman_FLS-8K_Kalasa.StockRole</t>
@@ -957,7 +957,7 @@
   <si>
     <t xml:space="preserve">The 'Ghillie' is built for Davion's NAIS' Team Banzai, named after the camouflage suits often worn by snipers. It carries an Improved Gauss Rifle and Electronics to be formidable Skirmisher and Scout.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Gauss&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_ghillie_ENF-GH.StockRole</t>
@@ -979,7 +979,7 @@
   <si>
     <t xml:space="preserve">This Grand Dragon 1G model, was the custom 'Mech of Team Banzai MechWarrior Douglas Running-Elk. Simply known as the 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.13&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.13&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_grand_dragon_DRG-1G_douglas.StockRole</t>
@@ -1003,7 +1003,7 @@
   <si>
     <t xml:space="preserve">The customized Grasshopper used by 3rd Davion Guards Hauptmann Reynolds Allen when he commanded the Allen's Animals raiding company during Operation Bird Dog. To help him hold out against Clan Smoke Jaguar forces on Luzerne, this 'Mech's standard weapons were replaced with a trio of Clan-Tech ER large lasers mounted in the head and center torso supported by a Clan ER Medium Laser mounted in each arm and side torso. The remaining free weight was devoted to IS-grade double heat sinks.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_grasshopper_GHR-R.StockRole</t>
@@ -1031,7 +1031,7 @@
   <si>
     <t xml:space="preserve">The personal ride of Colonel Carlos Camacho of the 17th Recon Regiment (who captured it from the Smoke Jaguars), the Great White was later piloted by Force Commander Kali MacDougall. Seemingly a mix of the A and D configurations, the Great White mounts an ER PPC along with twin double heat sinks in each arm, and a Streak SRM-6 paired with one medium pulse laser in each torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_great_white_TW-GW.StockRole</t>
@@ -1056,7 +1056,7 @@
   <si>
     <t xml:space="preserve">The HBK-GI Grid Iron is the Hero variant of the Hunchback. It has the characteristic hunch with quirks that emphasize the Gauss Rifle and Medium Pulse Lasers. It comes from the factory with Double Heat Sinks, Endo-Steel, and an XL engine. Unfortunately, since Gauss Rifles explode like ammo, the XL engine tends to be more of a downside.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_grid_iron_HBK-GI.StockRole</t>
@@ -1078,7 +1078,7 @@
   <si>
     <t xml:space="preserve">The Hades is an exclusive design to Wolf's Dragoons developed from the Loki and is an attempt to rectify that design's poor armor problems while retaining its offensive capabilities. The standard chassis is replaced with an Endo Steel model and the armor is upgraded to Ferro-Fibrous. The Hades maintains the same mobility of the original Loki.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hades_LOKI-II_a.StockRole</t>
@@ -1169,7 +1169,7 @@
   <si>
     <t xml:space="preserve">The Mech Daniel received was a bridging design between the early field-test HTM-26T and the later production HTM-27T. Dropping two tons of armor and outfitted with a bulkier and less refined Endo-Steel chassis, enough weight was saved to mount a pair of experimental Luthien Armor Works developed LB 10-X AC prototypes in it arms and a pair of Telos SRM-4 launchers in its chest.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hatamoto-chi_HTM-27T_daniel.StockRole</t>
@@ -1191,7 +1191,7 @@
   <si>
     <t xml:space="preserve">The original version produced during 3039. Though lacking the LosTech of the HTM-27, the single production run of the original field-test Hatamoto-Chi completed on the verge of the War of 3039 came as a total shock to the attacking Lyran and Davion Forces. Since it was built on a standard chassis, the 26T had less armor, one less heat sink, and single ton of SRM ammunition in a standard ammo bin.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hatamoto-chi_HTM-SAM.StockRole</t>
@@ -1213,7 +1213,7 @@
   <si>
     <t xml:space="preserve">The Heavy Metal model of the Highlander is the signature ride of Rhonda Snord of the Snord's Irregulars mercenary unit. This customized Highlander features a number of recently reintroduced Lostech technologies. The most expensive example is the 275 XL Engine which saves weight for a heavy weapons payload, a Gauss Rifle in the right arm provides respectable punch at long range, while 13 Double Heat Sinks keep the design running cool.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Reinforced Legs&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_heavy_metal_HGN-HM.StockRole</t>
@@ -1235,7 +1235,7 @@
   <si>
     <t xml:space="preserve">A 65 ton design which emphasises overwhelming firepower over speed or armour, the Hellbringer is a Clan OmniMech. Powered by 325 rated Xl Engine, the Hellbringer has 28.5 tons of pod space. A customised variant supposedly belonging to Star Commander Joanna of Clan Jade Falcon, the Hellbringer VI is armed with a pair of ER Large Lasers, an LRM-20 and an LRM-15. 4 ER Medium Lasers cover close range combat.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hellbringer_HBR-VI.StockRole</t>
@@ -1247,7 +1247,7 @@
     <t>A 65 ton design which emphasises overwhelming firepower over speed or armour, the Hellbringer is a Clan OmniMech. Powered by 325 rated Xl Engine, the Hellbringer has 28.5 tons of pod space. A customised variant supposedly belonging to Star Commander Joanna of Clan Jade Falcon, the Hellbringer VI is armed with a pair of ER Large Lasers, an LRM-20 and an LRM-15. 4 ER Medium Lasers cover close range combat.&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Searchlight&lt;/color&gt;&lt;/b&gt;&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>A 65 ton design which emphasises overwhelming firepower over speed or armour, the Hellbringer is a Clan OmniMech. Powered by 325 rated Xl Engine, the Hellbringer has 28.5 tons of pod space. A customised variant supposedly belonging to Star Commander Joanna of Clan Jade Falcon, the Hellbringer VI is armed with a pair of ER Large Lasers, an LRM-20 and an LRM-15. 4 ER Medium Lasers cover close range combat.&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Searchlight&lt;/color&gt;&lt;/b&gt;&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+    <t>A 65 ton design which emphasises overwhelming firepower over speed or armour, the Hellbringer is a Clan OmniMech. Powered by 325 rated Xl Engine, the Hellbringer has 28.5 tons of pod space. A customised variant supposedly belonging to Star Commander Joanna of Clan Jade Falcon, the Hellbringer VI is armed with a pair of ER Large Lasers, an LRM-20 and an LRM-15. 4 ER Medium Lasers cover close range combat.&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Searchlight&lt;/color&gt;&lt;/b&gt;&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hellfire_HLF-COL.Description.Details</t>
@@ -1260,7 +1260,7 @@
   <si>
     <t xml:space="preserve">Classified Variant
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Pilot&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hellfire_HLF-COL.StockRole</t>
@@ -1288,7 +1288,7 @@
   <si>
     <t xml:space="preserve">A derivative variant of the old Bushwacker prototypes, the High Roller uses an XL275 engine and Endo-Steel structure to field an AC/10, LRM-5, three Medium Lasers, and a pair of Machine Guns. While it's enhancements increase the damage output of these weapons, it still suffers from the prototype models' electronic systems, especially in its TTS and FCS. This means that while powerful, the High Roller requires an above-average warrior to land a hit.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_high_roller_BSW-HR.StockRole</t>
@@ -1313,7 +1313,7 @@
   <si>
     <t xml:space="preserve">Reportedly piloted by Star Colonel Hazel of Clan Star Adder, this Highlander IIC is armed with a Gauss Rifle in the right arm and left torso, supported at short-range by a pair of Streak SRM-4 launchers in left arm and right torso. In case the four tons of Gauss rounds and five tons of Streak reloads run out, the left-arm also carries an ER Large Laser. Keeper is built around an 280 rated XL engine and an Endo Steel frame, fitted with three jump jets and twelve double heat sinks and clad in fourteen and a half tons of standard armor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Reinforced Legs&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.27&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.27&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_highlander_HGN-IIC-KP_keeper.StockRole</t>
@@ -1338,7 +1338,7 @@
   <si>
     <t xml:space="preserve">Based on the most common Hunchback ever build was the 4X upgraded with a single OmniSlot module in Right Torso as a Testbed for a wide range of newly developed Weapons and Technologies
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.04&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.04&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hunchback_HBK-4X.StockRole</t>
@@ -1375,7 +1375,7 @@
   <si>
     <t xml:space="preserve">A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. Allegedly the personal mech of Calvin Deleportas, the Huntsman PA is armed with an ER Large Laser. 4 Streak SRM-4’s and a pair of Medium Pulse Lasers provide additional firepower at close range. AMS protects the Huntsman from incoming missiles. \\n\\n
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_huntsman_HMN-PA.StockRole</t>
@@ -1387,7 +1387,7 @@
     <t>A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. Allegedly the personal mech of Calvin Deleportas, the Huntsman PA is armed with an ER Large Laser. 4 Streak SRM-4’s and a pair of Medium Pulse Lasers provide additional firepower at close range. AMS protects the Huntsman from incoming missiles. \\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Stable&lt;/color&gt;&lt;/b&gt;\\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. Allegedly the personal mech of Calvin Deleportas, the Huntsman PA is armed with an ER Large Laser. 4 Streak SRM-4’s and a pair of Medium Pulse Lasers provide additional firepower at close range. AMS protects the Huntsman from incoming missiles. \\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;\\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+    <t>A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. Allegedly the personal mech of Calvin Deleportas, the Huntsman PA is armed with an ER Large Laser. 4 Streak SRM-4’s and a pair of Medium Pulse Lasers provide additional firepower at close range. AMS protects the Huntsman from incoming missiles. \\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;\\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_ice_ferret_IFR-RC.Description.Details</t>
@@ -1400,7 +1400,7 @@
   <si>
     <t xml:space="preserve">First produced in 2948, the Ice Ferret is a medium scout OmniMech often employed as a head hunter or strike unit. A 45 ton Clan OmniMech, the Ice Ferret is powered by a 360 rated XL Engine and has 9.5 tons of pod space thanks to a combination of Endo Steel, an XL Engine and Ferro-Fibrous. The custom Ice Ferret IFR-RC is armed with a pair of Heavy Medium Lasers, a Streak SRM-6 and a Heavy Machine Gun. Guardian ECM improves the Ice Ferrets defensive capabilities.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Sensors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_ice_ferret_IFR-RC.StockRole</t>
@@ -1416,7 +1416,7 @@
   <si>
     <t xml:space="preserve">First produced in 2948, the Ice Ferret is a medium scout OmniMech often employed as a head hunter or strike unit. A 45 ton Clan OmniMech, the Ice Ferret is powered by a 360 rated XL Engine and has 9.5 tons of pod space thanks to a combination of Endo Steel, an XL Engine and Ferro-Fibrous. The custom Ice Ferret IFR-RC is armed with a pair of Heavy Medium Lasers, a Streak SRM-6 and a Heavy Machine Gun. Guardian ECM improves the Ice Ferrets defensive capabilities.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Sensors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.04&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.04&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_ilya_muromets_CTF-IM.Description.Details</t>
@@ -1429,7 +1429,7 @@
   <si>
     <t xml:space="preserve">The Cataphract Hero 'Mech, Grigori Kovalenko's custom Cataphract 'Ilya Muromets', Identification Number CTF2X0042A-1013, is armed with an AC/5 in each arm, supported by a right arm Small Laser, a Medium Laser in each side torso and a right torso mounted AC/10. Such a heavy autocannon loadout is made possible through the use of 280 rated XL engine, while three tons of AC/5 rounds and two of AC/10 reloads keep those cannons firing.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Protected Actuators&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_ilya_muromets_CTF-IM.StockRole</t>
@@ -1454,7 +1454,7 @@
   <si>
     <t xml:space="preserve">This customized 'Mech is equipped with 270 XL engine, two ER Micro Lasers and Heavy Machine Guns in both torsos, Streak SRM 4 with it's one ton of ammo in central torso and two Streak SRM 2's in the right arm, along with 10 Double Heat Sinks to cope with the heat, half ton of HMG ammo in left torso and one full ton of HMG and Streak SRM 4 ammo bins in right torso. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_incubus_INC-SA.StockRole</t>
@@ -1485,7 +1485,7 @@
   <si>
     <t xml:space="preserve">Known as Cat among the MechWarriors of Sorenson's Sabres, the personal 'Mech of Grace Shiro has been extensively modified over the years to aid her role as the unit's spotter. Originally trading two Medium Lasers for extra armor, in the lead-up to the War of 3039 her 'Mech was outfitted a less-refined experimental Endo Steel chassis and Ferro-Fibrous armor, allowing the SRM launcher to be replaced with an advanced Octagon Missile Magnet Narc Missile Beacon with three tons of Homing Pods.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_jenner_JR7-K_Grace.StockRole</t>
@@ -1513,7 +1513,7 @@
   <si>
     <t xml:space="preserve">A customized Jenner for Chu-i Samuli Rinne of the DCMS. The 'Mech's engine was upgraded with a 245 rated XL Engine and 3.5 tons of Ferro-Fibrous Armor. By removing the standard SRM launcher, DCMS techs freed enough room to add CASE and a single LRM-15 with two tons of ammunition. Rinne's Jenner keeps the standard complement of Medium Lasers.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_jenner_JR7-K_Samuli.StockRole</t>
@@ -1535,7 +1535,7 @@
   <si>
     <t xml:space="preserve">A field refit given popularity after repeated sightings in combat piloted by MechWarrior Leigh Voss, the CLPT-Jester typically begins life as a refit kit for a CPLT-K2 or similar variant. Stripping out the PPCs, the Jester manages to run enough power couplings to cram a laser into each arm, each side torso, and two in the center torso, with additional fittings for support weapons if available. It also mounts an AMS system and advanced TTS systems, allowing for lethally accurate fire even beyond traditional weapon ranges. The only major advanced piece of kit is its Endo-Steel structure; the engine and armor are both standard, making the Jester quite tough. With a plethora of double heat sinks keeping it's weapons cool and the ability to lay down volley after pinpoint volley of fire, the Jester is simple, but not to be underestimated.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Energy&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_jester_CPLT-J.StockRole</t>
@@ -1557,7 +1557,7 @@
   <si>
     <t xml:space="preserve">Named after monsters of old, the King Crab 'Kaiju' is truly a beast of the sea, mounting four hot PPCs and an Ultra AC/5, an LRM15 for indirect fire, and 15 double heatsinks to keep it running, its foes should run screaming.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_kaiju_KGC-KJ.StockRole</t>
@@ -1579,7 +1579,7 @@
   <si>
     <t xml:space="preserve">This mech was salvaged in the later stages of the wars against the clans by a innately lucky mercenary who maanged to pilfer it without his employers catching wind of his new found mech. He promptly emblazoned a Large orange Corgi, a terran creature on the side of the mech and fashioned on as many of his horded parts as the poor mech engineers could jury rg on to the frame to create this monstrosity with no thought for if they SHOULD do it.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_keagle_ADR-KGL.StockRole</t>
@@ -1607,7 +1607,7 @@
   <si>
     <t xml:space="preserve">A Light Clan OmniMech, the 30 ton Kit Fox was introduced in 2890 by Clan Cloud Cobra. Favouring a mix of fire power and armor over speed, the Kit Fox is powered by a 180 XL Engine and features a mix of Endo Steel and Ferro Fibrous; giving it 16 tons of pod space. The Kit Fox COL is armed with paired SRM-6’s and SRM-4’s. Dual ER Medium Lasers, 3 Machine Guns and a Laser AMS round out the variant.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_kit_fox_KF-COL.StockRole</t>
@@ -1635,7 +1635,7 @@
   <si>
     <t xml:space="preserve">Featured as a custom Solaris VII 'Mech the 'Kraken' Is very similar too and likely built upon the chassis of a standard AS7-K, switching out the Medium Pulse Lasers for standard models.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_kracken_AS7-KR.StockRole</t>
@@ -1657,7 +1657,7 @@
   <si>
     <t xml:space="preserve">Designed as a replacement to the Timber Wolf, the 65 ton Linebacker entered production in 3052. Built around a 390 rated XL Engine, the Linebacker’s faster speed enables it to keep up with lighter star mates in running battles, something the Timber Wolf struggled to do. A combination of Ferro Fibrous armor and Endo Steel give the OmniMech 17.5 tons of free pod space. The Linebacker LBK-RL is armed with a UAC/10 and a Streak SRM-4. 3 ER Small Lasers fill out the remaining free weight.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_linebacker_LBK-RL.StockRole</t>
@@ -1667,6 +1667,9 @@
   </si>
   <si>
     <t>Designed as a replacement to the Timber Wolf, the 65 ton Linebacker entered production in 3052. Built around a 390 rated XL Engine, the Linebacker’s faster speed enables it to keep up with lighter star mates in running battles, something the Timber Wolf struggled to do. A combination of Ferro Fibrous armor and Endo Steel give the OmniMech 17.5 tons of free pod space. The Linebacker LBK-RL is armed with a UAC/10 and a Streak SRM-4. 3 ER Small Lasers fill out the remaining free weight.&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1.&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Designed as a replacement to the Timber Wolf, the 65 ton Linebacker entered production in 3052. Built around a 390 rated XL Engine, the Linebacker’s faster speed enables it to keep up with lighter star mates in running battles, something the Timber Wolf struggled to do. A combination of Ferro Fibrous armor and Endo Steel give the OmniMech 17.5 tons of free pod space. The Linebacker LBK-RL is armed with a UAC/10 and a Streak SRM-4. 3 ER Small Lasers fill out the remaining free weight.&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_loupdeguerre_TBT-LG.Description.Details</t>
@@ -1679,7 +1682,7 @@
   <si>
     <t xml:space="preserve">Named after the largest trebuchet ever built in primitive Terra, the Warwolf packs heavy close range weaponry in the form of paired SRMs, streaks, and pulse lasers.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_loupdeguerre_TBT-LG.StockRole</t>
@@ -1701,7 +1704,7 @@
   <si>
     <t xml:space="preserve">The personal ride of Smoke Jaguar Galaxy Commander Russou Howell. The Bandit is armed with a mammoth Ultra Autocannon/20 in each side torso and only twin ER Small Lasers in each arm as supporting weapons, its pilot must make every shot of its combined total of two tons of reloads count. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_mad_dog_MDD-BA.StockRole</t>
@@ -1732,7 +1735,7 @@
   <si>
     <t xml:space="preserve">Piloted by an ex-Smoke Jaguar turned Solaris VII MechWarrior known only as Garrett, the 'Revenant' is a long-range specialist mounting a massive 60 Long range Missile tubes in its side torsos supported by four Medium Pulse Lasers in the arms and center torso. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_mad_dog_MDD-RV.StockRole</t>
@@ -1757,7 +1760,7 @@
   <si>
     <t xml:space="preserve">Appearing in 3012, the Marauder II is a redesign of the classic Marauder, turning the 75 ton Heavy Mech into a 100 ton Assault. Originally a Wolfs Dragoons exclusive Mech, it wasn’t until after the 4th War of Succession in 3030 that the Mech would spread beyond the Dragoons. Powered by a 300 rated XL Engine, the Marauder II MAD-AL is armed with paired UAC/10’s, paired Streak SRM-6’s and Medium Pulse Lasers. A Beagle Active Probe rounds out the variant. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_ii_MAD-AL.StockRole</t>
@@ -1773,6 +1776,9 @@
   </si>
   <si>
     <t>Appearing in 3012, the Marauder II is a redesign of the classic Marauder, turning the 75 ton Heavy Mech into a 100 ton Assault. Originally a Wolfs Dragoons exclusive Mech, it wasn’t until after the 4th War of Succession in 3030 that the Mech would spread beyond the Dragoons. Powered by a 300 rated XL Engine, the Marauder II MAD-AL is armed with paired UAC/10’s, paired Streak SRM-6’s and Medium Pulse Lasers. A Beagle Active Probe rounds out the variant. &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18.&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Appearing in 3012, the Marauder II is a redesign of the classic Marauder, turning the 75 ton Heavy Mech into a 100 ton Assault. Originally a Wolfs Dragoons exclusive Mech, it wasn’t until after the 4th War of Succession in 3030 that the Mech would spread beyond the Dragoons. Powered by a 300 rated XL Engine, the Marauder II MAD-AL is armed with paired UAC/10’s, paired Streak SRM-6’s and Medium Pulse Lasers. A Beagle Active Probe rounds out the variant. &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_iic_MAD-IIC-S.Description.Details</t>
@@ -1785,7 +1791,7 @@
   <si>
     <t xml:space="preserve">A customized variant of the Marauder IIC, the Scorch mounts a Large Pulse Laser and Ultra AC/5 in each arm supported by four Streak SRM-6 launchers split between each side torso. Twelve tons of Ferro-Fibrous armor protect Scorch and the two-tons each of Streak and Ultra Autocannon ammo and fifteen double heat-sinks it carries.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Hyper-Extending Actuactors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_iic_MAD-IIC-S.StockRole</t>
@@ -1813,7 +1819,7 @@
   <si>
     <t xml:space="preserve">This unusual variant piloted by the Bounty Hunter featured various lostech equipment: the standard 300 Vlar fusion engine was downgrade to a 225-rated version giving it a top speed of 54 kph. It mounted a standard PPC and a Medium Laser in each arm while another PPC and medium laser were mounted on the right torso; additional medium lasers were mounted in the center and left torso. Sixteen double heat sinks were use to cool this beast down, allowing it to firing all 3 PPCs without even generating excess heat. It featured fourteen and a half tons of standard armor, giving it maximum armor for it's weight, and was capable of jumping over 90 meters with three jump jets. It was also painted all green with credit symbols.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_MAD-BH.StockRole</t>
@@ -1841,7 +1847,7 @@
   <si>
     <t xml:space="preserve">The Bounty Hunter upgraded his Marauder sometime in 3044. The fusion engine was upgrade to an extra-light version while keeping it at the same rating to save weight, though the increased size meant three heat sinks had to be removed. The standard PPCs were upgrade to ER PPCs, both the left and right torso-mounted medium lasers were removed while the center torso medium laser was moved to the head to make room for a Gauss Rifle on the right torso and two tons of ammunition. This upgrade allowed the Bounty Hunter to engage enemies at a far greater range while still able to continuously operate without fear of overheating.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_MAD-BH-II.StockRole</t>
@@ -1863,7 +1869,7 @@
   <si>
     <t xml:space="preserve">The Marauder was first built by General Motors in 2612 for use as an attack and direct fire support BattleMech. The first 'Mech to diverge from the traditional humanoid shape of previous machines, the Marauder was one of the most well-known 'Mechs in existence and originally meant to usher in a new generation of 'Mechs. Unfortunately, with the fall of the Star League, this new generation never quite materialized. On its own merits though, the Marauder was a devastatingly powerful 'Mech, outclassed only by larger machines like the Stalker and BattleMaster.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Hyper-Extending Actuactors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.11&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_MAD-CM.StockRole</t>
@@ -1885,7 +1891,7 @@
   <si>
     <t xml:space="preserve">Zachary Miles Hawkins personal variant of the mauler saw use at the time of the Clan Invasion, the Knockout upgrades the torso mounted missile racks from 15s to LRM-20s and inverts the usual Mauler energy and ballistic placements with an LB 10-X AC in each arm supported by ER Larger Laser in each side torso. Fitted with an 270 XL engine and twelve and half tons of Ferro-Fibrous armor, Knockout's heavy weapons array comes at the cost of field endurance, mounting only ten double heat sinks, two tons of LB-X autocannon munitions and single ton of LRM missiles.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_mauler_MAL-KO.StockRole</t>
@@ -1907,7 +1913,7 @@
   <si>
     <t xml:space="preserve">A uniquely customized Merlin introduced in 3064, which was created by a tech named Porter Romero on the world of Armington. He salvaged the 'Mech from a pirate raid during the 3060s. Using a wrecked militia Bulldog for parts, he replaced the ruined PPC and LRM-5 with the tank's Large Laser and SRM 4 Launcher as well as adding additional armor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_merlin_MLN-1Bp.StockRole</t>
@@ -1932,7 +1938,7 @@
   <si>
     <t xml:space="preserve">Implied to be a Stalker piloted by J. Elliot Jamison, the Misery Hero 'Mech retains the STK-3F's twin Medium Lasers in each arm, right torso mounted SRM-6 and center torso mounted Large Laser but removes the remaining SRM-6 and LRM-10s to mount a mammoth Gauss Rifle in the left torso. Carrying two tons each of Gauss rounds and SRM missiles, twenty-two single heat sinks strive to keep the Misery in the thick of combat.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Combat Computer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_misery_STK-M.StockRole</t>
@@ -1954,7 +1960,7 @@
   <si>
     <t xml:space="preserve">Based on the personal Grasshopper of Tor Miraborg, the Mjölnir is primarily armed with a PPC in the right arm and Gauss Rifle on the left arm, retaining the GHR-5H's jump jets, side torso mounted Medium and center torso mounted Large Lasers. Built around a fragile 280 rated XL Engine, an Endo Steel frame and near maximum standard armor, three tons of Gauss rounds and thirteen double heat sinks give Mjölnir more than adequate field endurance.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Aerial Assault&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_mjolnir_GHR-MJ.StockRole</t>
@@ -1976,7 +1982,7 @@
   <si>
     <t xml:space="preserve">A customized variant of the Night Gyr. The Jade Kite uses a pair of Ultra Autocannon/2s in its left arm, supported by a pair of ammo. The left torso carries a pair of Machine Guns, each with one ton of autocannon ammo and a half-ton of machine gun ammo. The right arm carries a pair of ER PPCs. In the right torso, two Streak SRM-6s with two tons of ammo.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Combat Computer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_night_gyr_NTG-JK.StockRole</t>
@@ -2004,7 +2010,7 @@
   <si>
     <t xml:space="preserve">Terry Ford's "Number Seven" is built around an 320-rated standard engine, the slower engine allows it to retain the 'Mech's ten tons of armor and head mounted small laser while freeing up weight to carry a Large Laser in each side torso supported by a Medium Laser in each arm and the right torso. Twenty-five single heat sinks and four jump jets ensure Number Seven surprising mobility and endurance in battle.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_number_seven_CGR-N7.StockRole</t>
@@ -2032,7 +2038,7 @@
   <si>
     <t xml:space="preserve">This Orion was used by the commanding general Aleksandr Kerensky himself in the war against the Usurper. This mech carries an experimental snub nose PPC.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_orion_ON1-KER_kerensky.StockRole</t>
@@ -2057,7 +2063,7 @@
   <si>
     <t xml:space="preserve">When Ostmann Industries first tried creating a heavier 'Mech than the Ostwar it resulted in the OstLord. It used much of the same components as the Ostwar but with size increased as needed. This 80 ton prototype assault 'Mech carried double LRM15 launchers, a Large Laser and two Medium Lasers and used a 320 rating fusion core. However, the design never went past prototype stage as it showed severe reliability problems during its trials and Ostmann Industries sold the few prototypes created on the second hand market before shutting the project down.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_ostlord_OSL-9R.StockRole</t>
@@ -2082,7 +2088,7 @@
   <si>
     <t xml:space="preserve">Piloted by Michi Noketsuna in the fighting on Misery against Wolf's Dragoons in 3028, this customized Ostroc had a top speed of 64 km/h. The reduced engine size allowed the Ostroc Michi to jump 120 meters and replace the SRM-4 with an SRM-6 launcher.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.11&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_ostroc_OSR-2C-Michi.StockRole</t>
@@ -2104,7 +2110,7 @@
   <si>
     <t xml:space="preserve">The custom 'Mech of Major Kira Tang, the Ostroc OSR-2X, is a full rebuild of the original mech. Sporting 4 Medium Pulse Lasers, 2 Small Lasers, a NARC and a supercharged 360 XL fusion engine, this 'Mech is in fact a lot deadlier than it seems at first glance. Using Endo-Steel structure and Ferro-Fibrous armor still leaves room for a MASC and both a Beagle Active Probe and a Guardian ECM Suite.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.11&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_ostroc_OSR-2X.StockRole</t>
@@ -2126,7 +2132,7 @@
   <si>
     <t xml:space="preserve">The Jenner Hero 'Mech, the Oxide mounts an SRM-4 in each arm supported by a pair of LRM-5s in the center torso. Fitted with ten double heat sinks and carrying a ton of reloads for each missile launcher, such a heavy weapons loadout is made possible through the use of Endo Steel chassis, a downgrade to a 235 rated engine and the removal of Jenner's signature jump jets.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_oxide_JR7-O.StockRole</t>
@@ -2148,7 +2154,7 @@
   <si>
     <t xml:space="preserve">The personal 'Mech of Hohiro 'T-Bone' Tanaka, a Solaris Arena Pilot and member of the 'Mavericks'. His Panther has been modified for use in the close confines of the dueling arena. The PPC was removed from the right arm, and a large laser, medium laser, and one heat sink were installed.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Aerial Assault&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_panther_PNT-9R_Tanaka.StockRole</t>
@@ -2175,7 +2181,7 @@
   <si>
     <t xml:space="preserve">The Penetrator became the trademark 'Mech of AFFC officer Archer Christifori, who piloted one through the FedCom Civil War and Operation BULLDOG. Originally a stock example, Christifori's 'Mech was eventually upgraded with salvaged Clan-tech ER Large Lasers.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_penetrator_PTR-4D_Christifori.StockRole</t>
@@ -2203,7 +2209,7 @@
   <si>
     <t xml:space="preserve">The Pirate's Bane is a light mech hunter killer built to keep the periphery pirates at bay. Keep moving and their teeth will be held at bay.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_pirates_bane_LCT-PB.StockRole</t>
@@ -2228,7 +2234,7 @@
   <si>
     <t xml:space="preserve">Danielle Peterson's Awesome, the 'Pretty Baby' Hero 'Mech has some unexpected speed, achieved through the use of an 340-rated Extralight Engine. The Pretty Baby (serial number AWS8V99TG-2957) also features a unique weapon loadout as well - mounting a standard PPC in the right arm, a LRM-15 in the right torso, a Medium Laser in the head, Large Laser in the left torso and an SRM-4 in the left arm. 19 Double Heat Sinks, two tons of LRM and three of SRM missiles keep it in the thick of battle.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Combat Computer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_pretty_baby_AWS-PB.StockRole</t>
@@ -2250,7 +2256,7 @@
   <si>
     <t xml:space="preserve">The Quarantine Hero 'Mech is built around 275 rated XL engine and an Endo Steel frame, fitted with three jump jets and clad in near maximum armor. Using its entire left-side as a shield, the Quarantine carries an AC/5 and a trio of Medium Lasers in its right arm supported by two right torso mounted SRM-6 launchers. Carrying only twelve double heat sinks, the 'Mech stores three tons worth of SRM and autocannon reloads split between both legs.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Extended Torso Twist&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_quarantine_WVR-Q.StockRole</t>
@@ -2278,7 +2284,7 @@
   <si>
     <t xml:space="preserve">A customized variant of the Vapor Eagle. The Rival carries 3 Heavy Machine Guns in its left arm, while a single ER PPC is mounted in the right arm. An ATM 9s and three ton of ATM ammo is in the right torso mounted with MASC.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Aerial Assault&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rival_GWK-VGL-RIVAL.StockRole</t>
@@ -2300,7 +2306,7 @@
   <si>
     <t xml:space="preserve">The personal mech of Clan Nova Cat Khan, Lucian Carns. The ''Mishapeshu'' uses a ER Large Laser in its left arm. The right arm carries an Ultra Autocannon/5 with one ton of ammo, supported by an ER Medium Laser and in the right torso, a Streak SRM-6 with a ton of ammo.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_shadow_cat_SHC-MI.StockRole</t>
@@ -2322,7 +2328,7 @@
   <si>
     <t xml:space="preserve">Reportedly piloted by Star Colonel Jaela Ward, the Orion IIC Hero 'Mech retains the right torso mounted Gauss Rifle unchanged but swaps the LRM rack for an ER PPC, upgrades the SRM-4 rack with Artemis IV FCS and downgrades the arm lasers to ER Medium Lasers. Carrying three tons of Gauss rounds and two of SRM reloads, the weight saved allows the mounting of two extra double heat sinks and MASC.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_skoll_ON1-IIC-SK.StockRole</t>
@@ -2347,7 +2353,7 @@
   <si>
     <t xml:space="preserve">The Snake is a 'Mech that was built under the aegis of an Elemental hunter. With the power of hindsight though the Snake is clearly designed to hunt Inner Sphere Battle Armor suits. The 'Mech is built using a Vox 225 XL Engine to move at a top speed of 86.4 kph. The Snake also has a jumping capability of one hundred and fifty meters making it capable of outmaneuvering any battle armor suit and also keeping it on par with most medium 'Mechs. The Snake is also armored with seven tons of armor and uses double heat sinks to cool the 'Mech's excess heat.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_snake_SNK-1V_alexi.StockRole</t>
@@ -2369,7 +2375,7 @@
   <si>
     <t xml:space="preserve">Designed after the personal ‘Mech of Elle Bennett of the 5th Donegal Guards, the GRF-1E 'Sparky' is a radical departure from standard Griffin design ethos. In place of its typical missile rack, the 1E features enough power couplings to mount a cluster of Medium Lasers - five of them, in fact - alongside the typical PPC. In a curious design decision, the engineers behind the Sparky opted for an innovative radiator pattern instead of more sophisticated heat sinks, likely as a cost-saving experiment. While this does give the 'Mech above-average heat dissipation, it's provided complement of standard heat sinks is still woefully inadequate for such a high heat load. This means that, while powerful, this 'Mech needs an equally disciplined pilot to avoid cooking alive.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_sparky_GRF-SP.StockRole</t>
@@ -2397,7 +2403,7 @@
   <si>
     <t xml:space="preserve">The Spider 6V, precursor to the Venom spider variants, features upgraded armour and Jump Jets, as well as a Medium Pulse Laser, but it's still one of the most fragile targets on the battlefield.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.04&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.04&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_spider_SDR-6V.StockRole</t>
@@ -2425,7 +2431,7 @@
   <si>
     <t xml:space="preserve">The personal 'Mech of Sho-sho Jagawen Torisobo of the Eigth Sword of Light. Designed for close combat, this custom Stalker replaces the LRM launchers with twin SRM-6 racks in each torso and installed six additional heat sinks.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Combat Computer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_stalker_STK-3F_Jagawen.StockRole</t>
@@ -2451,7 +2457,7 @@
   <si>
     <t xml:space="preserve">A common sight in Clan Toumans, the 55 ton Stormcrow is a second generation OmniMech that entered production in 2930. Powered by a 330 rated XL Engine, a combination of Ferro Fibrous and Endo Steel give the OmniMech 23 tons of Pod Space. The Stormcrow Attwater is the personal configuration of Mia Attwater of the Nova Cats. An anti aircraft specialist, her Stormcrow was reconfigured to improve it’s effectiveness in this role. A pair of LB-5X’s and a pair of LRM-5’s augmented by Artemis IV make up the Attwater’s armament with 6 Jump Jets filling the remaining pod space.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.11&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_stormcrow_SCR-Attwater.StockRole</t>
@@ -2473,7 +2479,7 @@
   <si>
     <t xml:space="preserve">The Summoner is a highly mobile heavy OmniMech that is commonly used in a wide variety of roles. Barely a second generation OmniMech, the Jade Falcons introduced the Summoner just after becoming the first Clan to win OmniMech technology from Clan Coyote in 2863. The custom configuration of Aiden Pryde used during his first Trial of Position with Clan Jade Falcon in 3030, the ADN features an ER PPC and Large Pulse Laser in the right arm as primary weapons. Backing these up are the standard LRM15 in the Left Torso and a pair of ER Medium Pulse Lasers in the left arm. A single Anti-Missile System in the right torso rounds out the configuration.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_summoner_SMN-ADN_Aidan.StockRole</t>
@@ -2498,7 +2504,7 @@
   <si>
     <t xml:space="preserve">The Summoner is a highly mobile heavy OmniMech that is commonly used in a wide variety of roles. Barely a second generation OmniMech, the Jade Falcons introduced the Summoner just after becoming the first Clan to win OmniMech technology from Clan Coyote in 2863. The custom configuration of Marthe Pryde used during her Trial of Position with Clan Jade Falcon in 3030, the MT features an ER PPC and LBX10 in the right and left arms as primary weapons. Backing these up are a Streak SRM6 in the Left Torso and an ER Medium Laser in the Center Torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_summoner_SMN-MT_Marthe.StockRole</t>
@@ -2517,7 +2523,7 @@
   <si>
     <t xml:space="preserve">The Summoner is a highly mobile heavy OmniMech that is commonly used in a wide variety of roles. Barely a second generation OmniMech, the Jade Falcons introduced the Summoner just after becoming the first Clan to win OmniMech technology from Clan Coyote in 2863. A customized variant of the Summoner supposedly piloted by Jade Falcon Star Colonel Aidan Pryde, the Pryde uses an Ultra Autocannon/10 in its left arm, supported by a Ultra Autocannon/5 in the right arm, each with one ton of ammo. The left torso carries an ER small Laser with two Clan Anti Missile Systems and a ton of AMS ammo. A single ER Medium Laser in the right torso rounds out the loadout.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_summoner_SMN-PD_Pryde.StockRole</t>
@@ -2536,7 +2542,7 @@
   <si>
     <t xml:space="preserve">The custom config of Star Colonel Tabok of the Fourth Scorpion Cuirassiers, the 'Manul' Hero 'Mech is a ranged energy boat with an ER PPC and ER Large Laser in each arm. Its only other weapon is an ER Small Laser in the left torso. 'Manul' is fitted with AMS and single ton of reloads, the remaining weight devoted to nine extra double heat sinks.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_sun_spider_SNS-ML_manul.StockRole</t>
@@ -2558,7 +2564,7 @@
   <si>
     <t xml:space="preserve">The GRF-2N-X Super Griffin is an evolution of the classic Griffin, a re-design that essentially produced a new BattleMech with even a different tonnage. Using a sixty ton frame, engineers fitted Prototype Improved Jump Jets to the 'Mech to compensate for its reduced speed.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Aerial Assault&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_super_griffin_GRF-2N-X.StockRole</t>
@@ -2586,7 +2592,7 @@
   <si>
     <t xml:space="preserve">The WSP-2A-X Super Wasp is an evolution of the classic Wasp, a re-design that essentially produced a new BattleMech with even a different tonnage. Weighing as much as a Commando, the Super Wasp maintained the basic ground speed and jump capability of its inspiration, but also added an engine Supercharger which allowed it to sprint at speeds of up to 120km/h.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Aerial Assault&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.96&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.96&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_super_wasp_WSP-2A-X.StockRole</t>
@@ -2614,7 +2620,7 @@
   <si>
     <t xml:space="preserve">Piloted by mercenary Jose Magellan during the fall of the Star League, this Thug variant replaces the standard engine with an extralight model. The PPCs are replaced by ER Large Lasers. In the space freed by the XL Engine, Magellan installed three more SRM-6 launchers, for a total of five. The cockpit adds a Command Console to allow a Rim Worlds commander to see the entire battlefield. Four jump jets allow the Thug Jose to cover 120 meters at a time. Finally, a Null Signature System interfered with SLDF targeting systems.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Energy&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_thug_THG-11ECX.StockRole</t>
@@ -2636,7 +2642,7 @@
   <si>
     <t xml:space="preserve">A custom Thug piloted by ex-Com Guard and Broadsword Legion CO Kari Marita, the THG-11Em swaps the standard PPCs for Clantech ER PPCs, helping to free up weight for a C3i unit.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Energy&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_thug_THG-11Em.StockRole</t>
@@ -2661,7 +2667,7 @@
   <si>
     <t xml:space="preserve">The personal 'Mech of Wild Geese member Major Sandy Reich, the ex-Com Guard's Thug has been retrofitted with Clan-spec replacement weaponry, with Clan ER PPCs and Streak SRM-6s fitting neatly into the old locations. Four jump jets are included to increase mobility.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Energy&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_thug_THG-11Er.StockRole</t>
@@ -2683,7 +2689,7 @@
   <si>
     <t xml:space="preserve">The personal 'Mech of Bremond DMM Commander Leftenant-General Mary Tallman during the DCMS's Third Succession War invasion of Galtor III. She had the 'Mech stripped of everything save the Large Laser, and installed a brace of 4 Medium Lasers in each torso. An additional 8 Heat Sinks were added.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Multi Trac&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_thunderbolt_TDR-5S-T_Tallman.StockRole</t>
@@ -2713,7 +2719,7 @@
   <si>
     <t xml:space="preserve">The first custom configuration used by the infamous Bounty Hunter of the time of the initial Clan Invasion, it mounted a Large Pulse Laser and a Medium Pulse Laser in each arm. It also had a Medium Pulse Laser in both the left and right torso with a Clan Light TAG in the center torso. A Light Active Probe, ECM suite, and a Targeting Computer provided stealth and increased accuracy. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_timber_wolf_TW-BH.StockRole</t>
@@ -2738,7 +2744,7 @@
   <si>
     <t xml:space="preserve">Captured by Conner Sinclair of the Damocles Commandos from the Smoke Jaguars, this variant seems to be a mix of B and C, mounting twin ER large lasers in the right arm, a Gauss Rifle in the left, and finally a Streak SRM rack in each torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_timber_wolf_TW-CNR_Connor.StockRole</t>
@@ -2763,7 +2769,7 @@
   <si>
     <t xml:space="preserve">A non-standard alternate configuration of the Timber Wolf, this configuration was famously used by Star Colonel Aidan Pryde. The primary long range weapons are a pair of ER Large Lasers which are backed up by a pair of LRM-20s for long range combat. For close combat, two ER Medium Lasers are carried as well as an ER Small Laser. The Pryde Configuration also mounts four jump jets making it highly maneuverable.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_timber_wolf_TW-Pryde.StockRole</t>
@@ -2785,7 +2791,7 @@
   <si>
     <t xml:space="preserve">The personal mech of Vladimir Ward. A modified Prime variant, this version has swapped the medium pulse laser for twin Extended Range mediums, one in each side torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_timber_wolf_TW-Vlad.StockRole</t>
@@ -2807,7 +2813,7 @@
   <si>
     <t xml:space="preserve">The UM-R100 'SuburbanMech' adapts the traditional UrbanMech R60 into an energy weapon platform for higher performance. Because its weapons aren't limited by ammunition concerns, the R100 is better-suited to longer engagements.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: 360° Torso Twist&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_urbanmech_UM-R100.StockRole</t>
@@ -2835,7 +2841,7 @@
   <si>
     <t xml:space="preserve">The Valkyrie is a heavily armored mobile light mech with long range support capability
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Land Air Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.01&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_Valkyrie_VLK-LAM.StockRole</t>
@@ -2866,7 +2872,7 @@
   <si>
     <t xml:space="preserve">the Vanguard mounts an LB 5-X AC in each side torso alongside a left-torso mounted ER PPC, for close range support a trio of Streak SRM-4 are carried in the arms. Two tons each of LBX and Streak ammunition provide good field endurance.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vanguard_SNS-VG.StockRole</t>
@@ -2888,7 +2894,7 @@
   <si>
     <t xml:space="preserve">The personal command 'Mech of General Rudolph Chapman, this 80 ton Victor is a heavily modified machine. Provided with some of the latest technology by NAIS, it is a walking testbed of the new and recovered technologies emerging from the Inner Sphere's intellectual hub
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_victor_VTR-9AC.StockRole</t>
@@ -2916,7 +2922,7 @@
   <si>
     <t xml:space="preserve">The custom Victor used by Tai-sho Li Dok To, this variant removed all the standard weapons and replaced them with a single LRM-15 mounted in the left torso and ten Medium Lasers carried in the 'Mech's right arm, greatly reducing ammo dependency.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_victor_VTR-9B_Li.StockRole</t>
@@ -2941,7 +2947,7 @@
   <si>
     <t xml:space="preserve">Used by the 5th Benjamin Regulars commander on Royal during the War of Davion Succession, this Victor-9B variant removes the AC/20 and replaces it with an AC/10 and two more tons of ammo. The Medium Lasers have been removed and replaced with three Medium Pulse Lasers. The Victor variant is equipped with ten Double Heat sinks, and the remaining tonnage has been devoted to additional armor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_victor_VTR-9B_Shoji.StockRole</t>
@@ -2963,7 +2969,7 @@
   <si>
     <t xml:space="preserve">The VTR-9SI is a prototype design, first piloted by Col. Alexander Knight. A combination of the 9K Endo-Steel structure with the 9S AC/20, replacing the SRM-launcer with even more lasers. The addition of a Guardian ECM system and Triple-Strength Myomer further enhanced the combat capabilites.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_victor_VTR-9SI.StockRole</t>
@@ -2985,7 +2991,7 @@
   <si>
     <t xml:space="preserve">The 'Dragon Slayer' mounts a 330 rated XL Engine, Endo Steel and Double Heat Sinks to support a weapons array consisting of a Gauss Rifle and PPC in its right and left arms respectively and twin Medium Pulse Lasers in the right torso and SRM-6 in the left. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_victor_VTR-DS.StockRole</t>
@@ -3007,7 +3013,7 @@
   <si>
     <t xml:space="preserve">Made in 3020, this customized Vindicator used by Major Choung Vong, in the Third Succession War, moved the head-mounted medium laser to the right arm, simply making the cockpit roomier for its brutally effective, but rather rotund pilot. It is by all accounts the same as the original 1R, retaining all its capabilities.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vindicator_VND-1R_Vong.StockRole</t>
@@ -3036,7 +3042,7 @@
   <si>
     <t xml:space="preserve">Introduced in 2940, the Viper is a 40 ton OmniMech that emphasises speed and armour, with only 8.5 tons of podspace available for weapons. A 320 rated XL Engine powers the Viper and 8 Jump Jets are hardwired into the chassis, further improving the mobility. The Viper M-R (Medusa) is armed with a 6 ER Small Lasers and a Streak SRM-6. An AMS is mounted to counter incoming missiles. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_viper_VPR-M-R.StockRole</t>
@@ -3046,6 +3052,9 @@
   </si>
   <si>
     <t>Introduced in 2940, the Viper is a 40 ton OmniMech that emphasises speed and armour, with only 8.5 tons of podspace available for weapons. A 320 rated XL Engine powers the Viper and 8 Jump Jets are hardwired into the chassis, further improving the mobility. The Viper M-R (Medusa) is armed with a 6 ER Small Lasers and a Streak SRM-6. An AMS is mounted to counter incoming missiles. &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03.&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Introduced in 2940, the Viper is a 40 ton OmniMech that emphasises speed and armour, with only 8.5 tons of podspace available for weapons. A 320 rated XL Engine powers the Viper and 8 Jump Jets are hardwired into the chassis, further improving the mobility. The Viper M-R (Medusa) is armed with a 6 ER Small Lasers and a Streak SRM-6. An AMS is mounted to counter incoming missiles. &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_warhammer_iic_WMR-IIC-BL.Description.Details</t>
@@ -3058,7 +3067,7 @@
   <si>
     <t xml:space="preserve">The original Warhammer was designed as an assault BattleMech. However, it had been superseded by later and heavier 'Mech designs, though it remained a powerful weapons platform. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The IIC-BL is a custom variant of the IIC-1 replaces the Medium Pulse Lasers with a pair of ER Medium lasers and removes the original SRM-6 for an ATM-6 with 3 tons of ammo. The IIC-BL is otherwise identical to the IIC-1 with the exception of a trio of Jump Jets added to the Torsos.\n\n
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_warhammer_iic_WMR-IIC-BL.StockRole</t>
@@ -3068,6 +3077,9 @@
   </si>
   <si>
     <t>The original Warhammer was designed as an assault BattleMech. However, it had been superseded by later and heavier 'Mech designs, though it remained a powerful weapons platform. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The IIC-BL is a custom variant of the IIC-1 replaces the Medium Pulse Lasers with a pair of ER Medium lasers and removes the original SRM-6 for an ATM-6 with 3 tons of ammo. The IIC-BL is otherwise identical to the IIC-1 with the exception of a trio of Jump Jets added to the Torsos.\n\n&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2.&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>The original Warhammer was designed as an assault BattleMech. However, it had been superseded by later and heavier 'Mech designs, though it remained a powerful weapons platform. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The IIC-BL is a custom variant of the IIC-1 replaces the Medium Pulse Lasers with a pair of ER Medium lasers and removes the original SRM-6 for an ATM-6 with 3 tons of ammo. The IIC-BL is otherwise identical to the IIC-1 with the exception of a trio of Jump Jets added to the Torsos.\n\n&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_warhammer_iic_WMR-IIC-ML.Description.Details</t>
@@ -3080,7 +3092,7 @@
   <si>
     <t xml:space="preserve">The original Warhammer was designed as an assault BattleMech. However, it had been superseded by later and heavier 'Mech designs, though it remained a powerful weapons platform. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The IIC-ML is a custom variant of the IIC-1 replaces 3 of the Medium Pulse Lasers with a pair of HMG’s and adds a second SRM-6.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_warhammer_iic_WMR-IIC-ML.StockRole</t>
@@ -3102,7 +3114,7 @@
   <si>
     <t xml:space="preserve">A seemingly average Warhammer, the 'Widows Whammy', was rumoured to be the configuration piloted by the Black Widow Natasha Kerensky herself.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Cooling Jacket - PPC&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_warhammer_WHM-BW.StockRole</t>
@@ -3124,7 +3136,7 @@
   <si>
     <t xml:space="preserve">The preferred configuration of the Black Widow Natasha Kerensky, the Widowmaker can do a great deal of damage at any range. For long range combat, an ER PPC backed up by a Large Pulse Laser mounted in each arm. For close combat, the Widowmaker carries three ER Medium Lasers, an ER Small Laser, and an Ultra Autocannon/20.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_widow_maker_DW-WM.StockRole</t>
@@ -3143,7 +3155,7 @@
   <si>
     <t xml:space="preserve">Phelan Kell and his Wolfhound, nicknamed Grinner, were captured by the forces of Clan Wolf during Operation Revival. When Phelan was inducted into the Wolf Clan as a Warrior, Khan Ulric Kerensky ordered his 'Mech be upgraded using Clan technology.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Energy&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.98&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.98&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_wolfhound_iic_WLF-GRN.StockRole</t>
@@ -3171,7 +3183,7 @@
   <si>
     <t xml:space="preserve">Yen-Lo-Wang, named after the Chinese god of death, is a famous individual BattleMech. Its serial number is FS1010-031X. Yen-Lo-Wang has been modified and customized into a variety of different configurations over the years. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Yen Lo Wang&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_yen_lo_wang_CN9-YLW.StockRole</t>
@@ -3199,7 +3211,7 @@
   <si>
     <t xml:space="preserve">A second, later configuration of the Yen-Lo-Wang. Commonly referred to as the CN9-YLW2, it is still based upon a CN9-A chassis but uses more modern equipment. Keeping the speed the same, the engine was changed to an extra-light version. The AC/10 has been upgraded to a Gauss Rifle with two tons of ammunition. Three medium pulse lasers, two in the left arm and another rear-mounted in the center torso, replace the old standard ones. A left arm Hatchet is paired with Triple-Strength Myomer.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Yen Lo Wang&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_yen_lo_wang_ii_CN9-YLW2.StockRole</t>
@@ -3245,7 +3257,7 @@
   <si>
     <t xml:space="preserve">A customized variant of the stock AWS-9M model that was utilized by Adam Steiner during the 1st Somerset Strikers' liberation of Somerset in the midst of the Clan Invasion. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_banshee_BNC-5S-SR_sawyer.Description.Details</t>
@@ -3270,7 +3282,7 @@
   <si>
     <t xml:space="preserve">A Prototype that was modified For Hanse Davions personal use. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_boars_head_AS7-BH.Description.Details</t>
@@ -3286,7 +3298,7 @@
   <si>
     <t xml:space="preserve">While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a “King Crab IIC”. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_butcher_VND-BR.Description.Details</t>
@@ -3299,7 +3311,7 @@
   <si>
     <t xml:space="preserve">Duncan Fisher once said, the Butcher was the natural product of Solaris' sweaty and testosterone driven battles. Forged in the heat of battle and adorned with the remains of other Gladiator's Mechs.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_butterbee_CPLT-C1.Description.Details</t>
@@ -3339,7 +3351,7 @@
   <si>
     <t xml:space="preserve">The Hohiro configuration of the Dire Wolf is used by Hohiro Kurita and has a mixed long and short range weapons profile. For long range hitting power, an ER PPC and a Gauss Rifle provide overwhelming punch. To engage enemies at long to medium ranges, three Large Pulse Lasers are carried. One ER Small Laser and one Streak SRM-6 round out this configuration with some short range punch. &lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_direstar_DS-Prime.Description.Details</t>
@@ -3370,7 +3382,7 @@
   <si>
     <t xml:space="preserve">Designed for the SLDF in the wake of the Reunification War, the Falcon is a Scout Mech hunter and an anti-infantry Mech. A 30 ton Light Mech, the Falcon is powered by a 180 rated Fusion Core. The Falcon FLC-4Nb-Saho is armed with a Medium Laser and a Large Pulse Laser. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_firebrand_JM6-FB.Description.Details</t>
@@ -3386,7 +3398,7 @@
   <si>
     <t xml:space="preserve">The Flashman is an underrated heavy 'Mech, commonly called a "flashbulb" by MechWarriors for its heavy-energy configuration. The Flashman, which was first introduced in 2701, is a 'Mech that is capable of engaging an enemy for extended periods of time with little re-supply. The primary weapons on the Flashman FLS-8K are three Large Lasers mounted in the right arm, left arm, and center torso. These are backed up by five Medium Lasers, two mounted in either arm coaxial to the large lasers, two in the left torso and one in the right. The Flashman also carries an Anti-Missile System with one ton of ammo in the right torso to defend against missile attacks, and a Flamer in the head, to deter infantry attacks. The use of a Faust/Shinji AT/TS targeting-tracking system gives the Flashman a level of accuracy few can match, while fifteen double heat sinks give it an effective heat management system. The 'Mech is also notable for using an extralight engine which makes it fast for its size, though not at the expense of protection thanks to thirteen and a half tons of armor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_ghillie_ENF-GH.Description.Details</t>
@@ -3438,7 +3450,7 @@
   <si>
     <t xml:space="preserve">Mech Daniel received was a bridging design between the early field-test HTM-26T and the later production HTM-27T. Dropping two tons of armor and outfitted with a bulkier and less refined Endo-Steel chassis, enough weight was saved to mount a pair of experimental Luthien Armor Works developed LB 10-X AC prototypes in it arms and a pair of Telos SRM-4 launchers in its chest.. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_hatamoto-chi_HTM-SAM.Description.Details</t>
@@ -3451,7 +3463,7 @@
   <si>
     <t xml:space="preserve">Custom Hatamoto-Chi With Katana's in both arms, 4 Medium Lasers and 4 SRM6 plus JumpJets.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_heavy_metal_HGN-HM.Description.Details</t>
@@ -3470,7 +3482,7 @@
   <si>
     <t xml:space="preserve">Classified Variant.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Pilot&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_high_roller_BSW-HR.Description.Details</t>
@@ -3504,7 +3516,7 @@
   <si>
     <t xml:space="preserve">This customized 'Mech is equipped with 270 XL engine, two ER Micro Lasers and Heavy Machine Guns in both torsos, Streak SRM 4 with it's one ton of ammo in central torso and two Streak SRM 2's in the right arm, along with 10 Double Heat Sinks to cope with the heat, half ton of HMG ammo in left torso and one full ton of HMG and Streak SRM 4 ammo bins in right torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_jenner_JR7-K_Grace.Description.Details</t>
@@ -3529,7 +3541,7 @@
   <si>
     <t xml:space="preserve">This mech was salvaged in the later stages of the wars against the clans by a innately lucky mercenary who managed to pilfer it without his employers catching wind of his new found mech. He promptly emblazoned a Large orange Corgi, a terran creature on the side of the mech and fashioned on as many of his horded parts as the poor mech engineers could jury rg on to the frame to create this monstrosity with no thought for if they SHOULD do it.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_kit_fox_KF-COL.Description.Details</t>
@@ -3577,7 +3589,7 @@
   <si>
     <t xml:space="preserve">Perhaps one of the best-known 'Mechs in existence, the Marauder makes a worthy opponent on the battlefield. It's no slouch at midrange combat, but experienced MechWarriors will hang back at longer ranges to let its PPCs and AC/5 punish targets from afar.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Hyper-Extending Actuactors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.11&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_mauler_MAL-KO.Description.Details</t>
@@ -3644,7 +3656,7 @@
   <si>
     <t xml:space="preserve">Reportedly piloted by Star Colonel Jaela Ward, the Orion IIC Hero 'Mech retains the right torso mounted Gauss Rifle unchanged but swaps the LRM rack for an ER PPC, upgrades the SRM-4 rack with Artemis IV FCS and downgrades the arm lasers to ER Medium Lasers. Carrying three tons of Gauss rounds and two of SRM reloads, the weight saved allows the mounting of two extra double heat sinks and MASC. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_snake_SNK-1V_alexi.Description.Details</t>
@@ -3717,7 +3729,7 @@
   <si>
     <t xml:space="preserve">A nice heavily armored scout, not too bad. Probably best to keep it at range however, out of harm's range. But an easy mech to find parts for and keep running.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Land Air Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.01&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_vanguard_SNS-VG.Description.Details</t>
@@ -3745,7 +3757,7 @@
   <si>
     <t xml:space="preserve">The 'Dragon Slayer' mounts a 330 rated XL Engine, Endo Steel and Double Heat Sinks to support a weapons array consisting of a Gauss Rifle and PPC in its right and left arms respectively and twin Medium Pulse Lasers in the right torso and SRM-6 in the left.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_vindicator_VND-1R_Vong.Description.Details</t>
@@ -3767,7 +3779,7 @@
   <si>
     <t xml:space="preserve">The original Warhammer was designed as an assault BattleMech. However, it had been superseded by later and heavier 'Mech designs, though it remained a powerful weapons platform. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The IIC-ML is a custom variant of the IIC-1 replaces 3 of the Medium Pulse Lasers with a pair of HMG’s and adds a second SRM-6. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_warhammer_WHM-BW.Description.Details</t>
@@ -3783,7 +3795,7 @@
   <si>
     <t xml:space="preserve">The preferred configuration of the Black Widow Natasha Kerensky, the Widowmaker can do a great deal of damage at any range. For long range combat, an ER PPC backed up by a Large Pulse Laser mounted in each arm. For close combat, the Widowmaker carries three ER Medium Lasers, an ER Small Laser, and an Ultra Autocannon/20. &lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_wolfhound_iic_WLF-GRN.Description.Details</t>
@@ -3799,7 +3811,7 @@
   <si>
     <t xml:space="preserve">Yen-Lo-Wang, named after the Chinese god of death, is a famous individual BattleMech. Its serial number is FS1010-031X. Yen-Lo-Wang has been modified and customized into a variety of different configurations over the years.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Yen Lo Wang&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_yen_lo_wang_ii_CN9-YLW2.Description.Details</t>
@@ -3813,6 +3825,11 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">An early FedSuns BattleMech, the 75 ton Hammerhands debuted in 2475 and served as one of the progenitor designs that would influence the iconic Warhammer. Powered by a 225 rated Fusion Core, the customised Hammerhands HMH-3D used by Lorn Kessem is armed with a pair of LB-10X’s, with a pair of Medium Lasers and an SRM-6 for close range combat.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
     <t>chassisdef_hammerhands_HMH-3D_Kessem.StockRole</t>
   </si>
   <si>
@@ -3830,6 +3847,11 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The personal 'Mech of Hauptmann-General Leonidas Brannock, commander of the 4th Skye Guards during their assault on Glengarry, the Zeus Leonidas was based on the ZEU-9S. It carried an Artemis IV enhanced LRM-20 and a Gauss Rifle in place of the PPC and LRM-15.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
     <t>chassisdef_zeus_ZEU-LEO_Leonidas.StockRole</t>
   </si>
   <si>
@@ -3847,6 +3869,11 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The Shokomish is the custom variant of the 6S designed to emulate the capabilities of the MechWarrior known as Sealth. Mounting the stock AC/5 and Medium Laser, this variant also features a PPC, twin SRM6 , and twin LRM10 launchers. Included on the Shokomish is a MASC in order to allow nearly any MechWarrior to emulate the famed Sealth, if not replicate him.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
     <t>chassisdef_zeus_ZEU-SK_Shokomish.StockRole</t>
   </si>
   <si>
@@ -3867,12 +3894,22 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The personal 'Mech of Hauptmann-General Leonidas Brannock, commander of the 4th Skye Guards during their assault on Glengarry, the Zeus Leonidas was based on the ZEU-9S. It carried an Artemis IV enhanced LRM-20 and a Gauss Rifle in place of the PPC and LRM-15. The rest of the weapons remained the same. 
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
     <t>mechdef_zeus_ZEU-SK_Shokomish.Description.Details</t>
   </si>
   <si>
     <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The Shokomish is the custom variant of the 6S designed to emulate the capabilities of the MechWarrior known as Sealth. Mounting the stock AC/5 and Medium Laser, this variant also features a PPC, twin SRM6 , and twin LRM10 launchers. Included on the Shokomish is a MASC in order to allow nearly any MechWarrior to emulate the famed Sealth, if not replicate him. 
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Barrel Fist&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The Shokomish is the custom variant of the 6S designed to emulate the capabilities of the MechWarrior known as Sealth. Mounting the stock AC/5 and Medium Laser, this variant also features a PPC, twin SRM6 , and twin LRM10 launchers. Included on the Shokomish is a MASC in order to allow nearly any MechWarrior to emulate the famed Sealth, if not replicate him. 
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -3906,7 +3943,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -4207,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="C544" sqref="C1:C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4223,7 +4261,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4240,7 +4278,7 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4257,7 +4295,7 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -4274,7 +4312,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -4291,7 +4329,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -4308,7 +4346,7 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -4325,7 +4363,7 @@
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -4342,7 +4380,7 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -4359,7 +4397,7 @@
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -4376,7 +4414,7 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -4393,7 +4431,7 @@
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -4410,7 +4448,7 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -4427,7 +4465,7 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -4444,7 +4482,7 @@
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -4461,7 +4499,7 @@
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -4478,7 +4516,7 @@
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -4495,7 +4533,7 @@
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -4512,7 +4550,7 @@
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -4529,7 +4567,7 @@
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -4546,7 +4584,7 @@
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -4563,7 +4601,7 @@
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -4580,7 +4618,7 @@
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -4597,7 +4635,7 @@
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -4614,7 +4652,7 @@
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -4631,7 +4669,7 @@
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -4648,7 +4686,7 @@
       <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4665,7 +4703,7 @@
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -4682,7 +4720,7 @@
       <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -4699,7 +4737,7 @@
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -4716,7 +4754,7 @@
       <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -4733,7 +4771,7 @@
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -4750,7 +4788,7 @@
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4767,7 +4805,7 @@
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -4784,7 +4822,7 @@
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -4801,7 +4839,7 @@
       <c r="B35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -4818,7 +4856,7 @@
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -4835,7 +4873,7 @@
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -4852,7 +4890,7 @@
       <c r="B38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -4869,7 +4907,7 @@
       <c r="B39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -4886,7 +4924,7 @@
       <c r="B40" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -4903,7 +4941,7 @@
       <c r="B41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -4920,7 +4958,7 @@
       <c r="B42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -4937,7 +4975,7 @@
       <c r="B43" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -4954,7 +4992,7 @@
       <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -4971,7 +5009,7 @@
       <c r="B45" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -4988,7 +5026,7 @@
       <c r="B46" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -5005,7 +5043,7 @@
       <c r="B47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -5022,7 +5060,7 @@
       <c r="B48" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -5039,7 +5077,7 @@
       <c r="B49" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -5056,7 +5094,7 @@
       <c r="B50" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -5073,7 +5111,7 @@
       <c r="B51" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -5090,7 +5128,7 @@
       <c r="B52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -5107,7 +5145,7 @@
       <c r="B53" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -5124,7 +5162,7 @@
       <c r="B54" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>128</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -5141,7 +5179,7 @@
       <c r="B55" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -5158,7 +5196,7 @@
       <c r="B56" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -5175,7 +5213,7 @@
       <c r="B57" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -5192,7 +5230,7 @@
       <c r="B58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -5209,7 +5247,7 @@
       <c r="B59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -5226,7 +5264,7 @@
       <c r="B60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -5243,7 +5281,7 @@
       <c r="B61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -5260,7 +5298,7 @@
       <c r="B62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -5277,7 +5315,7 @@
       <c r="B63" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>151</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -5294,7 +5332,7 @@
       <c r="B64" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>154</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -5311,7 +5349,7 @@
       <c r="B65" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -5328,7 +5366,7 @@
       <c r="B66" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -5345,7 +5383,7 @@
       <c r="B67" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -5362,7 +5400,7 @@
       <c r="B68" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -5379,7 +5417,7 @@
       <c r="B69" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -5396,7 +5434,7 @@
       <c r="B70" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -5413,7 +5451,7 @@
       <c r="B71" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -5430,7 +5468,7 @@
       <c r="B72" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -5447,7 +5485,7 @@
       <c r="B73" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>177</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -5464,7 +5502,7 @@
       <c r="B74" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>180</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -5481,7 +5519,7 @@
       <c r="B75" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -5498,7 +5536,7 @@
       <c r="B76" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -5515,7 +5553,7 @@
       <c r="B77" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -5532,7 +5570,7 @@
       <c r="B78" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -5549,7 +5587,7 @@
       <c r="B79" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -5566,7 +5604,7 @@
       <c r="B80" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -5583,7 +5621,7 @@
       <c r="B81" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -5600,7 +5638,7 @@
       <c r="B82" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -5617,7 +5655,7 @@
       <c r="B83" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -5634,7 +5672,7 @@
       <c r="B84" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -5651,7 +5689,7 @@
       <c r="B85" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -5668,7 +5706,7 @@
       <c r="B86" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>210</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -5685,7 +5723,7 @@
       <c r="B87" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -5702,7 +5740,7 @@
       <c r="B88" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -5719,7 +5757,7 @@
       <c r="B89" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>218</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -5736,7 +5774,7 @@
       <c r="B90" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>220</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -5753,7 +5791,7 @@
       <c r="B91" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -5770,7 +5808,7 @@
       <c r="B92" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -5787,7 +5825,7 @@
       <c r="B93" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -5804,7 +5842,7 @@
       <c r="B94" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -5821,7 +5859,7 @@
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -5838,7 +5876,7 @@
       <c r="B96" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>232</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -5855,7 +5893,7 @@
       <c r="B97" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -5872,7 +5910,7 @@
       <c r="B98" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -5889,7 +5927,7 @@
       <c r="B99" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -5906,7 +5944,7 @@
       <c r="B100" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -5923,7 +5961,7 @@
       <c r="B101" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -5940,7 +5978,7 @@
       <c r="B102" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -5957,7 +5995,7 @@
       <c r="B103" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -5974,7 +6012,7 @@
       <c r="B104" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>253</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -5991,7 +6029,7 @@
       <c r="B105" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -6008,7 +6046,7 @@
       <c r="B106" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -6025,7 +6063,7 @@
       <c r="B107" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -6042,7 +6080,7 @@
       <c r="B108" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -6059,7 +6097,7 @@
       <c r="B109" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -6076,7 +6114,7 @@
       <c r="B110" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -6093,7 +6131,7 @@
       <c r="B111" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -6110,7 +6148,7 @@
       <c r="B112" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -6127,7 +6165,7 @@
       <c r="B113" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>210</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -6144,7 +6182,7 @@
       <c r="B114" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -6161,7 +6199,7 @@
       <c r="B115" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>276</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -6178,7 +6216,7 @@
       <c r="B116" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>279</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -6195,7 +6233,7 @@
       <c r="B117" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>281</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -6212,7 +6250,7 @@
       <c r="B118" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -6229,7 +6267,7 @@
       <c r="B119" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -6246,7 +6284,7 @@
       <c r="B120" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>288</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -6263,7 +6301,7 @@
       <c r="B121" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -6280,7 +6318,7 @@
       <c r="B122" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -6297,7 +6335,7 @@
       <c r="B123" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>294</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -6314,7 +6352,7 @@
       <c r="B124" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -6331,7 +6369,7 @@
       <c r="B125" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -6348,7 +6386,7 @@
       <c r="B126" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -6365,7 +6403,7 @@
       <c r="B127" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -6382,7 +6420,7 @@
       <c r="B128" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -6399,7 +6437,7 @@
       <c r="B129" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -6416,7 +6454,7 @@
       <c r="B130" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -6433,7 +6471,7 @@
       <c r="B131" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -6450,7 +6488,7 @@
       <c r="B132" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -6467,7 +6505,7 @@
       <c r="B133" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -6484,7 +6522,7 @@
       <c r="B134" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -6501,7 +6539,7 @@
       <c r="B135" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -6518,7 +6556,7 @@
       <c r="B136" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -6535,7 +6573,7 @@
       <c r="B137" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -6552,7 +6590,7 @@
       <c r="B138" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -6569,7 +6607,7 @@
       <c r="B139" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -6586,7 +6624,7 @@
       <c r="B140" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -6603,7 +6641,7 @@
       <c r="B141" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -6620,7 +6658,7 @@
       <c r="B142" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -6637,7 +6675,7 @@
       <c r="B143" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -6654,7 +6692,7 @@
       <c r="B144" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -6671,7 +6709,7 @@
       <c r="B145" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -6688,7 +6726,7 @@
       <c r="B146" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -6705,7 +6743,7 @@
       <c r="B147" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -6722,7 +6760,7 @@
       <c r="B148" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -6739,7 +6777,7 @@
       <c r="B149" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -6756,7 +6794,7 @@
       <c r="B150" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>329</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -6773,7 +6811,7 @@
       <c r="B151" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -6790,7 +6828,7 @@
       <c r="B152" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -6807,7 +6845,7 @@
       <c r="B153" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>335</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -6824,7 +6862,7 @@
       <c r="B154" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -6841,7 +6879,7 @@
       <c r="B155" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -6858,7 +6896,7 @@
       <c r="B156" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>341</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -6875,7 +6913,7 @@
       <c r="B157" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -6892,7 +6930,7 @@
       <c r="B158" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -6909,7 +6947,7 @@
       <c r="B159" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>348</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -6926,7 +6964,7 @@
       <c r="B160" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>351</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -6943,7 +6981,7 @@
       <c r="B161" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -6960,7 +6998,7 @@
       <c r="B162" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -6977,7 +7015,7 @@
       <c r="B163" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -6994,7 +7032,7 @@
       <c r="B164" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -7011,7 +7049,7 @@
       <c r="B165" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -7028,7 +7066,7 @@
       <c r="B166" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="4" t="s">
         <v>366</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -7045,7 +7083,7 @@
       <c r="B167" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="4" t="s">
         <v>368</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -7062,7 +7100,7 @@
       <c r="B168" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="4" t="s">
         <v>370</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -7079,7 +7117,7 @@
       <c r="B169" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="4" t="s">
         <v>373</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -7096,7 +7134,7 @@
       <c r="B170" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="4" t="s">
         <v>375</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -7113,7 +7151,7 @@
       <c r="B171" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="4" t="s">
         <v>377</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -7130,7 +7168,7 @@
       <c r="B172" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="4" t="s">
         <v>373</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -7147,7 +7185,7 @@
       <c r="B173" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="4" t="s">
         <v>375</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -7164,7 +7202,7 @@
       <c r="B174" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="4" t="s">
         <v>381</v>
       </c>
       <c r="D174" s="2" t="s">
@@ -7181,7 +7219,7 @@
       <c r="B175" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="4" t="s">
         <v>384</v>
       </c>
       <c r="D175" s="2" t="s">
@@ -7198,7 +7236,7 @@
       <c r="B176" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D176" s="2" t="s">
@@ -7215,7 +7253,7 @@
       <c r="B177" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="4" t="s">
         <v>388</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -7232,7 +7270,7 @@
       <c r="B178" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="4" t="s">
         <v>391</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -7249,7 +7287,7 @@
       <c r="B179" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -7266,7 +7304,7 @@
       <c r="B180" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D180" s="2" t="s">
@@ -7283,7 +7321,7 @@
       <c r="B181" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="4" t="s">
         <v>398</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -7300,7 +7338,7 @@
       <c r="B182" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="4" t="s">
         <v>400</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -7317,7 +7355,7 @@
       <c r="B183" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="4" t="s">
         <v>402</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -7334,7 +7372,7 @@
       <c r="B184" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="4" t="s">
         <v>405</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -7351,7 +7389,7 @@
       <c r="B185" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="4" t="s">
         <v>408</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -7368,7 +7406,7 @@
       <c r="B186" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="4" t="s">
         <v>411</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -7385,7 +7423,7 @@
       <c r="B187" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="4" t="s">
         <v>414</v>
       </c>
       <c r="D187" s="2" t="s">
@@ -7402,7 +7440,7 @@
       <c r="B188" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="4" t="s">
         <v>417</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -7419,7 +7457,7 @@
       <c r="B189" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="4" t="s">
         <v>419</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -7436,7 +7474,7 @@
       <c r="B190" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="4" t="s">
         <v>422</v>
       </c>
       <c r="D190" s="2" t="s">
@@ -7453,7 +7491,7 @@
       <c r="B191" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="4" t="s">
         <v>417</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -7470,7 +7508,7 @@
       <c r="B192" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="4" t="s">
         <v>425</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -7487,7 +7525,7 @@
       <c r="B193" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="4" t="s">
         <v>428</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -7504,7 +7542,7 @@
       <c r="B194" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D194" s="2" t="s">
@@ -7521,7 +7559,7 @@
       <c r="B195" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="4" t="s">
         <v>431</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -7538,7 +7576,7 @@
       <c r="B196" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="4" t="s">
         <v>434</v>
       </c>
       <c r="D196" s="2" t="s">
@@ -7555,7 +7593,7 @@
       <c r="B197" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -7572,7 +7610,7 @@
       <c r="B198" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="4" t="s">
         <v>437</v>
       </c>
       <c r="D198" s="2" t="s">
@@ -7589,7 +7627,7 @@
       <c r="B199" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="4" t="s">
         <v>440</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -7606,7 +7644,7 @@
       <c r="B200" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="4" t="s">
         <v>443</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -7623,7 +7661,7 @@
       <c r="B201" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="4" t="s">
         <v>445</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -7640,7 +7678,7 @@
       <c r="B202" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="4" t="s">
         <v>448</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -7657,7 +7695,7 @@
       <c r="B203" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="4" t="s">
         <v>451</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -7674,7 +7712,7 @@
       <c r="B204" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="4" t="s">
         <v>453</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -7691,7 +7729,7 @@
       <c r="B205" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="4" t="s">
         <v>456</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -7708,7 +7746,7 @@
       <c r="B206" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -7725,7 +7763,7 @@
       <c r="B207" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="4" t="s">
         <v>459</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -7742,7 +7780,7 @@
       <c r="B208" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="4" t="s">
         <v>462</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -7759,7 +7797,7 @@
       <c r="B209" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -7776,8 +7814,8 @@
       <c r="B210" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C210" s="3" t="s">
-        <v>465</v>
+      <c r="C210" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -7788,13 +7826,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C211" s="3" t="s">
         <v>468</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -7805,12 +7843,12 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -7822,13 +7860,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>472</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>3</v>
@@ -7839,13 +7877,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C214" s="3" t="s">
         <v>474</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>3</v>
@@ -7856,13 +7894,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C215" s="3" t="s">
         <v>477</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -7873,13 +7911,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C216" s="3" t="s">
         <v>480</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>481</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -7890,13 +7928,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C217" s="3" t="s">
         <v>483</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -7907,12 +7945,12 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -7924,13 +7962,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C219" s="3" t="s">
         <v>487</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -7941,13 +7979,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C220" s="3" t="s">
         <v>490</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -7958,13 +7996,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C221" s="3" t="s">
         <v>493</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -7975,13 +8013,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -7992,13 +8030,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>3</v>
@@ -8009,13 +8047,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -8026,13 +8064,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -8043,13 +8081,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -8060,13 +8098,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -8077,13 +8115,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -8094,13 +8132,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>516</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -8111,13 +8149,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -8128,13 +8166,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -8145,13 +8183,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -8162,13 +8200,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -8179,13 +8217,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>525</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -8196,13 +8234,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -8213,12 +8251,12 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D236" s="2" t="s">
@@ -8230,13 +8268,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -8247,13 +8285,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -8264,12 +8302,12 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D239" s="2" t="s">
@@ -8281,13 +8319,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -8298,13 +8336,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -8315,13 +8353,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -8332,13 +8370,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -8349,13 +8387,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>3</v>
@@ -8366,12 +8404,12 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="4" t="s">
         <v>279</v>
       </c>
       <c r="D245" s="2" t="s">
@@ -8383,13 +8421,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>3</v>
@@ -8400,13 +8438,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -8417,13 +8455,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -8434,13 +8472,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>558</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -8451,13 +8489,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
@@ -8468,13 +8506,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -8485,13 +8523,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>564</v>
+        <v>566</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>3</v>
@@ -8502,13 +8540,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>3</v>
@@ -8519,13 +8557,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
@@ -8536,13 +8574,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>3</v>
@@ -8553,13 +8591,13 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>576</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>3</v>
@@ -8570,13 +8608,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>578</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>3</v>
@@ -8587,13 +8625,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>3</v>
@@ -8604,13 +8642,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>583</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>3</v>
@@ -8621,12 +8659,12 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D260" s="2" t="s">
@@ -8638,13 +8676,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>586</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>3</v>
@@ -8655,13 +8693,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>589</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>3</v>
@@ -8672,12 +8710,12 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D263" s="2" t="s">
@@ -8689,13 +8727,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>592</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -8706,13 +8744,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>595</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
@@ -8723,12 +8761,12 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="4" t="s">
         <v>417</v>
       </c>
       <c r="D266" s="2" t="s">
@@ -8740,13 +8778,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -8757,13 +8795,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>3</v>
@@ -8774,13 +8812,13 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>603</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>3</v>
@@ -8791,13 +8829,13 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>3</v>
@@ -8808,13 +8846,13 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>608</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>3</v>
@@ -8825,13 +8863,13 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>3</v>
@@ -8842,13 +8880,13 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>3</v>
@@ -8859,13 +8897,13 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>3</v>
@@ -8876,13 +8914,13 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>618</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>3</v>
@@ -8893,13 +8931,13 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>3</v>
@@ -8910,13 +8948,13 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>623</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>3</v>
@@ -8927,12 +8965,12 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D278" s="2" t="s">
@@ -8944,13 +8982,13 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>626</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>3</v>
@@ -8961,13 +8999,13 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>629</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>3</v>
@@ -8978,13 +9016,13 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>632</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>3</v>
@@ -8995,13 +9033,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>634</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>3</v>
@@ -9012,13 +9050,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>637</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>3</v>
@@ -9029,13 +9067,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>632</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>3</v>
@@ -9046,13 +9084,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>640</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>3</v>
@@ -9063,13 +9101,13 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>643</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>3</v>
@@ -9080,12 +9118,12 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D287" s="2" t="s">
@@ -9097,13 +9135,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>646</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>3</v>
@@ -9114,13 +9152,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>649</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>3</v>
@@ -9131,13 +9169,13 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>651</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>3</v>
@@ -9148,13 +9186,13 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>651</v>
+        <v>653</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>653</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>3</v>
@@ -9165,13 +9203,13 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>656</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>3</v>
@@ -9182,12 +9220,12 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D293" s="2" t="s">
@@ -9199,13 +9237,13 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>659</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>3</v>
@@ -9216,13 +9254,13 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>3</v>
@@ -9233,13 +9271,13 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>665</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>3</v>
@@ -9250,13 +9288,13 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>665</v>
+        <v>667</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>667</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>3</v>
@@ -9267,13 +9305,13 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>3</v>
@@ -9284,13 +9322,13 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>673</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>3</v>
@@ -9301,13 +9339,13 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>675</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>3</v>
@@ -9318,13 +9356,13 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>678</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>3</v>
@@ -9335,13 +9373,13 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>678</v>
+        <v>680</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>680</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>3</v>
@@ -9352,13 +9390,13 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>682</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>3</v>
@@ -9369,13 +9407,13 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>685</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>3</v>
@@ -9386,12 +9424,12 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D305" s="2" t="s">
@@ -9403,13 +9441,13 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>688</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>3</v>
@@ -9420,13 +9458,13 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>691</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>3</v>
@@ -9437,13 +9475,13 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C308" s="3" t="s">
         <v>477</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>3</v>
@@ -9454,13 +9492,13 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>695</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>3</v>
@@ -9471,13 +9509,13 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>698</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>3</v>
@@ -9488,12 +9526,12 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C311" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D311" s="2" t="s">
@@ -9505,13 +9543,13 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>695</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>3</v>
@@ -9522,13 +9560,13 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>3</v>
@@ -9539,13 +9577,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C314" s="3" t="s">
         <v>477</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>3</v>
@@ -9556,13 +9594,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>695</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>3</v>
@@ -9573,13 +9611,13 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>708</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>3</v>
@@ -9590,12 +9628,12 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D317" s="2" t="s">
@@ -9607,13 +9645,13 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>711</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>3</v>
@@ -9624,13 +9662,13 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>3</v>
@@ -9641,13 +9679,13 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>3</v>
@@ -9658,13 +9696,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>719</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>3</v>
@@ -9675,13 +9713,13 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>3</v>
@@ -9692,13 +9730,13 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>725</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>3</v>
@@ -9709,13 +9747,13 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>727</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>3</v>
@@ -9726,13 +9764,13 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>730</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>3</v>
@@ -9743,13 +9781,13 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C326" s="3" t="s">
         <v>477</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>3</v>
@@ -9760,13 +9798,13 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>733</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>3</v>
@@ -9777,13 +9815,13 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>3</v>
@@ -9794,13 +9832,13 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C329" s="3" t="s">
         <v>477</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>3</v>
@@ -9811,13 +9849,13 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>740</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>3</v>
@@ -9828,13 +9866,13 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>743</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>3</v>
@@ -9845,13 +9883,13 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C332" s="3" t="s">
         <v>477</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>3</v>
@@ -9862,13 +9900,13 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>746</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>3</v>
@@ -9879,13 +9917,13 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>749</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>3</v>
@@ -9896,13 +9934,13 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>752</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>3</v>
@@ -9913,13 +9951,13 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>752</v>
+        <v>754</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>754</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>3</v>
@@ -9930,13 +9968,13 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>757</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>3</v>
@@ -9947,13 +9985,13 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C338" s="3" t="s">
         <v>477</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>3</v>
@@ -9964,13 +10002,13 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>3</v>
@@ -9981,13 +10019,13 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>3</v>
@@ -9998,12 +10036,12 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C341" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D341" s="2" t="s">
@@ -10015,13 +10053,13 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>3</v>
@@ -10032,13 +10070,13 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>3</v>
@@ -10049,12 +10087,12 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C344" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D344" s="2" t="s">
@@ -10066,13 +10104,13 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>774</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>3</v>
@@ -10083,13 +10121,13 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>777</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>3</v>
@@ -10100,12 +10138,12 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C347" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D347" s="2" t="s">
@@ -10117,13 +10155,13 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>780</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>3</v>
@@ -10134,13 +10172,13 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>783</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>3</v>
@@ -10151,13 +10189,13 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>3</v>
@@ -10168,13 +10206,13 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>788</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>3</v>
@@ -10185,13 +10223,13 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>791</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>3</v>
@@ -10202,13 +10240,13 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>794</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>3</v>
@@ -10219,13 +10257,13 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>797</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>3</v>
@@ -10236,13 +10274,13 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>800</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>3</v>
@@ -10253,13 +10291,13 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>800</v>
+        <v>802</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>802</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>3</v>
@@ -10270,13 +10308,13 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>711</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>3</v>
@@ -10287,13 +10325,13 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>806</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>3</v>
@@ -10304,13 +10342,13 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>809</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>3</v>
@@ -10321,13 +10359,13 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>3</v>
@@ -10338,13 +10376,13 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>3</v>
@@ -10355,13 +10393,13 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>816</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>3</v>
@@ -10372,13 +10410,13 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>816</v>
+        <v>818</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>818</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>3</v>
@@ -10389,13 +10427,13 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>821</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>3</v>
@@ -10406,13 +10444,13 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>809</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>3</v>
@@ -10423,13 +10461,13 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>822</v>
+        <v>824</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>824</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>3</v>
@@ -10440,13 +10478,13 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>827</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>3</v>
@@ -10457,13 +10495,13 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>809</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>3</v>
@@ -10474,13 +10512,13 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>830</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>3</v>
@@ -10491,13 +10529,13 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>833</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>3</v>
@@ -10508,13 +10546,13 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>809</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>3</v>
@@ -10525,13 +10563,13 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>834</v>
+        <v>836</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>3</v>
@@ -10542,13 +10580,13 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>3</v>
@@ -10559,13 +10597,13 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>842</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>3</v>
@@ -10576,13 +10614,13 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>842</v>
+        <v>844</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>844</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>3</v>
@@ -10593,13 +10631,13 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>847</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>3</v>
@@ -10610,12 +10648,12 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="C377" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D377" s="2" t="s">
@@ -10627,13 +10665,13 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>848</v>
+        <v>850</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>851</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>3</v>
@@ -10644,13 +10682,13 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>851</v>
+        <v>853</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>3</v>
@@ -10661,13 +10699,13 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C380" s="3" t="s">
         <v>477</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>3</v>
@@ -10678,13 +10716,13 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>854</v>
+        <v>857</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>858</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>3</v>
@@ -10695,13 +10733,13 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>857</v>
+        <v>860</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>861</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>3</v>
@@ -10712,13 +10750,13 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C383" s="3" t="s">
         <v>477</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>3</v>
@@ -10729,13 +10767,13 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>860</v>
+        <v>864</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>3</v>
@@ -10746,13 +10784,13 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>863</v>
+        <v>866</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>867</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>3</v>
@@ -10763,13 +10801,13 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>3</v>
@@ -10780,13 +10818,13 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>866</v>
+        <v>870</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>870</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>3</v>
@@ -10797,13 +10835,13 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>869</v>
+        <v>872</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>873</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>3</v>
@@ -10814,12 +10852,12 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C389" s="3" t="s">
+      <c r="C389" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D389" s="2" t="s">
@@ -10831,12 +10869,12 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C390" s="3" t="s">
+      <c r="C390" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D390" s="2" t="s">
@@ -10848,13 +10886,13 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>874</v>
+        <v>877</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>878</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>3</v>
@@ -10865,13 +10903,13 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>877</v>
+        <v>880</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>881</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>3</v>
@@ -10882,13 +10920,13 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>883</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>3</v>
@@ -10899,13 +10937,13 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>882</v>
+        <v>885</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>886</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>3</v>
@@ -10916,13 +10954,13 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>884</v>
+        <v>888</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>888</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>3</v>
@@ -10933,13 +10971,13 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>887</v>
+        <v>890</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>891</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>3</v>
@@ -10950,13 +10988,13 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>890</v>
+        <v>893</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>3</v>
@@ -10967,13 +11005,13 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>884</v>
+        <v>888</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>888</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>3</v>
@@ -10984,13 +11022,13 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>893</v>
+        <v>897</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>897</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>3</v>
@@ -11001,12 +11039,12 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C400" s="3" t="s">
+      <c r="C400" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D400" s="2" t="s">
@@ -11018,12 +11056,12 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C401" s="3" t="s">
+      <c r="C401" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D401" s="2" t="s">
@@ -11035,12 +11073,12 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C402" s="3" t="s">
+      <c r="C402" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D402" s="2" t="s">
@@ -11052,12 +11090,12 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C403" s="3" t="s">
+      <c r="C403" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D403" s="2" t="s">
@@ -11069,12 +11107,12 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C404" s="3" t="s">
+      <c r="C404" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D404" s="2" t="s">
@@ -11086,12 +11124,12 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C405" s="3" t="s">
+      <c r="C405" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D405" s="2" t="s">
@@ -11103,12 +11141,12 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C406" s="3" t="s">
+      <c r="C406" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D406" s="2" t="s">
@@ -11120,12 +11158,12 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C407" s="3" t="s">
+      <c r="C407" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D407" s="2" t="s">
@@ -11137,13 +11175,13 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>904</v>
+        <v>907</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>908</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>3</v>
@@ -11154,12 +11192,12 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C409" s="3" t="s">
+      <c r="C409" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D409" s="2" t="s">
@@ -11171,12 +11209,12 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C410" s="3" t="s">
+      <c r="C410" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D410" s="2" t="s">
@@ -11188,12 +11226,12 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C411" s="3" t="s">
+      <c r="C411" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D411" s="2" t="s">
@@ -11205,12 +11243,12 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C412" s="3" t="s">
+      <c r="C412" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D412" s="2" t="s">
@@ -11222,13 +11260,13 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>911</v>
+        <v>914</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>915</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>3</v>
@@ -11239,12 +11277,12 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C414" s="3" t="s">
+      <c r="C414" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D414" s="2" t="s">
@@ -11256,13 +11294,13 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>915</v>
+        <v>918</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>919</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>3</v>
@@ -11273,13 +11311,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>918</v>
+        <v>921</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>922</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>3</v>
@@ -11290,12 +11328,12 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C417" s="3" t="s">
+      <c r="C417" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D417" s="2" t="s">
@@ -11307,12 +11345,12 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C418" s="3" t="s">
+      <c r="C418" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D418" s="2" t="s">
@@ -11324,12 +11362,12 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C419" s="3" t="s">
+      <c r="C419" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D419" s="2" t="s">
@@ -11341,12 +11379,12 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C420" s="3" t="s">
+      <c r="C420" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D420" s="2" t="s">
@@ -11358,12 +11396,12 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C421" s="3" t="s">
+      <c r="C421" s="4" t="s">
         <v>154</v>
       </c>
       <c r="D421" s="2" t="s">
@@ -11375,12 +11413,12 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C422" s="3" t="s">
+      <c r="C422" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D422" s="2" t="s">
@@ -11392,12 +11430,12 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C423" s="3" t="s">
+      <c r="C423" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D423" s="2" t="s">
@@ -11409,12 +11447,12 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C424" s="3" t="s">
+      <c r="C424" s="4" t="s">
         <v>177</v>
       </c>
       <c r="D424" s="2" t="s">
@@ -11426,12 +11464,12 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C425" s="3" t="s">
+      <c r="C425" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D425" s="2" t="s">
@@ -11443,13 +11481,13 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>930</v>
+        <v>933</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>934</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>3</v>
@@ -11460,12 +11498,12 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C427" s="3" t="s">
+      <c r="C427" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D427" s="2" t="s">
@@ -11477,12 +11515,12 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C428" s="3" t="s">
+      <c r="C428" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D428" s="2" t="s">
@@ -11494,12 +11532,12 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C429" s="3" t="s">
+      <c r="C429" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D429" s="2" t="s">
@@ -11511,12 +11549,12 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="C430" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D430" s="2" t="s">
@@ -11528,12 +11566,12 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="C431" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D431" s="2" t="s">
@@ -11545,12 +11583,12 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C432" s="3" t="s">
+      <c r="C432" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D432" s="2" t="s">
@@ -11562,13 +11600,13 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>939</v>
+        <v>942</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>943</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>3</v>
@@ -11579,12 +11617,12 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C434" s="3" t="s">
+      <c r="C434" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D434" s="2" t="s">
@@ -11596,13 +11634,13 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>943</v>
+        <v>946</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>947</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>3</v>
@@ -11613,12 +11651,12 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C436" s="3" t="s">
+      <c r="C436" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D436" s="2" t="s">
@@ -11630,12 +11668,12 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="C437" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D437" s="2" t="s">
@@ -11647,12 +11685,12 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C438" s="3" t="s">
+      <c r="C438" s="4" t="s">
         <v>276</v>
       </c>
       <c r="D438" s="2" t="s">
@@ -11664,12 +11702,12 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C439" s="3" t="s">
+      <c r="C439" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D439" s="2" t="s">
@@ -11681,12 +11719,12 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C440" s="3" t="s">
+      <c r="C440" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D440" s="2" t="s">
@@ -11698,12 +11736,12 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C441" s="3" t="s">
+      <c r="C441" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D441" s="2" t="s">
@@ -11715,12 +11753,12 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C442" s="3" t="s">
+      <c r="C442" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D442" s="2" t="s">
@@ -11732,12 +11770,12 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C443" s="3" t="s">
+      <c r="C443" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D443" s="2" t="s">
@@ -11749,12 +11787,12 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C444" s="3" t="s">
+      <c r="C444" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D444" s="2" t="s">
@@ -11766,12 +11804,12 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C445" s="3" t="s">
+      <c r="C445" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D445" s="2" t="s">
@@ -11783,12 +11821,12 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C446" s="3" t="s">
+      <c r="C446" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D446" s="2" t="s">
@@ -11800,12 +11838,12 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C447" s="3" t="s">
+      <c r="C447" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D447" s="2" t="s">
@@ -11817,12 +11855,12 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C448" s="3" t="s">
+      <c r="C448" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D448" s="2" t="s">
@@ -11834,13 +11872,13 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>959</v>
+        <v>962</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>963</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>3</v>
@@ -11851,13 +11889,13 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>962</v>
+        <v>965</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>966</v>
       </c>
       <c r="D450" s="2" t="s">
         <v>3</v>
@@ -11868,12 +11906,12 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C451" s="3" t="s">
+      <c r="C451" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D451" s="2" t="s">
@@ -11885,12 +11923,12 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C452" s="3" t="s">
+      <c r="C452" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D452" s="2" t="s">
@@ -11902,13 +11940,13 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>967</v>
+        <v>970</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>971</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>3</v>
@@ -11919,12 +11957,12 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C454" s="3" t="s">
+      <c r="C454" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D454" s="2" t="s">
@@ -11936,12 +11974,12 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C455" s="3" t="s">
+      <c r="C455" s="4" t="s">
         <v>366</v>
       </c>
       <c r="D455" s="2" t="s">
@@ -11953,12 +11991,12 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C456" s="3" t="s">
+      <c r="C456" s="4" t="s">
         <v>373</v>
       </c>
       <c r="D456" s="2" t="s">
@@ -11970,12 +12008,12 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C457" s="3" t="s">
+      <c r="C457" s="4" t="s">
         <v>373</v>
       </c>
       <c r="D457" s="2" t="s">
@@ -11987,12 +12025,12 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C458" s="3" t="s">
+      <c r="C458" s="4" t="s">
         <v>384</v>
       </c>
       <c r="D458" s="2" t="s">
@@ -12004,12 +12042,12 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C459" s="3" t="s">
+      <c r="C459" s="4" t="s">
         <v>391</v>
       </c>
       <c r="D459" s="2" t="s">
@@ -12021,12 +12059,12 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C460" s="3" t="s">
+      <c r="C460" s="4" t="s">
         <v>398</v>
       </c>
       <c r="D460" s="2" t="s">
@@ -12038,13 +12076,13 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>977</v>
+        <v>980</v>
+      </c>
+      <c r="C461" s="4" t="s">
+        <v>981</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>3</v>
@@ -12055,12 +12093,12 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C462" s="3" t="s">
+      <c r="C462" s="4" t="s">
         <v>414</v>
       </c>
       <c r="D462" s="2" t="s">
@@ -12072,12 +12110,12 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C463" s="3" t="s">
+      <c r="C463" s="4" t="s">
         <v>422</v>
       </c>
       <c r="D463" s="2" t="s">
@@ -12089,12 +12127,12 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C464" s="3" t="s">
+      <c r="C464" s="4" t="s">
         <v>428</v>
       </c>
       <c r="D464" s="2" t="s">
@@ -12106,12 +12144,12 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C465" s="3" t="s">
+      <c r="C465" s="4" t="s">
         <v>434</v>
       </c>
       <c r="D465" s="2" t="s">
@@ -12123,13 +12161,13 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>984</v>
+        <v>987</v>
+      </c>
+      <c r="C466" s="4" t="s">
+        <v>988</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>3</v>
@@ -12140,12 +12178,12 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C467" s="3" t="s">
+      <c r="C467" s="4" t="s">
         <v>448</v>
       </c>
       <c r="D467" s="2" t="s">
@@ -12157,12 +12195,12 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C468" s="3" t="s">
+      <c r="C468" s="4" t="s">
         <v>456</v>
       </c>
       <c r="D468" s="2" t="s">
@@ -12174,12 +12212,12 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C469" s="3" t="s">
+      <c r="C469" s="4" t="s">
         <v>462</v>
       </c>
       <c r="D469" s="2" t="s">
@@ -12191,13 +12229,13 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C470" s="3" t="s">
         <v>468</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="D470" s="2" t="s">
         <v>3</v>
@@ -12208,13 +12246,13 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C471" s="3" t="s">
         <v>474</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>3</v>
@@ -12225,13 +12263,13 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>483</v>
+        <v>995</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>3</v>
@@ -12242,13 +12280,13 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C473" s="3" t="s">
         <v>490</v>
+      </c>
+      <c r="C473" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>3</v>
@@ -12259,13 +12297,13 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="C474" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="D474" s="2" t="s">
         <v>3</v>
@@ -12276,13 +12314,13 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
+      </c>
+      <c r="C475" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="D475" s="2" t="s">
         <v>3</v>
@@ -12293,13 +12331,13 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
+      </c>
+      <c r="C476" s="4" t="s">
+        <v>516</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>3</v>
@@ -12310,13 +12348,13 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>998</v>
+        <v>1001</v>
+      </c>
+      <c r="C477" s="4" t="s">
+        <v>1002</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>3</v>
@@ -12327,13 +12365,13 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>3</v>
@@ -12344,13 +12382,13 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="D479" s="2" t="s">
         <v>3</v>
@@ -12361,13 +12399,13 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
+      </c>
+      <c r="C480" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="D480" s="2" t="s">
         <v>3</v>
@@ -12378,13 +12416,13 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="C481" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>3</v>
@@ -12395,13 +12433,13 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="D482" s="2" t="s">
         <v>3</v>
@@ -12412,13 +12450,13 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
+      </c>
+      <c r="C483" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="D483" s="2" t="s">
         <v>3</v>
@@ -12429,13 +12467,13 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="C484" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="D484" s="2" t="s">
         <v>3</v>
@@ -12446,13 +12484,13 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
+      </c>
+      <c r="C485" s="4" t="s">
+        <v>576</v>
       </c>
       <c r="D485" s="2" t="s">
         <v>3</v>
@@ -12463,13 +12501,13 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>583</v>
       </c>
       <c r="D486" s="2" t="s">
         <v>3</v>
@@ -12480,13 +12518,13 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
+      </c>
+      <c r="C487" s="4" t="s">
+        <v>589</v>
       </c>
       <c r="D487" s="2" t="s">
         <v>3</v>
@@ -12497,13 +12535,13 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
+      </c>
+      <c r="C488" s="4" t="s">
+        <v>595</v>
       </c>
       <c r="D488" s="2" t="s">
         <v>3</v>
@@ -12514,13 +12552,13 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="D489" s="2" t="s">
         <v>3</v>
@@ -12531,13 +12569,13 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>608</v>
       </c>
       <c r="D490" s="2" t="s">
         <v>3</v>
@@ -12548,13 +12586,13 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>3</v>
@@ -12565,13 +12603,13 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>623</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>3</v>
@@ -12582,13 +12620,13 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
+      </c>
+      <c r="C493" s="4" t="s">
+        <v>629</v>
       </c>
       <c r="D493" s="2" t="s">
         <v>3</v>
@@ -12599,13 +12637,13 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
+      </c>
+      <c r="C494" s="4" t="s">
+        <v>637</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>3</v>
@@ -12616,13 +12654,13 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>643</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>3</v>
@@ -12633,13 +12671,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>1019</v>
+        <v>1022</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>1023</v>
       </c>
       <c r="D496" s="2" t="s">
         <v>3</v>
@@ -12650,13 +12688,13 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>656</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>3</v>
@@ -12667,13 +12705,13 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>3</v>
@@ -12684,13 +12722,13 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>3</v>
@@ -12701,13 +12739,13 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>678</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>3</v>
@@ -12718,13 +12756,13 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>685</v>
       </c>
       <c r="D501" s="2" t="s">
         <v>3</v>
@@ -12735,13 +12773,13 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>691</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>3</v>
@@ -12752,13 +12790,13 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>698</v>
       </c>
       <c r="D503" s="2" t="s">
         <v>3</v>
@@ -12769,13 +12807,13 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="C504" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="D504" s="2" t="s">
         <v>3</v>
@@ -12786,13 +12824,13 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
+      </c>
+      <c r="C505" s="4" t="s">
+        <v>708</v>
       </c>
       <c r="D505" s="2" t="s">
         <v>3</v>
@@ -12803,13 +12841,13 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
+      </c>
+      <c r="C506" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="D506" s="2" t="s">
         <v>3</v>
@@ -12820,13 +12858,13 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>3</v>
@@ -12837,13 +12875,13 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>730</v>
       </c>
       <c r="D508" s="2" t="s">
         <v>3</v>
@@ -12854,13 +12892,13 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
+      </c>
+      <c r="C509" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="D509" s="2" t="s">
         <v>3</v>
@@ -12871,13 +12909,13 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
+      </c>
+      <c r="C510" s="4" t="s">
+        <v>743</v>
       </c>
       <c r="D510" s="2" t="s">
         <v>3</v>
@@ -12888,13 +12926,13 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>749</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>3</v>
@@ -12905,13 +12943,13 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
+      </c>
+      <c r="C512" s="4" t="s">
+        <v>757</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>3</v>
@@ -12922,13 +12960,13 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
+      </c>
+      <c r="C513" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>3</v>
@@ -12939,13 +12977,13 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="D514" s="2" t="s">
         <v>3</v>
@@ -12956,13 +12994,13 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="C515" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>777</v>
       </c>
       <c r="D515" s="2" t="s">
         <v>3</v>
@@ -12973,13 +13011,13 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>783</v>
       </c>
       <c r="D516" s="2" t="s">
         <v>3</v>
@@ -12990,13 +13028,13 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C517" s="3" t="s">
-        <v>1042</v>
+        <v>1045</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>1046</v>
       </c>
       <c r="D517" s="2" t="s">
         <v>3</v>
@@ -13007,13 +13045,13 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>800</v>
       </c>
       <c r="D518" s="2" t="s">
         <v>3</v>
@@ -13024,13 +13062,13 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
+      </c>
+      <c r="C519" s="4" t="s">
+        <v>806</v>
       </c>
       <c r="D519" s="2" t="s">
         <v>3</v>
@@ -13041,13 +13079,13 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
+      </c>
+      <c r="C520" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="D520" s="2" t="s">
         <v>3</v>
@@ -13058,13 +13096,13 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
+      </c>
+      <c r="C521" s="4" t="s">
+        <v>821</v>
       </c>
       <c r="D521" s="2" t="s">
         <v>3</v>
@@ -13075,13 +13113,13 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>827</v>
       </c>
       <c r="D522" s="2" t="s">
         <v>3</v>
@@ -13092,13 +13130,13 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>1050</v>
+        <v>1053</v>
+      </c>
+      <c r="C523" s="4" t="s">
+        <v>1054</v>
       </c>
       <c r="D523" s="2" t="s">
         <v>3</v>
@@ -13109,13 +13147,13 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="C524" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="D524" s="2" t="s">
         <v>3</v>
@@ -13126,13 +13164,13 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
+      </c>
+      <c r="C525" s="4" t="s">
+        <v>847</v>
       </c>
       <c r="D525" s="2" t="s">
         <v>3</v>
@@ -13143,13 +13181,13 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>851</v>
+        <v>853</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="D526" s="2" t="s">
         <v>3</v>
@@ -13160,13 +13198,13 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>1056</v>
+        <v>1059</v>
+      </c>
+      <c r="C527" s="4" t="s">
+        <v>1060</v>
       </c>
       <c r="D527" s="2" t="s">
         <v>3</v>
@@ -13177,13 +13215,13 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>863</v>
+        <v>866</v>
+      </c>
+      <c r="C528" s="4" t="s">
+        <v>867</v>
       </c>
       <c r="D528" s="2" t="s">
         <v>3</v>
@@ -13194,13 +13232,13 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>1060</v>
+        <v>1063</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>1064</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>3</v>
@@ -13211,13 +13249,13 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="C530" s="3" t="s">
-        <v>874</v>
+        <v>877</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>878</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>3</v>
@@ -13228,13 +13266,13 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C531" s="3" t="s">
-        <v>1064</v>
+        <v>1067</v>
+      </c>
+      <c r="C531" s="4" t="s">
+        <v>1068</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>3</v>
@@ -13245,13 +13283,13 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>890</v>
+        <v>893</v>
+      </c>
+      <c r="C532" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>3</v>
@@ -13262,13 +13300,13 @@
     </row>
     <row r="533">
       <c r="A533" s="3" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>1067</v>
+        <v>1071</v>
+      </c>
+      <c r="C533" s="4" t="s">
+        <v>1072</v>
       </c>
       <c r="E533" s="2">
         <v>533</v>
@@ -13276,13 +13314,13 @@
     </row>
     <row r="534">
       <c r="A534" s="3" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C534" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+      <c r="C534" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="E534" s="2">
         <v>534</v>
@@ -13290,13 +13328,13 @@
     </row>
     <row r="535">
       <c r="A535" s="3" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>1070</v>
+        <v>1075</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>1075</v>
       </c>
       <c r="E535" s="2">
         <v>535</v>
@@ -13304,13 +13342,13 @@
     </row>
     <row r="536">
       <c r="A536" s="3" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>1072</v>
+        <v>1077</v>
+      </c>
+      <c r="C536" s="4" t="s">
+        <v>1078</v>
       </c>
       <c r="E536" s="2">
         <v>536</v>
@@ -13318,12 +13356,12 @@
     </row>
     <row r="537">
       <c r="A537" s="3" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C537" s="3" t="s">
+      <c r="C537" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E537" s="2">
@@ -13332,13 +13370,13 @@
     </row>
     <row r="538">
       <c r="A538" s="3" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>1075</v>
+        <v>1081</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>1081</v>
       </c>
       <c r="E538" s="2">
         <v>538</v>
@@ -13346,13 +13384,13 @@
     </row>
     <row r="539">
       <c r="A539" s="3" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>1077</v>
+        <v>1083</v>
+      </c>
+      <c r="C539" s="4" t="s">
+        <v>1084</v>
       </c>
       <c r="E539" s="2">
         <v>539</v>
@@ -13360,13 +13398,13 @@
     </row>
     <row r="540">
       <c r="A540" s="3" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C540" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="E540" s="2">
         <v>540</v>
@@ -13374,13 +13412,13 @@
     </row>
     <row r="541">
       <c r="A541" s="3" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>1080</v>
+        <v>1087</v>
+      </c>
+      <c r="C541" s="4" t="s">
+        <v>1087</v>
       </c>
       <c r="E541" s="2">
         <v>541</v>
@@ -13388,13 +13426,13 @@
     </row>
     <row r="542">
       <c r="A542" s="3" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C542" s="3" t="s">
-        <v>1067</v>
+        <v>1071</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>1072</v>
       </c>
       <c r="E542" s="2">
         <v>542</v>
@@ -13402,13 +13440,13 @@
     </row>
     <row r="543">
       <c r="A543" s="3" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C543" s="3" t="s">
-        <v>1083</v>
+        <v>1090</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>1091</v>
       </c>
       <c r="E543" s="2">
         <v>543</v>
@@ -13416,13 +13454,13 @@
     </row>
     <row r="544">
       <c r="A544" s="3" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C544" s="3" t="s">
-        <v>1085</v>
+        <v>1093</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="E544" s="2">
         <v>544</v>

--- a/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="1097">
   <si>
     <t>chassisdef_adder_ADR-CN.Description.Details</t>
   </si>
@@ -1322,6 +1322,9 @@
     <t>Clan Battlemech</t>
   </si>
   <si>
+    <t>Боевой мех кланов</t>
+  </si>
+  <si>
     <t>chassisdef_highlander_HGN-IIC-KP_keeper.YangsThoughts</t>
   </si>
   <si>
@@ -1980,7 +1983,7 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">A customized variant of the Night Gyr. The Jade Kite uses a pair of Ultra Autocannon/2s in its left arm, supported by a pair of ammo. The left torso carries a pair of Machine Guns, each with one ton of autocannon ammo and a half-ton of machine gun ammo. The right arm carries a pair of ER PPCs. In the right torso, two Streak SRM-6s with two tons of ammo.
+    <t xml:space="preserve">Переделанный вариант Night Gyr. The Jade Kite (Нефритовый воздушный змей) оснащен парой UAC/2 в левой руке, с двумя тоннами боеприпасов. В левый полуторс установлено два пулемета, каждый с тонной снарядов для автопушек и половиной тонны пулеметных лент. Правая рука несет пару ER PPC. В правом полуторсе две установки Streak SRM-6 с двумя тоннами боекомплекта.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Combat Computer&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
@@ -1998,6 +2001,9 @@
   </si>
   <si>
     <t>A customized variant of the Night Gyr. The Jade Kite uses a pair of Ultra Autocannon/2s in its left arm, supported by a pair of ammo. The left torso carries a pair of Machine Guns, each with one ton of autocannon ammo and a half-ton of machine gun ammo. The right arm carries a pair of ER PPCs. In the right torso, two Streak SRM-6s with two tons of ammo.</t>
+  </si>
+  <si>
+    <t>Переделанный вариант Night Gyr. The Jade Kite (Нефритовый воздушный змей) оснащен парой UAC/2 в левой руке, с двумя тоннами боеприпасов. В левый полуторс установлено два пулемета, каждый с тонной снарядов для автопушек и половиной тонны пулеметных лент. Правая рука несет пару ER PPC. В правом полуторсе две установки Streak SRM-6 с двумя тоннами боекомплекта.</t>
   </si>
   <si>
     <t>chassisdef_number_seven_CGR-N7.Description.Details</t>
@@ -4245,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="C544" sqref="C1:C544"/>
+    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="C548" sqref="C548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7084,7 +7090,7 @@
         <v>368</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -7095,13 +7101,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -7112,13 +7118,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -7129,13 +7135,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -7146,13 +7152,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -7163,13 +7169,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -7180,13 +7186,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -7197,13 +7203,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -7214,13 +7220,13 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -7231,7 +7237,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>237</v>
@@ -7248,13 +7254,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>3</v>
@@ -7265,13 +7271,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -7282,7 +7288,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>170</v>
@@ -7299,13 +7305,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -7316,13 +7322,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -7333,13 +7339,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -7350,13 +7356,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
@@ -7367,13 +7373,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -7384,13 +7390,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -7401,13 +7407,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -7418,13 +7424,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -7435,13 +7441,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -7452,13 +7458,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -7469,13 +7475,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -7486,13 +7492,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -7503,13 +7509,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -7520,13 +7526,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -7537,7 +7543,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>361</v>
@@ -7554,13 +7560,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -7571,13 +7577,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -7588,7 +7594,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>35</v>
@@ -7605,13 +7611,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -7622,13 +7628,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -7639,13 +7645,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -7656,13 +7662,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -7673,13 +7679,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -7690,13 +7696,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>3</v>
@@ -7707,13 +7713,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -7724,13 +7730,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -7741,7 +7747,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>35</v>
@@ -7758,13 +7764,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -7775,13 +7781,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -7792,7 +7798,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>237</v>
@@ -7809,13 +7815,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -7826,13 +7832,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -7843,7 +7849,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>170</v>
@@ -7860,13 +7866,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>3</v>
@@ -7877,13 +7883,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>3</v>
@@ -7894,13 +7900,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -7911,13 +7917,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -7928,13 +7934,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -7945,7 +7951,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>187</v>
@@ -7962,13 +7968,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -7979,13 +7985,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -7996,13 +8002,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -8013,13 +8019,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -8030,13 +8036,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>3</v>
@@ -8047,13 +8053,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -8064,13 +8070,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -8081,13 +8087,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -8098,13 +8104,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -8115,13 +8121,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -8132,13 +8138,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -8149,13 +8155,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -8166,13 +8172,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -8183,13 +8189,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -8200,13 +8206,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -8217,13 +8223,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -8234,13 +8240,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -8251,7 +8257,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>111</v>
@@ -8268,13 +8274,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -8285,13 +8291,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -8302,7 +8308,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>237</v>
@@ -8319,13 +8325,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -8336,13 +8342,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -8353,13 +8359,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -8370,13 +8376,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -8387,13 +8393,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>3</v>
@@ -8404,7 +8410,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>278</v>
@@ -8421,13 +8427,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>3</v>
@@ -8438,13 +8444,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -8455,13 +8461,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -8472,13 +8478,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -8489,13 +8495,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
@@ -8506,13 +8512,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -8523,13 +8529,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>3</v>
@@ -8540,13 +8546,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>3</v>
@@ -8557,13 +8563,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
@@ -8574,13 +8580,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>3</v>
@@ -8591,13 +8597,13 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>3</v>
@@ -8608,13 +8614,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>3</v>
@@ -8625,13 +8631,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>3</v>
@@ -8642,13 +8648,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>3</v>
@@ -8659,7 +8665,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>237</v>
@@ -8676,13 +8682,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>3</v>
@@ -8693,13 +8699,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>3</v>
@@ -8710,7 +8716,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>237</v>
@@ -8727,13 +8733,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -8744,13 +8750,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
@@ -8761,13 +8767,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>3</v>
@@ -8778,13 +8784,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -8795,13 +8801,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>3</v>
@@ -8812,13 +8818,13 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>3</v>
@@ -8829,13 +8835,13 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>3</v>
@@ -8846,13 +8852,13 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>3</v>
@@ -8863,13 +8869,13 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>3</v>
@@ -8880,13 +8886,13 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>3</v>
@@ -8897,13 +8903,13 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>3</v>
@@ -8914,13 +8920,13 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>3</v>
@@ -8931,13 +8937,13 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>3</v>
@@ -8948,13 +8954,13 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>3</v>
@@ -8965,7 +8971,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>62</v>
@@ -8982,13 +8988,13 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>3</v>
@@ -8999,13 +9005,13 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>3</v>
@@ -9016,13 +9022,13 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>3</v>
@@ -9033,13 +9039,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>3</v>
@@ -9050,13 +9056,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>3</v>
@@ -9067,13 +9073,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>3</v>
@@ -9084,13 +9090,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>3</v>
@@ -9101,13 +9107,13 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>3</v>
@@ -9118,7 +9124,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>170</v>
@@ -9135,13 +9141,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>3</v>
@@ -9152,13 +9158,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>3</v>
@@ -9169,13 +9175,13 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>3</v>
@@ -9186,13 +9192,13 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>3</v>
@@ -9203,13 +9209,13 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>3</v>
@@ -9220,7 +9226,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>5</v>
@@ -9237,13 +9243,13 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>3</v>
@@ -9254,13 +9260,13 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>3</v>
@@ -9271,13 +9277,13 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>3</v>
@@ -9288,13 +9294,13 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>3</v>
@@ -9305,13 +9311,13 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>3</v>
@@ -9322,13 +9328,13 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>3</v>
@@ -9339,13 +9345,13 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>3</v>
@@ -9356,13 +9362,13 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>3</v>
@@ -9373,13 +9379,13 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>3</v>
@@ -9390,13 +9396,13 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>3</v>
@@ -9407,13 +9413,13 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>3</v>
@@ -9424,7 +9430,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>5</v>
@@ -9441,13 +9447,13 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>3</v>
@@ -9458,13 +9464,13 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>3</v>
@@ -9475,13 +9481,13 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>3</v>
@@ -9492,13 +9498,13 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>3</v>
@@ -9509,13 +9515,13 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>3</v>
@@ -9526,7 +9532,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>237</v>
@@ -9543,13 +9549,13 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>3</v>
@@ -9560,13 +9566,13 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>3</v>
@@ -9577,13 +9583,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>3</v>
@@ -9594,13 +9600,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>3</v>
@@ -9611,13 +9617,13 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>3</v>
@@ -9628,7 +9634,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>5</v>
@@ -9645,13 +9651,13 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>3</v>
@@ -9662,13 +9668,13 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>3</v>
@@ -9679,13 +9685,13 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>3</v>
@@ -9696,13 +9702,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>3</v>
@@ -9713,13 +9719,13 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>3</v>
@@ -9730,13 +9736,13 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>3</v>
@@ -9747,13 +9753,13 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>3</v>
@@ -9764,13 +9770,13 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>3</v>
@@ -9781,13 +9787,13 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>3</v>
@@ -9798,13 +9804,13 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>3</v>
@@ -9815,13 +9821,13 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>3</v>
@@ -9832,13 +9838,13 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>3</v>
@@ -9849,13 +9855,13 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>3</v>
@@ -9866,13 +9872,13 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>3</v>
@@ -9883,13 +9889,13 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>3</v>
@@ -9900,13 +9906,13 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>3</v>
@@ -9917,13 +9923,13 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>3</v>
@@ -9934,13 +9940,13 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>3</v>
@@ -9951,13 +9957,13 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>3</v>
@@ -9968,13 +9974,13 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>3</v>
@@ -9985,13 +9991,13 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>3</v>
@@ -10002,13 +10008,13 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>3</v>
@@ -10019,13 +10025,13 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>3</v>
@@ -10036,7 +10042,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>286</v>
@@ -10053,13 +10059,13 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>3</v>
@@ -10070,13 +10076,13 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>3</v>
@@ -10087,7 +10093,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>187</v>
@@ -10104,13 +10110,13 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>3</v>
@@ -10121,13 +10127,13 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>3</v>
@@ -10138,7 +10144,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>286</v>
@@ -10155,13 +10161,13 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>3</v>
@@ -10172,13 +10178,13 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>3</v>
@@ -10189,13 +10195,13 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>3</v>
@@ -10206,13 +10212,13 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>3</v>
@@ -10223,13 +10229,13 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>3</v>
@@ -10240,13 +10246,13 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>3</v>
@@ -10257,13 +10263,13 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>3</v>
@@ -10274,13 +10280,13 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>3</v>
@@ -10291,13 +10297,13 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>3</v>
@@ -10308,13 +10314,13 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>3</v>
@@ -10325,13 +10331,13 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>3</v>
@@ -10342,13 +10348,13 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>3</v>
@@ -10359,13 +10365,13 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>3</v>
@@ -10376,13 +10382,13 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>3</v>
@@ -10393,13 +10399,13 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>3</v>
@@ -10410,13 +10416,13 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>3</v>
@@ -10427,13 +10433,13 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>3</v>
@@ -10444,13 +10450,13 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>3</v>
@@ -10461,13 +10467,13 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>3</v>
@@ -10478,13 +10484,13 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>3</v>
@@ -10495,13 +10501,13 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>3</v>
@@ -10512,13 +10518,13 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>3</v>
@@ -10529,13 +10535,13 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>3</v>
@@ -10546,13 +10552,13 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>3</v>
@@ -10563,13 +10569,13 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>3</v>
@@ -10580,13 +10586,13 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>3</v>
@@ -10597,13 +10603,13 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>3</v>
@@ -10614,13 +10620,13 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>3</v>
@@ -10631,13 +10637,13 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>3</v>
@@ -10648,7 +10654,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>170</v>
@@ -10665,13 +10671,13 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>3</v>
@@ -10682,13 +10688,13 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>3</v>
@@ -10699,13 +10705,13 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>3</v>
@@ -10716,13 +10722,13 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>3</v>
@@ -10733,13 +10739,13 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>3</v>
@@ -10750,13 +10756,13 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>3</v>
@@ -10767,13 +10773,13 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>3</v>
@@ -10784,13 +10790,13 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>3</v>
@@ -10801,13 +10807,13 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>3</v>
@@ -10818,13 +10824,13 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>3</v>
@@ -10835,13 +10841,13 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>3</v>
@@ -10852,7 +10858,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>195</v>
@@ -10869,7 +10875,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>198</v>
@@ -10886,13 +10892,13 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>3</v>
@@ -10903,13 +10909,13 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>3</v>
@@ -10920,13 +10926,13 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>3</v>
@@ -10937,13 +10943,13 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>3</v>
@@ -10954,13 +10960,13 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>3</v>
@@ -10971,13 +10977,13 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>3</v>
@@ -10988,13 +10994,13 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>3</v>
@@ -11005,13 +11011,13 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>3</v>
@@ -11022,13 +11028,13 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>3</v>
@@ -11039,7 +11045,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>1</v>
@@ -11056,7 +11062,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>10</v>
@@ -11073,7 +11079,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>17</v>
@@ -11090,7 +11096,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>24</v>
@@ -11107,7 +11113,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>32</v>
@@ -11124,7 +11130,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>40</v>
@@ -11141,7 +11147,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>46</v>
@@ -11158,7 +11164,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>52</v>
@@ -11175,13 +11181,13 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>3</v>
@@ -11192,7 +11198,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>67</v>
@@ -11209,7 +11215,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>73</v>
@@ -11226,7 +11232,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>81</v>
@@ -11243,7 +11249,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>87</v>
@@ -11260,13 +11266,13 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>3</v>
@@ -11277,7 +11283,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>102</v>
@@ -11294,13 +11300,13 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>3</v>
@@ -11311,13 +11317,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>3</v>
@@ -11328,7 +11334,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>123</v>
@@ -11345,7 +11351,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>130</v>
@@ -11362,7 +11368,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>138</v>
@@ -11379,7 +11385,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>145</v>
@@ -11396,7 +11402,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>153</v>
@@ -11413,7 +11419,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>160</v>
@@ -11430,7 +11436,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>167</v>
@@ -11447,7 +11453,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>176</v>
@@ -11464,7 +11470,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>184</v>
@@ -11481,13 +11487,13 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>3</v>
@@ -11498,7 +11504,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>200</v>
@@ -11515,7 +11521,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>206</v>
@@ -11532,7 +11538,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>214</v>
@@ -11549,7 +11555,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>222</v>
@@ -11566,7 +11572,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>228</v>
@@ -11583,7 +11589,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>234</v>
@@ -11600,13 +11606,13 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>3</v>
@@ -11617,7 +11623,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>249</v>
@@ -11634,13 +11640,13 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>3</v>
@@ -11651,7 +11657,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>263</v>
@@ -11668,7 +11674,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>269</v>
@@ -11685,7 +11691,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>275</v>
@@ -11702,7 +11708,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>283</v>
@@ -11719,7 +11725,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>290</v>
@@ -11736,7 +11742,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>296</v>
@@ -11753,7 +11759,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>296</v>
@@ -11770,7 +11776,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>296</v>
@@ -11787,7 +11793,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>296</v>
@@ -11804,7 +11810,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>296</v>
@@ -11821,7 +11827,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>296</v>
@@ -11838,7 +11844,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>296</v>
@@ -11855,7 +11861,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>296</v>
@@ -11872,13 +11878,13 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>3</v>
@@ -11889,13 +11895,13 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D450" s="2" t="s">
         <v>3</v>
@@ -11906,7 +11912,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>337</v>
@@ -11923,7 +11929,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>343</v>
@@ -11940,13 +11946,13 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>3</v>
@@ -11957,7 +11963,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>358</v>
@@ -11974,7 +11980,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>365</v>
@@ -11991,13 +11997,13 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>3</v>
@@ -12008,13 +12014,13 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D457" s="2" t="s">
         <v>3</v>
@@ -12025,13 +12031,13 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D458" s="2" t="s">
         <v>3</v>
@@ -12042,13 +12048,13 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D459" s="2" t="s">
         <v>3</v>
@@ -12059,13 +12065,13 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>3</v>
@@ -12076,13 +12082,13 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>3</v>
@@ -12093,13 +12099,13 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D462" s="2" t="s">
         <v>3</v>
@@ -12110,13 +12116,13 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D463" s="2" t="s">
         <v>3</v>
@@ -12127,13 +12133,13 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>3</v>
@@ -12144,13 +12150,13 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D465" s="2" t="s">
         <v>3</v>
@@ -12161,13 +12167,13 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>3</v>
@@ -12178,13 +12184,13 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>3</v>
@@ -12195,13 +12201,13 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>3</v>
@@ -12212,13 +12218,13 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D469" s="2" t="s">
         <v>3</v>
@@ -12229,13 +12235,13 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D470" s="2" t="s">
         <v>3</v>
@@ -12246,13 +12252,13 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>3</v>
@@ -12263,13 +12269,13 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>3</v>
@@ -12280,13 +12286,13 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>3</v>
@@ -12297,13 +12303,13 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D474" s="2" t="s">
         <v>3</v>
@@ -12314,13 +12320,13 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D475" s="2" t="s">
         <v>3</v>
@@ -12331,13 +12337,13 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>3</v>
@@ -12348,13 +12354,13 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>3</v>
@@ -12365,13 +12371,13 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>3</v>
@@ -12382,13 +12388,13 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D479" s="2" t="s">
         <v>3</v>
@@ -12399,13 +12405,13 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D480" s="2" t="s">
         <v>3</v>
@@ -12416,13 +12422,13 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>3</v>
@@ -12433,13 +12439,13 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D482" s="2" t="s">
         <v>3</v>
@@ -12450,13 +12456,13 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D483" s="2" t="s">
         <v>3</v>
@@ -12467,13 +12473,13 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D484" s="2" t="s">
         <v>3</v>
@@ -12484,13 +12490,13 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D485" s="2" t="s">
         <v>3</v>
@@ -12501,13 +12507,13 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D486" s="2" t="s">
         <v>3</v>
@@ -12518,13 +12524,13 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D487" s="2" t="s">
         <v>3</v>
@@ -12535,13 +12541,13 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D488" s="2" t="s">
         <v>3</v>
@@ -12552,13 +12558,13 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D489" s="2" t="s">
         <v>3</v>
@@ -12569,13 +12575,13 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D490" s="2" t="s">
         <v>3</v>
@@ -12586,13 +12592,13 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>3</v>
@@ -12603,13 +12609,13 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>3</v>
@@ -12620,13 +12626,13 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D493" s="2" t="s">
         <v>3</v>
@@ -12637,13 +12643,13 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>3</v>
@@ -12654,13 +12660,13 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>3</v>
@@ -12671,13 +12677,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D496" s="2" t="s">
         <v>3</v>
@@ -12688,13 +12694,13 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>3</v>
@@ -12705,13 +12711,13 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>3</v>
@@ -12722,13 +12728,13 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>3</v>
@@ -12739,13 +12745,13 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>3</v>
@@ -12756,13 +12762,13 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D501" s="2" t="s">
         <v>3</v>
@@ -12773,13 +12779,13 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>3</v>
@@ -12790,13 +12796,13 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D503" s="2" t="s">
         <v>3</v>
@@ -12807,13 +12813,13 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D504" s="2" t="s">
         <v>3</v>
@@ -12824,13 +12830,13 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D505" s="2" t="s">
         <v>3</v>
@@ -12841,13 +12847,13 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D506" s="2" t="s">
         <v>3</v>
@@ -12858,13 +12864,13 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>3</v>
@@ -12875,13 +12881,13 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D508" s="2" t="s">
         <v>3</v>
@@ -12892,13 +12898,13 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D509" s="2" t="s">
         <v>3</v>
@@ -12909,13 +12915,13 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D510" s="2" t="s">
         <v>3</v>
@@ -12926,13 +12932,13 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>3</v>
@@ -12943,13 +12949,13 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>3</v>
@@ -12960,13 +12966,13 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>3</v>
@@ -12977,13 +12983,13 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D514" s="2" t="s">
         <v>3</v>
@@ -12994,13 +13000,13 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D515" s="2" t="s">
         <v>3</v>
@@ -13011,13 +13017,13 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D516" s="2" t="s">
         <v>3</v>
@@ -13028,13 +13034,13 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D517" s="2" t="s">
         <v>3</v>
@@ -13045,13 +13051,13 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D518" s="2" t="s">
         <v>3</v>
@@ -13062,13 +13068,13 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D519" s="2" t="s">
         <v>3</v>
@@ -13079,13 +13085,13 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D520" s="2" t="s">
         <v>3</v>
@@ -13096,13 +13102,13 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D521" s="2" t="s">
         <v>3</v>
@@ -13113,13 +13119,13 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D522" s="2" t="s">
         <v>3</v>
@@ -13130,13 +13136,13 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D523" s="2" t="s">
         <v>3</v>
@@ -13147,13 +13153,13 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D524" s="2" t="s">
         <v>3</v>
@@ -13164,13 +13170,13 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D525" s="2" t="s">
         <v>3</v>
@@ -13181,13 +13187,13 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D526" s="2" t="s">
         <v>3</v>
@@ -13198,13 +13204,13 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D527" s="2" t="s">
         <v>3</v>
@@ -13215,13 +13221,13 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D528" s="2" t="s">
         <v>3</v>
@@ -13232,13 +13238,13 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>3</v>
@@ -13249,13 +13255,13 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>3</v>
@@ -13266,13 +13272,13 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>3</v>
@@ -13283,13 +13289,13 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>3</v>
@@ -13300,13 +13306,13 @@
     </row>
     <row r="533">
       <c r="A533" s="3" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E533" s="2">
         <v>533</v>
@@ -13314,13 +13320,13 @@
     </row>
     <row r="534">
       <c r="A534" s="3" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E534" s="2">
         <v>534</v>
@@ -13328,13 +13334,13 @@
     </row>
     <row r="535">
       <c r="A535" s="3" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="E535" s="2">
         <v>535</v>
@@ -13342,13 +13348,13 @@
     </row>
     <row r="536">
       <c r="A536" s="3" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E536" s="2">
         <v>536</v>
@@ -13356,13 +13362,13 @@
     </row>
     <row r="537">
       <c r="A537" s="3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E537" s="2">
         <v>537</v>
@@ -13370,13 +13376,13 @@
     </row>
     <row r="538">
       <c r="A538" s="3" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="E538" s="2">
         <v>538</v>
@@ -13384,13 +13390,13 @@
     </row>
     <row r="539">
       <c r="A539" s="3" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E539" s="2">
         <v>539</v>
@@ -13398,13 +13404,13 @@
     </row>
     <row r="540">
       <c r="A540" s="3" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E540" s="2">
         <v>540</v>
@@ -13412,13 +13418,13 @@
     </row>
     <row r="541">
       <c r="A541" s="3" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E541" s="2">
         <v>541</v>
@@ -13426,13 +13432,13 @@
     </row>
     <row r="542">
       <c r="A542" s="3" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E542" s="2">
         <v>542</v>
@@ -13440,13 +13446,13 @@
     </row>
     <row r="543">
       <c r="A543" s="3" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="E543" s="2">
         <v>543</v>
@@ -13454,13 +13460,13 @@
     </row>
     <row r="544">
       <c r="A544" s="3" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E544" s="2">
         <v>544</v>

--- a/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="1116">
   <si>
     <t>chassisdef_adder_ADR-CN.Description.Details</t>
   </si>
@@ -66,6 +66,9 @@
     <t>Custom Skirmisher</t>
   </si>
   <si>
+    <t>Модернизированный застрельщик</t>
+  </si>
+  <si>
     <t>chassisdef_archangel_CES-3R-AA.YangsThoughts</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Close Combat Cavalry</t>
   </si>
   <si>
+    <t>Кавалерия ближнего боя</t>
+  </si>
+  <si>
     <t>chassisdef_argus_AGS-1X.YangsThoughts</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Sniper &amp; Close Assault</t>
   </si>
   <si>
+    <t>Снайпер / Штурмовик ближнего боя</t>
+  </si>
+  <si>
     <t>chassisdef_atlas_AS7-WGS_Samsonov.YangsThoughts</t>
   </si>
   <si>
@@ -444,6 +453,9 @@
     <t>Gladiator</t>
   </si>
   <si>
+    <t>Гладиатор</t>
+  </si>
+  <si>
     <t>chassisdef_butcher_VND-BR.YangsThoughts</t>
   </si>
   <si>
@@ -469,6 +481,9 @@
     <t>Skirmisher &amp; Assassin</t>
   </si>
   <si>
+    <t>Застрельщик / Убийца</t>
+  </si>
+  <si>
     <t>chassisdef_butterbee_CPLT-C1.YangsThoughts</t>
   </si>
   <si>
@@ -522,6 +537,9 @@
     <t>Heavy Scout &amp; Brawler</t>
   </si>
   <si>
+    <t>Тяжелый разведчик / Борец</t>
+  </si>
+  <si>
     <t>chassisdef_charger_CGR-PB.YangsThoughts</t>
   </si>
   <si>
@@ -537,7 +555,7 @@
   </si>
   <si>
     <t xml:space="preserve">Introduced in 2740, the 40 ton Cicada was developed as a competitor to the Locust. Slightly better armed and just as fast, the Cicada’s heavier armor and better melee capabilities enable it to function as an effective Light Mech hunter and scout. Powered by a 320 rated XL Engine, the prototype Cicada X5 is armed with quad Medium Lasers and a pair of SRM-2’s.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Шустрый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.07&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -575,6 +593,9 @@
     <t>Custom BattleMech</t>
   </si>
   <si>
+    <t>Модернизированный боевой мех</t>
+  </si>
+  <si>
     <t>chassisdef_clint_CLNT-2-3T_denton.YangsThoughts</t>
   </si>
   <si>
@@ -600,6 +621,9 @@
     <t>All Range Brawler</t>
   </si>
   <si>
+    <t>Универсальный борец</t>
+  </si>
+  <si>
     <t>chassisdef_cobra_cat_NCT-CC.YangsThoughts</t>
   </si>
   <si>
@@ -752,7 +776,7 @@
   </si>
   <si>
     <t xml:space="preserve">This Custom Dragon was piloted by Warlord Syovo Yorioshi from 25th May to 26th September 3025 during the Battle of Galtor III. Only the left-arm mounted Medium Laser remains, with Large Laser in the right arm and an SRM4 and Flamer mounted in the Center. A Small Laser was also installed next to the Cockpit, with an additional 5 Heat Sinks and 3 more tons of armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.13&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -978,7 +1002,7 @@
   </si>
   <si>
     <t xml:space="preserve">This Grand Dragon 1G model, was the custom 'Mech of Team Banzai MechWarrior Douglas Running-Elk. Simply known as the 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.13&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1297,6 +1321,9 @@
     <t>Hero Mech</t>
   </si>
   <si>
+    <t>Геройский мех</t>
+  </si>
+  <si>
     <t>chassisdef_high_roller_BSW-HR.YangsThoughts</t>
   </si>
   <si>
@@ -1350,6 +1377,9 @@
     <t>Testbed</t>
   </si>
   <si>
+    <t>Испытательная площадка</t>
+  </si>
+  <si>
     <t>chassisdef_hunchback_HBK-4X.YangsThoughts</t>
   </si>
   <si>
@@ -1377,7 +1407,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. Allegedly the personal mech of Calvin Deleportas, the Huntsman PA is armed with an ER Large Laser. 4 Streak SRM-4’s and a pair of Medium Pulse Lasers provide additional firepower at close range. AMS protects the Huntsman from incoming missiles. \\n\\n
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1390,7 +1420,7 @@
     <t>A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. Allegedly the personal mech of Calvin Deleportas, the Huntsman PA is armed with an ER Large Laser. 4 Streak SRM-4’s and a pair of Medium Pulse Lasers provide additional firepower at close range. AMS protects the Huntsman from incoming missiles. \\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Stable&lt;/color&gt;&lt;/b&gt;\\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. Allegedly the personal mech of Calvin Deleportas, the Huntsman PA is armed with an ER Large Laser. 4 Streak SRM-4’s and a pair of Medium Pulse Lasers provide additional firepower at close range. AMS protects the Huntsman from incoming missiles. \\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;\\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+    <t>A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. Allegedly the personal mech of Calvin Deleportas, the Huntsman PA is armed with an ER Large Laser. 4 Streak SRM-4’s and a pair of Medium Pulse Lasers provide additional firepower at close range. AMS protects the Huntsman from incoming missiles. \\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;\\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_ice_ferret_IFR-RC.Description.Details</t>
@@ -1441,6 +1471,9 @@
     <t>Assasin &amp; Heavy Scout</t>
   </si>
   <si>
+    <t>Убийца / Тяжелый разведчик</t>
+  </si>
+  <si>
     <t>chassisdef_ilya_muromets_CTF-IM.YangsThoughts</t>
   </si>
   <si>
@@ -1456,7 +1489,7 @@
   </si>
   <si>
     <t xml:space="preserve">This customized 'Mech is equipped with 270 XL engine, two ER Micro Lasers and Heavy Machine Guns in both torsos, Streak SRM 4 with it's one ton of ammo in central torso and two Streak SRM 2's in the right arm, along with 10 Double Heat Sinks to cope with the heat, half ton of HMG ammo in left torso and one full ton of HMG and Streak SRM 4 ammo bins in right torso. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - лазеры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1659,7 +1692,7 @@
   </si>
   <si>
     <t xml:space="preserve">Designed as a replacement to the Timber Wolf, the 65 ton Linebacker entered production in 3052. Built around a 390 rated XL Engine, the Linebacker’s faster speed enables it to keep up with lighter star mates in running battles, something the Timber Wolf struggled to do. A combination of Ferro Fibrous armor and Endo Steel give the OmniMech 17.5 tons of free pod space. The Linebacker LBK-RL is armed with a UAC/10 and a Streak SRM-4. 3 ER Small Lasers fill out the remaining free weight.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2053,6 +2086,9 @@
     <t>Command and Conquer</t>
   </si>
   <si>
+    <t>Командование и завоевание</t>
+  </si>
+  <si>
     <t>chassisdef_orion_ON1-KER_kerensky.YangsThoughts</t>
   </si>
   <si>
@@ -2078,6 +2114,9 @@
     <t>Prototype</t>
   </si>
   <si>
+    <t>Прототип</t>
+  </si>
+  <si>
     <t>chassisdef_ostlord_OSL-9R.YangsThoughts</t>
   </si>
   <si>
@@ -2169,6 +2208,9 @@
     <t>Skirmisher &amp; Light Brawler</t>
   </si>
   <si>
+    <t>Застрельщик / Легкий борец</t>
+  </si>
+  <si>
     <t>chassisdef_panther_PNT-9R_Tanaka.YangsThoughts</t>
   </si>
   <si>
@@ -2186,7 +2228,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Penetrator became the trademark 'Mech of AFFC officer Archer Christifori, who piloted one through the FedCom Civil War and Operation BULLDOG. Originally a stock example, Christifori's 'Mech was eventually upgraded with salvaged Clan-tech ER Large Lasers.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2224,6 +2266,9 @@
     <t>Force Recon</t>
   </si>
   <si>
+    <t>Разведка боем</t>
+  </si>
+  <si>
     <t>chassisdef_pirates_bane_LCT-PB.YangsThoughts</t>
   </si>
   <si>
@@ -2343,6 +2388,9 @@
     <t>Custom Clan BattleMech</t>
   </si>
   <si>
+    <t>Модернизированный клановый боевой мех</t>
+  </si>
+  <si>
     <t>chassisdef_skoll_ON1-IIC-SK.YangsThoughts</t>
   </si>
   <si>
@@ -2408,7 +2456,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Spider 6V, precursor to the Venom spider variants, features upgraded armour and Jump Jets, as well as a Medium Pulse Laser, but it's still one of the most fragile targets on the battlefield.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Шустрый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.04&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2446,6 +2494,9 @@
     <t>Juggernaut, Close Support, &amp; Ranged Assault</t>
   </si>
   <si>
+    <t>Джаггернаут, поддержка в ближнем бою, стрелковый штурмовик</t>
+  </si>
+  <si>
     <t>chassisdef_stalker_STK-3F_Jagawen.YangsThoughts</t>
   </si>
   <si>
@@ -2462,7 +2513,7 @@
   </si>
   <si>
     <t xml:space="preserve">A common sight in Clan Toumans, the 55 ton Stormcrow is a second generation OmniMech that entered production in 2930. Powered by a 330 rated XL Engine, a combination of Ferro Fibrous and Endo Steel give the OmniMech 23 tons of Pod Space. The Stormcrow Attwater is the personal configuration of Mia Attwater of the Nova Cats. An anti aircraft specialist, her Stormcrow was reconfigured to improve it’s effectiveness in this role. A pair of LB-5X’s and a pair of LRM-5’s augmented by Artemis IV make up the Attwater’s armament with 6 Jump Jets filling the remaining pod space.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2937,6 +2988,9 @@
     <t>Heavy Cavalry &amp; Assassin</t>
   </si>
   <si>
+    <t>Тяжелая кавалерия / Убийца</t>
+  </si>
+  <si>
     <t>chassisdef_victor_VTR-9B_Li.YangsThoughts</t>
   </si>
   <si>
@@ -3198,6 +3252,9 @@
     <t>God of Death</t>
   </si>
   <si>
+    <t>Бог смерти</t>
+  </si>
+  <si>
     <t>chassisdef_yen_lo_wang_CN9-YLW.YangsThoughts</t>
   </si>
   <si>
@@ -3521,7 +3578,7 @@
   </si>
   <si>
     <t xml:space="preserve">This customized 'Mech is equipped with 270 XL engine, two ER Micro Lasers and Heavy Machine Guns in both torsos, Streak SRM 4 with it's one ton of ammo in central torso and two Streak SRM 2's in the right arm, along with 10 Double Heat Sinks to cope with the heat, half ton of HMG ammo in left torso and one full ton of HMG and Streak SRM 4 ammo bins in right torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - лазеры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -4251,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="C548" sqref="C548"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="C550" sqref="C550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4336,7 +4393,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -4347,13 +4404,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -4364,13 +4421,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -4381,13 +4438,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -4398,13 +4455,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -4415,13 +4472,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -4432,13 +4489,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -4449,13 +4506,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -4466,13 +4523,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -4483,13 +4540,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -4500,13 +4557,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -4517,13 +4574,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -4534,13 +4591,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
@@ -4551,13 +4608,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -4568,13 +4625,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -4585,13 +4642,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -4602,13 +4659,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -4619,13 +4676,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
@@ -4636,13 +4693,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -4653,13 +4710,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -4670,13 +4727,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -4687,13 +4744,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
@@ -4704,13 +4761,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
@@ -4721,13 +4778,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
@@ -4738,7 +4795,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -4755,13 +4812,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>3</v>
@@ -4772,13 +4829,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -4789,13 +4846,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -4806,13 +4863,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
@@ -4823,13 +4880,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -4840,13 +4897,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -4857,13 +4914,13 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -4874,13 +4931,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -4891,13 +4948,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -4908,13 +4965,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -4925,13 +4982,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -4942,13 +4999,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -4959,13 +5016,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -4976,13 +5033,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>3</v>
@@ -4993,13 +5050,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -5010,13 +5067,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
@@ -5027,13 +5084,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
@@ -5044,13 +5101,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -5061,13 +5118,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -5078,13 +5135,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -5095,13 +5152,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -5112,13 +5169,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -5129,13 +5186,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -5146,13 +5203,13 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -5163,13 +5220,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -5180,13 +5237,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3</v>
@@ -5197,13 +5254,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>3</v>
@@ -5214,13 +5271,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -5231,13 +5288,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>3</v>
@@ -5248,13 +5305,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -5265,13 +5322,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
@@ -5282,13 +5339,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -5299,13 +5356,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -5316,13 +5373,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -5333,13 +5390,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
@@ -5350,13 +5407,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -5367,13 +5424,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
@@ -5384,13 +5441,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>3</v>
@@ -5401,13 +5458,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -5418,13 +5475,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
@@ -5435,13 +5492,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -5452,13 +5509,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
@@ -5469,13 +5526,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -5486,13 +5543,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -5503,13 +5560,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -5520,13 +5577,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -5537,13 +5594,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -5554,13 +5611,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -5571,13 +5628,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -5588,13 +5645,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -5605,13 +5662,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -5622,13 +5679,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -5639,13 +5696,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -5656,13 +5713,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -5673,13 +5730,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
@@ -5690,13 +5747,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -5707,13 +5764,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
@@ -5724,13 +5781,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
@@ -5741,13 +5798,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
@@ -5758,13 +5815,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
@@ -5775,13 +5832,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
@@ -5792,13 +5849,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -5809,13 +5866,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
@@ -5826,13 +5883,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -5843,13 +5900,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -5860,13 +5917,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -5877,13 +5934,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -5894,13 +5951,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
@@ -5911,13 +5968,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -5928,13 +5985,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
@@ -5945,13 +6002,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -5962,13 +6019,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
@@ -5979,13 +6036,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>3</v>
@@ -5996,13 +6053,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -6013,13 +6070,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -6030,13 +6087,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
@@ -6047,13 +6104,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -6064,13 +6121,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
@@ -6081,13 +6138,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
@@ -6098,13 +6155,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
@@ -6115,13 +6172,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
@@ -6132,13 +6189,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
@@ -6149,13 +6206,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -6166,13 +6223,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -6183,13 +6240,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -6200,13 +6257,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -6217,13 +6274,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
@@ -6234,13 +6291,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -6251,13 +6308,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>3</v>
@@ -6268,13 +6325,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -6285,13 +6342,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>3</v>
@@ -6302,13 +6359,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>3</v>
@@ -6319,7 +6376,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>5</v>
@@ -6336,13 +6393,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -6353,13 +6410,13 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>3</v>
@@ -6370,13 +6427,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>3</v>
@@ -6387,13 +6444,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>3</v>
@@ -6404,13 +6461,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>3</v>
@@ -6421,13 +6478,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -6438,13 +6495,13 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>3</v>
@@ -6455,13 +6512,13 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>3</v>
@@ -6472,13 +6529,13 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C131" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>3</v>
@@ -6489,13 +6546,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>3</v>
@@ -6506,13 +6563,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>3</v>
@@ -6523,13 +6580,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>3</v>
@@ -6540,13 +6597,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>3</v>
@@ -6557,13 +6614,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>3</v>
@@ -6574,13 +6631,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>3</v>
@@ -6591,13 +6648,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>3</v>
@@ -6608,13 +6665,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
@@ -6625,13 +6682,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>3</v>
@@ -6642,13 +6699,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>3</v>
@@ -6659,13 +6716,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -6676,13 +6733,13 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>3</v>
@@ -6693,13 +6750,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
@@ -6710,13 +6767,13 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>3</v>
@@ -6727,13 +6784,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>3</v>
@@ -6744,13 +6801,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -6761,13 +6818,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -6778,13 +6835,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -6795,13 +6852,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -6812,13 +6869,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -6829,13 +6886,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -6846,13 +6903,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -6863,13 +6920,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -6880,13 +6937,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>3</v>
@@ -6897,13 +6954,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>3</v>
@@ -6914,13 +6971,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>3</v>
@@ -6931,7 +6988,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>5</v>
@@ -6948,13 +7005,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>3</v>
@@ -6965,13 +7022,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -6982,13 +7039,13 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>3</v>
@@ -6999,13 +7056,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -7016,13 +7073,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -7033,13 +7090,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -7050,13 +7107,13 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -7067,13 +7124,13 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -7084,13 +7141,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -7101,13 +7158,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -7118,13 +7175,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -7135,13 +7192,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -7152,13 +7209,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -7169,13 +7226,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -7186,13 +7243,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -7203,13 +7260,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -7220,13 +7277,13 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -7237,13 +7294,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>3</v>
@@ -7254,13 +7311,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>3</v>
@@ -7271,13 +7328,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -7288,13 +7345,13 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>3</v>
@@ -7305,13 +7362,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -7322,13 +7379,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -7339,13 +7396,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -7356,13 +7413,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
@@ -7373,13 +7430,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -7390,13 +7447,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -7407,13 +7464,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -7424,13 +7481,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -7441,13 +7498,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -7458,13 +7515,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -7475,13 +7532,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -7492,13 +7549,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -7509,13 +7566,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -7526,13 +7583,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -7543,13 +7600,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -7560,13 +7617,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -7577,13 +7634,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -7594,13 +7651,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>3</v>
@@ -7611,13 +7668,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -7628,13 +7685,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -7645,13 +7702,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -7662,13 +7719,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -7679,13 +7736,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -7696,13 +7753,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>3</v>
@@ -7713,13 +7770,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -7730,13 +7787,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -7747,13 +7804,13 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -7764,13 +7821,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -7781,13 +7838,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -7798,13 +7855,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -7815,13 +7872,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -7832,13 +7889,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -7849,13 +7906,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>3</v>
@@ -7866,13 +7923,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>3</v>
@@ -7883,13 +7940,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>3</v>
@@ -7900,13 +7957,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -7917,13 +7974,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -7934,13 +7991,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -7951,13 +8008,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>3</v>
@@ -7968,13 +8025,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -7985,13 +8042,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -8002,13 +8059,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -8019,13 +8076,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -8036,13 +8093,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>3</v>
@@ -8053,13 +8110,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -8070,13 +8127,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -8087,13 +8144,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -8104,13 +8161,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -8121,13 +8178,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -8138,13 +8195,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -8155,13 +8212,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -8172,13 +8229,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -8189,13 +8246,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -8206,13 +8263,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -8223,13 +8280,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -8240,13 +8297,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -8257,13 +8314,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>3</v>
@@ -8274,13 +8331,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -8291,13 +8348,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -8308,13 +8365,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>3</v>
@@ -8325,13 +8382,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -8342,13 +8399,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -8359,13 +8416,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -8376,13 +8433,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -8393,13 +8450,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>3</v>
@@ -8410,13 +8467,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>3</v>
@@ -8427,13 +8484,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>3</v>
@@ -8444,13 +8501,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -8461,13 +8518,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -8478,13 +8535,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -8495,13 +8552,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
@@ -8512,13 +8569,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -8529,13 +8586,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>3</v>
@@ -8546,13 +8603,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>3</v>
@@ -8563,13 +8620,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
@@ -8580,13 +8637,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>3</v>
@@ -8597,13 +8654,13 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>3</v>
@@ -8614,13 +8671,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>3</v>
@@ -8631,13 +8688,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>3</v>
@@ -8648,13 +8705,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>3</v>
@@ -8665,13 +8722,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>3</v>
@@ -8682,13 +8739,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>3</v>
@@ -8699,13 +8756,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>3</v>
@@ -8716,13 +8773,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>3</v>
@@ -8733,13 +8790,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -8750,13 +8807,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
@@ -8767,13 +8824,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>3</v>
@@ -8784,13 +8841,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -8801,13 +8858,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>3</v>
@@ -8818,13 +8875,13 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>3</v>
@@ -8835,13 +8892,13 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>3</v>
@@ -8852,13 +8909,13 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>3</v>
@@ -8869,13 +8926,13 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>3</v>
@@ -8886,13 +8943,13 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>3</v>
@@ -8903,13 +8960,13 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>3</v>
@@ -8920,13 +8977,13 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>3</v>
@@ -8937,13 +8994,13 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>3</v>
@@ -8954,13 +9011,13 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>3</v>
@@ -8971,13 +9028,13 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>3</v>
@@ -8988,13 +9045,13 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>3</v>
@@ -9005,13 +9062,13 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>3</v>
@@ -9022,13 +9079,13 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>3</v>
@@ -9039,13 +9096,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>3</v>
@@ -9056,13 +9113,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>3</v>
@@ -9073,13 +9130,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>3</v>
@@ -9090,13 +9147,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>3</v>
@@ -9107,13 +9164,13 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>3</v>
@@ -9124,13 +9181,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>3</v>
@@ -9141,13 +9198,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>3</v>
@@ -9158,13 +9215,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>3</v>
@@ -9175,13 +9232,13 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>3</v>
@@ -9192,13 +9249,13 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>3</v>
@@ -9209,13 +9266,13 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>3</v>
@@ -9226,7 +9283,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>5</v>
@@ -9243,13 +9300,13 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>3</v>
@@ -9260,13 +9317,13 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>3</v>
@@ -9277,13 +9334,13 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>3</v>
@@ -9294,13 +9351,13 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>3</v>
@@ -9311,13 +9368,13 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>3</v>
@@ -9328,13 +9385,13 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>3</v>
@@ -9345,13 +9402,13 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>3</v>
@@ -9362,13 +9419,13 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>3</v>
@@ -9379,13 +9436,13 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>3</v>
@@ -9396,13 +9453,13 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>3</v>
@@ -9413,13 +9470,13 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>3</v>
@@ -9430,7 +9487,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>5</v>
@@ -9447,13 +9504,13 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>3</v>
@@ -9464,13 +9521,13 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>3</v>
@@ -9481,13 +9538,13 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>3</v>
@@ -9498,13 +9555,13 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>3</v>
@@ -9515,13 +9572,13 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>3</v>
@@ -9532,13 +9589,13 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>3</v>
@@ -9549,13 +9606,13 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>3</v>
@@ -9566,13 +9623,13 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>3</v>
@@ -9583,13 +9640,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>3</v>
@@ -9600,13 +9657,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>3</v>
@@ -9617,13 +9674,13 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>3</v>
@@ -9634,7 +9691,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>5</v>
@@ -9651,13 +9708,13 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>3</v>
@@ -9668,13 +9725,13 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>3</v>
@@ -9685,13 +9742,13 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>3</v>
@@ -9702,13 +9759,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>3</v>
@@ -9719,13 +9776,13 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>3</v>
@@ -9736,13 +9793,13 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>3</v>
@@ -9753,13 +9810,13 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>3</v>
@@ -9770,13 +9827,13 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>3</v>
@@ -9787,13 +9844,13 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>3</v>
@@ -9804,13 +9861,13 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>3</v>
@@ -9821,13 +9878,13 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>3</v>
@@ -9838,13 +9895,13 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>3</v>
@@ -9855,13 +9912,13 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>3</v>
@@ -9872,13 +9929,13 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>3</v>
@@ -9889,13 +9946,13 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>3</v>
@@ -9906,13 +9963,13 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>3</v>
@@ -9923,13 +9980,13 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>3</v>
@@ -9940,13 +9997,13 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>3</v>
@@ -9957,13 +10014,13 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>3</v>
@@ -9974,13 +10031,13 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>3</v>
@@ -9991,13 +10048,13 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>3</v>
@@ -10008,13 +10065,13 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>3</v>
@@ -10025,13 +10082,13 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>3</v>
@@ -10042,13 +10099,13 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>3</v>
@@ -10059,13 +10116,13 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>3</v>
@@ -10076,13 +10133,13 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>3</v>
@@ -10093,13 +10150,13 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>3</v>
@@ -10110,13 +10167,13 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>3</v>
@@ -10127,13 +10184,13 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>3</v>
@@ -10144,13 +10201,13 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>3</v>
@@ -10161,13 +10218,13 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>3</v>
@@ -10178,13 +10235,13 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>3</v>
@@ -10195,13 +10252,13 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>3</v>
@@ -10212,13 +10269,13 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>3</v>
@@ -10229,13 +10286,13 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>3</v>
@@ -10246,13 +10303,13 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>3</v>
@@ -10263,13 +10320,13 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>3</v>
@@ -10280,13 +10337,13 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>3</v>
@@ -10297,13 +10354,13 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>804</v>
+        <v>362</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>3</v>
@@ -10314,13 +10371,13 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>3</v>
@@ -10331,13 +10388,13 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>3</v>
@@ -10348,13 +10405,13 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>3</v>
@@ -10365,13 +10422,13 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>3</v>
@@ -10382,13 +10439,13 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>3</v>
@@ -10399,13 +10456,13 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>3</v>
@@ -10416,13 +10473,13 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>3</v>
@@ -10433,13 +10490,13 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>3</v>
@@ -10450,13 +10507,13 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>3</v>
@@ -10467,13 +10524,13 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>3</v>
@@ -10484,13 +10541,13 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>3</v>
@@ -10501,13 +10558,13 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>3</v>
@@ -10518,13 +10575,13 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>3</v>
@@ -10535,13 +10592,13 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>3</v>
@@ -10552,13 +10609,13 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>3</v>
@@ -10569,13 +10626,13 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>3</v>
@@ -10586,13 +10643,13 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>3</v>
@@ -10603,13 +10660,13 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>3</v>
@@ -10620,13 +10677,13 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>3</v>
@@ -10637,13 +10694,13 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>3</v>
@@ -10654,13 +10711,13 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>3</v>
@@ -10671,13 +10728,13 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>3</v>
@@ -10688,13 +10745,13 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>3</v>
@@ -10705,13 +10762,13 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>3</v>
@@ -10722,13 +10779,13 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>3</v>
@@ -10739,13 +10796,13 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>3</v>
@@ -10756,13 +10813,13 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>3</v>
@@ -10773,13 +10830,13 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>3</v>
@@ -10790,13 +10847,13 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>3</v>
@@ -10807,13 +10864,13 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>3</v>
@@ -10824,13 +10881,13 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>3</v>
@@ -10841,13 +10898,13 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>3</v>
@@ -10858,13 +10915,13 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>3</v>
@@ -10875,13 +10932,13 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>3</v>
@@ -10892,13 +10949,13 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>3</v>
@@ -10909,13 +10966,13 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>3</v>
@@ -10926,13 +10983,13 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>3</v>
@@ -10943,13 +11000,13 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>3</v>
@@ -10960,13 +11017,13 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>3</v>
@@ -10977,13 +11034,13 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>3</v>
@@ -10994,13 +11051,13 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>3</v>
@@ -11011,13 +11068,13 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>3</v>
@@ -11028,13 +11085,13 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>3</v>
@@ -11045,7 +11102,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>1</v>
@@ -11062,7 +11119,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>10</v>
@@ -11079,13 +11136,13 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>3</v>
@@ -11096,13 +11153,13 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>3</v>
@@ -11113,13 +11170,13 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>3</v>
@@ -11130,13 +11187,13 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>3</v>
@@ -11147,13 +11204,13 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>3</v>
@@ -11164,13 +11221,13 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>3</v>
@@ -11181,13 +11238,13 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>908</v>
+        <v>927</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>3</v>
@@ -11198,13 +11255,13 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>3</v>
@@ -11215,13 +11272,13 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>3</v>
@@ -11232,13 +11289,13 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>3</v>
@@ -11249,13 +11306,13 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>3</v>
@@ -11266,13 +11323,13 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>3</v>
@@ -11283,13 +11340,13 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>3</v>
@@ -11300,13 +11357,13 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>3</v>
@@ -11317,13 +11374,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>3</v>
@@ -11334,13 +11391,13 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>3</v>
@@ -11351,13 +11408,13 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>3</v>
@@ -11368,13 +11425,13 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>927</v>
+        <v>946</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>3</v>
@@ -11385,13 +11442,13 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>3</v>
@@ -11402,13 +11459,13 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>3</v>
@@ -11419,13 +11476,13 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>3</v>
@@ -11436,13 +11493,13 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>3</v>
@@ -11453,13 +11510,13 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>3</v>
@@ -11470,13 +11527,13 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>3</v>
@@ -11487,13 +11544,13 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>3</v>
@@ -11504,13 +11561,13 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>3</v>
@@ -11521,13 +11578,13 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>3</v>
@@ -11538,13 +11595,13 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>3</v>
@@ -11555,13 +11612,13 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>3</v>
@@ -11572,13 +11629,13 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>3</v>
@@ -11589,13 +11646,13 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>3</v>
@@ -11606,13 +11663,13 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>3</v>
@@ -11623,13 +11680,13 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>3</v>
@@ -11640,13 +11697,13 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>948</v>
+        <v>967</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>949</v>
+        <v>968</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>3</v>
@@ -11657,13 +11714,13 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>950</v>
+        <v>969</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>3</v>
@@ -11674,13 +11731,13 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>951</v>
+        <v>970</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>3</v>
@@ -11691,13 +11748,13 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D438" s="2" t="s">
         <v>3</v>
@@ -11708,13 +11765,13 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>3</v>
@@ -11725,13 +11782,13 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>954</v>
+        <v>973</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D440" s="2" t="s">
         <v>3</v>
@@ -11742,13 +11799,13 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>3</v>
@@ -11759,13 +11816,13 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D442" s="2" t="s">
         <v>3</v>
@@ -11776,13 +11833,13 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D443" s="2" t="s">
         <v>3</v>
@@ -11793,13 +11850,13 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D444" s="2" t="s">
         <v>3</v>
@@ -11810,13 +11867,13 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>3</v>
@@ -11827,13 +11884,13 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D446" s="2" t="s">
         <v>3</v>
@@ -11844,13 +11901,13 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>3</v>
@@ -11861,13 +11918,13 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D448" s="2" t="s">
         <v>3</v>
@@ -11878,13 +11935,13 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>3</v>
@@ -11895,13 +11952,13 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="D450" s="2" t="s">
         <v>3</v>
@@ -11912,13 +11969,13 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>969</v>
+        <v>988</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D451" s="2" t="s">
         <v>3</v>
@@ -11929,13 +11986,13 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>970</v>
+        <v>989</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>3</v>
@@ -11946,13 +12003,13 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>3</v>
@@ -11963,13 +12020,13 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>974</v>
+        <v>993</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D454" s="2" t="s">
         <v>3</v>
@@ -11980,13 +12037,13 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D455" s="2" t="s">
         <v>3</v>
@@ -11997,13 +12054,13 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>976</v>
+        <v>995</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>3</v>
@@ -12014,13 +12071,13 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>977</v>
+        <v>996</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D457" s="2" t="s">
         <v>3</v>
@@ -12031,13 +12088,13 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>978</v>
+        <v>997</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D458" s="2" t="s">
         <v>3</v>
@@ -12048,13 +12105,13 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D459" s="2" t="s">
         <v>3</v>
@@ -12065,13 +12122,13 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>980</v>
+        <v>999</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>3</v>
@@ -12082,13 +12139,13 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>981</v>
+        <v>1000</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>982</v>
+        <v>1001</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>983</v>
+        <v>1002</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>3</v>
@@ -12099,13 +12156,13 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>984</v>
+        <v>1003</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D462" s="2" t="s">
         <v>3</v>
@@ -12116,13 +12173,13 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D463" s="2" t="s">
         <v>3</v>
@@ -12133,13 +12190,13 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>3</v>
@@ -12150,13 +12207,13 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>987</v>
+        <v>1006</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D465" s="2" t="s">
         <v>3</v>
@@ -12167,13 +12224,13 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>988</v>
+        <v>1007</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>3</v>
@@ -12184,13 +12241,13 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>3</v>
@@ -12201,13 +12258,13 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>992</v>
+        <v>1011</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>3</v>
@@ -12218,13 +12275,13 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="D469" s="2" t="s">
         <v>3</v>
@@ -12235,13 +12292,13 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>994</v>
+        <v>1013</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D470" s="2" t="s">
         <v>3</v>
@@ -12252,13 +12309,13 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>995</v>
+        <v>1014</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>3</v>
@@ -12269,13 +12326,13 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>3</v>
@@ -12286,13 +12343,13 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>998</v>
+        <v>1017</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>3</v>
@@ -12303,13 +12360,13 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="D474" s="2" t="s">
         <v>3</v>
@@ -12320,13 +12377,13 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D475" s="2" t="s">
         <v>3</v>
@@ -12337,13 +12394,13 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>1001</v>
+        <v>1020</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>3</v>
@@ -12354,13 +12411,13 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>1002</v>
+        <v>1021</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>3</v>
@@ -12371,13 +12428,13 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>3</v>
@@ -12388,13 +12445,13 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1006</v>
+        <v>1025</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D479" s="2" t="s">
         <v>3</v>
@@ -12405,13 +12462,13 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="D480" s="2" t="s">
         <v>3</v>
@@ -12422,13 +12479,13 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>3</v>
@@ -12439,13 +12496,13 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="D482" s="2" t="s">
         <v>3</v>
@@ -12456,13 +12513,13 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1010</v>
+        <v>1029</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="D483" s="2" t="s">
         <v>3</v>
@@ -12473,13 +12530,13 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>1011</v>
+        <v>1030</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="D484" s="2" t="s">
         <v>3</v>
@@ -12490,13 +12547,13 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>1012</v>
+        <v>1031</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D485" s="2" t="s">
         <v>3</v>
@@ -12507,13 +12564,13 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>1013</v>
+        <v>1032</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="D486" s="2" t="s">
         <v>3</v>
@@ -12524,13 +12581,13 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="D487" s="2" t="s">
         <v>3</v>
@@ -12541,13 +12598,13 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>1015</v>
+        <v>1034</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="D488" s="2" t="s">
         <v>3</v>
@@ -12558,13 +12615,13 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>1016</v>
+        <v>1035</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="D489" s="2" t="s">
         <v>3</v>
@@ -12575,13 +12632,13 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>1017</v>
+        <v>1036</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="D490" s="2" t="s">
         <v>3</v>
@@ -12592,13 +12649,13 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>1018</v>
+        <v>1037</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>3</v>
@@ -12609,13 +12666,13 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>3</v>
@@ -12626,13 +12683,13 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1020</v>
+        <v>1039</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="D493" s="2" t="s">
         <v>3</v>
@@ -12643,13 +12700,13 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>1021</v>
+        <v>1040</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>3</v>
@@ -12660,13 +12717,13 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>3</v>
@@ -12677,13 +12734,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1024</v>
+        <v>1043</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1025</v>
+        <v>1044</v>
       </c>
       <c r="D496" s="2" t="s">
         <v>3</v>
@@ -12694,13 +12751,13 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>1026</v>
+        <v>1045</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>3</v>
@@ -12711,13 +12768,13 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1027</v>
+        <v>1046</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>3</v>
@@ -12728,13 +12785,13 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1028</v>
+        <v>1047</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>3</v>
@@ -12745,13 +12802,13 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>1029</v>
+        <v>1048</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>3</v>
@@ -12762,13 +12819,13 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1030</v>
+        <v>1049</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="D501" s="2" t="s">
         <v>3</v>
@@ -12779,13 +12836,13 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>3</v>
@@ -12796,13 +12853,13 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="D503" s="2" t="s">
         <v>3</v>
@@ -12813,13 +12870,13 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>1033</v>
+        <v>1052</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="D504" s="2" t="s">
         <v>3</v>
@@ -12830,13 +12887,13 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>1034</v>
+        <v>1053</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="D505" s="2" t="s">
         <v>3</v>
@@ -12847,13 +12904,13 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>1035</v>
+        <v>1054</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="D506" s="2" t="s">
         <v>3</v>
@@ -12864,13 +12921,13 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>1036</v>
+        <v>1055</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>3</v>
@@ -12881,13 +12938,13 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="D508" s="2" t="s">
         <v>3</v>
@@ -12898,13 +12955,13 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>1038</v>
+        <v>1057</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="D509" s="2" t="s">
         <v>3</v>
@@ -12915,13 +12972,13 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="D510" s="2" t="s">
         <v>3</v>
@@ -12932,13 +12989,13 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>1040</v>
+        <v>1059</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>3</v>
@@ -12949,13 +13006,13 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>1041</v>
+        <v>1060</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>3</v>
@@ -12966,13 +13023,13 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>1042</v>
+        <v>1061</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>3</v>
@@ -12983,13 +13040,13 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="D514" s="2" t="s">
         <v>3</v>
@@ -13000,13 +13057,13 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>1044</v>
+        <v>1063</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="D515" s="2" t="s">
         <v>3</v>
@@ -13017,13 +13074,13 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="D516" s="2" t="s">
         <v>3</v>
@@ -13034,13 +13091,13 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1046</v>
+        <v>1065</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>1048</v>
+        <v>1067</v>
       </c>
       <c r="D517" s="2" t="s">
         <v>3</v>
@@ -13051,13 +13108,13 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="D518" s="2" t="s">
         <v>3</v>
@@ -13068,13 +13125,13 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="D519" s="2" t="s">
         <v>3</v>
@@ -13085,13 +13142,13 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="D520" s="2" t="s">
         <v>3</v>
@@ -13102,13 +13159,13 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="D521" s="2" t="s">
         <v>3</v>
@@ -13119,13 +13176,13 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="D522" s="2" t="s">
         <v>3</v>
@@ -13136,13 +13193,13 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>1054</v>
+        <v>1073</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>1056</v>
+        <v>1075</v>
       </c>
       <c r="D523" s="2" t="s">
         <v>3</v>
@@ -13153,13 +13210,13 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>1057</v>
+        <v>1076</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="D524" s="2" t="s">
         <v>3</v>
@@ -13170,13 +13227,13 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>1058</v>
+        <v>1077</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="D525" s="2" t="s">
         <v>3</v>
@@ -13187,13 +13244,13 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>1059</v>
+        <v>1078</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="D526" s="2" t="s">
         <v>3</v>
@@ -13204,13 +13261,13 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>1060</v>
+        <v>1079</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1061</v>
+        <v>1080</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>1062</v>
+        <v>1081</v>
       </c>
       <c r="D527" s="2" t="s">
         <v>3</v>
@@ -13221,13 +13278,13 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>1063</v>
+        <v>1082</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="D528" s="2" t="s">
         <v>3</v>
@@ -13238,13 +13295,13 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>1064</v>
+        <v>1083</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1065</v>
+        <v>1084</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>1066</v>
+        <v>1085</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>3</v>
@@ -13255,13 +13312,13 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>1067</v>
+        <v>1086</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>3</v>
@@ -13272,13 +13329,13 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>1068</v>
+        <v>1087</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1069</v>
+        <v>1088</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>1070</v>
+        <v>1089</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>3</v>
@@ -13289,13 +13346,13 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>1071</v>
+        <v>1090</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>3</v>
@@ -13306,13 +13363,13 @@
     </row>
     <row r="533">
       <c r="A533" s="3" t="s">
-        <v>1072</v>
+        <v>1091</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>1074</v>
+        <v>1093</v>
       </c>
       <c r="E533" s="2">
         <v>533</v>
@@ -13320,13 +13377,13 @@
     </row>
     <row r="534">
       <c r="A534" s="3" t="s">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="E534" s="2">
         <v>534</v>
@@ -13334,13 +13391,13 @@
     </row>
     <row r="535">
       <c r="A535" s="3" t="s">
-        <v>1076</v>
+        <v>1095</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1077</v>
+        <v>1096</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1077</v>
+        <v>1096</v>
       </c>
       <c r="E535" s="2">
         <v>535</v>
@@ -13348,13 +13405,13 @@
     </row>
     <row r="536">
       <c r="A536" s="3" t="s">
-        <v>1078</v>
+        <v>1097</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1079</v>
+        <v>1098</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1080</v>
+        <v>1099</v>
       </c>
       <c r="E536" s="2">
         <v>536</v>
@@ -13362,7 +13419,7 @@
     </row>
     <row r="537">
       <c r="A537" s="3" t="s">
-        <v>1081</v>
+        <v>1100</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>5</v>
@@ -13376,13 +13433,13 @@
     </row>
     <row r="538">
       <c r="A538" s="3" t="s">
-        <v>1082</v>
+        <v>1101</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1083</v>
+        <v>1102</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>1083</v>
+        <v>1102</v>
       </c>
       <c r="E538" s="2">
         <v>538</v>
@@ -13390,13 +13447,13 @@
     </row>
     <row r="539">
       <c r="A539" s="3" t="s">
-        <v>1084</v>
+        <v>1103</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1085</v>
+        <v>1104</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>1086</v>
+        <v>1105</v>
       </c>
       <c r="E539" s="2">
         <v>539</v>
@@ -13404,13 +13461,13 @@
     </row>
     <row r="540">
       <c r="A540" s="3" t="s">
-        <v>1087</v>
+        <v>1106</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="E540" s="2">
         <v>540</v>
@@ -13418,13 +13475,13 @@
     </row>
     <row r="541">
       <c r="A541" s="3" t="s">
-        <v>1088</v>
+        <v>1107</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1089</v>
+        <v>1108</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>1089</v>
+        <v>1108</v>
       </c>
       <c r="E541" s="2">
         <v>541</v>
@@ -13432,13 +13489,13 @@
     </row>
     <row r="542">
       <c r="A542" s="3" t="s">
-        <v>1090</v>
+        <v>1109</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1074</v>
+        <v>1093</v>
       </c>
       <c r="E542" s="2">
         <v>542</v>
@@ -13446,13 +13503,13 @@
     </row>
     <row r="543">
       <c r="A543" s="3" t="s">
-        <v>1091</v>
+        <v>1110</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1092</v>
+        <v>1111</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>1093</v>
+        <v>1112</v>
       </c>
       <c r="E543" s="2">
         <v>543</v>
@@ -13460,13 +13517,13 @@
     </row>
     <row r="544">
       <c r="A544" s="3" t="s">
-        <v>1094</v>
+        <v>1113</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1095</v>
+        <v>1114</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1096</v>
+        <v>1115</v>
       </c>
       <c r="E544" s="2">
         <v>544</v>

--- a/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1117">
   <si>
     <t>chassisdef_adder_ADR-CN.Description.Details</t>
   </si>
@@ -2852,6 +2852,9 @@
   </si>
   <si>
     <t>chassisdef_timber_wolf_TW-Vlad.StockRole</t>
+  </si>
+  <si>
+    <t>Беш Кот</t>
   </si>
   <si>
     <t>chassisdef_timber_wolf_TW-Vlad.YangsThoughts</t>
@@ -4308,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="C550" sqref="C550"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="C538" sqref="C538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10207,7 +10210,7 @@
         <v>294</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>294</v>
+        <v>798</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>3</v>
@@ -10218,13 +10221,13 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>3</v>
@@ -10235,13 +10238,13 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>3</v>
@@ -10252,13 +10255,13 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>3</v>
@@ -10269,13 +10272,13 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>3</v>
@@ -10286,13 +10289,13 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>3</v>
@@ -10303,13 +10306,13 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>3</v>
@@ -10320,13 +10323,13 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>3</v>
@@ -10337,13 +10340,13 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>3</v>
@@ -10354,10 +10357,10 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>362</v>
@@ -10371,7 +10374,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>730</v>
@@ -10388,13 +10391,13 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>3</v>
@@ -10405,13 +10408,13 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>3</v>
@@ -10422,13 +10425,13 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>3</v>
@@ -10439,13 +10442,13 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>3</v>
@@ -10456,13 +10459,13 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>3</v>
@@ -10473,13 +10476,13 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>3</v>
@@ -10490,13 +10493,13 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>3</v>
@@ -10507,13 +10510,13 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>3</v>
@@ -10524,13 +10527,13 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>3</v>
@@ -10541,13 +10544,13 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>3</v>
@@ -10558,13 +10561,13 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>3</v>
@@ -10575,13 +10578,13 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>3</v>
@@ -10592,13 +10595,13 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>3</v>
@@ -10609,13 +10612,13 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>3</v>
@@ -10626,13 +10629,13 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>3</v>
@@ -10643,13 +10646,13 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>3</v>
@@ -10660,13 +10663,13 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>3</v>
@@ -10677,13 +10680,13 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>3</v>
@@ -10694,13 +10697,13 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>3</v>
@@ -10711,7 +10714,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>178</v>
@@ -10728,13 +10731,13 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>3</v>
@@ -10745,13 +10748,13 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>3</v>
@@ -10762,7 +10765,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>489</v>
@@ -10779,13 +10782,13 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>3</v>
@@ -10796,13 +10799,13 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>3</v>
@@ -10813,7 +10816,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>489</v>
@@ -10830,13 +10833,13 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>3</v>
@@ -10847,13 +10850,13 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>3</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>567</v>
@@ -10881,13 +10884,13 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>3</v>
@@ -10898,13 +10901,13 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>3</v>
@@ -10915,7 +10918,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>203</v>
@@ -10932,7 +10935,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>206</v>
@@ -10949,13 +10952,13 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>3</v>
@@ -10966,13 +10969,13 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>3</v>
@@ -10983,13 +10986,13 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>3</v>
@@ -11000,13 +11003,13 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>3</v>
@@ -11017,13 +11020,13 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>3</v>
@@ -11034,13 +11037,13 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>3</v>
@@ -11051,13 +11054,13 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>3</v>
@@ -11068,13 +11071,13 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>3</v>
@@ -11085,13 +11088,13 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>3</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>1</v>
@@ -11119,7 +11122,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>10</v>
@@ -11136,7 +11139,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>18</v>
@@ -11153,7 +11156,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>26</v>
@@ -11170,7 +11173,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>34</v>
@@ -11187,7 +11190,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>42</v>
@@ -11204,7 +11207,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>48</v>
@@ -11221,7 +11224,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>54</v>
@@ -11238,13 +11241,13 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>3</v>
@@ -11255,7 +11258,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>70</v>
@@ -11272,7 +11275,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>76</v>
@@ -11289,7 +11292,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>84</v>
@@ -11306,7 +11309,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>90</v>
@@ -11323,13 +11326,13 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>3</v>
@@ -11340,7 +11343,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>105</v>
@@ -11357,13 +11360,13 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>3</v>
@@ -11374,13 +11377,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>3</v>
@@ -11391,7 +11394,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>127</v>
@@ -11408,7 +11411,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>135</v>
@@ -11425,7 +11428,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>143</v>
@@ -11442,7 +11445,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>151</v>
@@ -11459,7 +11462,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>159</v>
@@ -11476,7 +11479,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>167</v>
@@ -11493,7 +11496,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>175</v>
@@ -11510,7 +11513,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>184</v>
@@ -11527,7 +11530,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>192</v>
@@ -11544,13 +11547,13 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>3</v>
@@ -11561,7 +11564,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>208</v>
@@ -11578,7 +11581,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>214</v>
@@ -11595,7 +11598,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>222</v>
@@ -11612,7 +11615,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>230</v>
@@ -11629,7 +11632,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>236</v>
@@ -11646,7 +11649,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>242</v>
@@ -11663,13 +11666,13 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>3</v>
@@ -11680,7 +11683,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>257</v>
@@ -11697,13 +11700,13 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>3</v>
@@ -11714,7 +11717,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>271</v>
@@ -11731,7 +11734,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>277</v>
@@ -11748,7 +11751,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>283</v>
@@ -11765,7 +11768,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>291</v>
@@ -11782,7 +11785,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>298</v>
@@ -11799,7 +11802,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>304</v>
@@ -11816,7 +11819,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>304</v>
@@ -11833,7 +11836,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>304</v>
@@ -11850,7 +11853,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>304</v>
@@ -11867,7 +11870,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>304</v>
@@ -11884,7 +11887,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>304</v>
@@ -11901,7 +11904,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>304</v>
@@ -11918,7 +11921,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>304</v>
@@ -11935,13 +11938,13 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>3</v>
@@ -11952,13 +11955,13 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D450" s="2" t="s">
         <v>3</v>
@@ -11969,7 +11972,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>345</v>
@@ -11986,7 +11989,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>351</v>
@@ -12003,13 +12006,13 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>3</v>
@@ -12020,7 +12023,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>366</v>
@@ -12037,7 +12040,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>374</v>
@@ -12054,7 +12057,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>382</v>
@@ -12071,7 +12074,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>382</v>
@@ -12088,7 +12091,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>394</v>
@@ -12105,7 +12108,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>401</v>
@@ -12122,7 +12125,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>408</v>
@@ -12139,13 +12142,13 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>3</v>
@@ -12156,7 +12159,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>425</v>
@@ -12173,7 +12176,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>433</v>
@@ -12190,7 +12193,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>439</v>
@@ -12207,7 +12210,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>445</v>
@@ -12224,13 +12227,13 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>3</v>
@@ -12241,7 +12244,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>459</v>
@@ -12258,7 +12261,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>467</v>
@@ -12275,7 +12278,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>473</v>
@@ -12292,7 +12295,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>480</v>
@@ -12309,7 +12312,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>486</v>
@@ -12326,10 +12329,10 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>496</v>
@@ -12343,7 +12346,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>502</v>
@@ -12360,7 +12363,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>511</v>
@@ -12377,7 +12380,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>519</v>
@@ -12394,7 +12397,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>527</v>
@@ -12411,13 +12414,13 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>3</v>
@@ -12428,7 +12431,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>539</v>
@@ -12445,7 +12448,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>545</v>
@@ -12462,7 +12465,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>552</v>
@@ -12479,7 +12482,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>558</v>
@@ -12496,7 +12499,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>564</v>
@@ -12513,7 +12516,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>573</v>
@@ -12530,7 +12533,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>581</v>
@@ -12547,7 +12550,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>589</v>
@@ -12564,7 +12567,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>597</v>
@@ -12581,7 +12584,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>603</v>
@@ -12598,7 +12601,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>609</v>
@@ -12615,7 +12618,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>615</v>
@@ -12632,7 +12635,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>623</v>
@@ -12649,7 +12652,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>631</v>
@@ -12666,7 +12669,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>639</v>
@@ -12683,7 +12686,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>645</v>
@@ -12700,7 +12703,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>653</v>
@@ -12717,7 +12720,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>659</v>
@@ -12734,13 +12737,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D496" s="2" t="s">
         <v>3</v>
@@ -12751,7 +12754,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>673</v>
@@ -12768,7 +12771,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>679</v>
@@ -12785,7 +12788,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>687</v>
@@ -12802,7 +12805,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>695</v>
@@ -12819,7 +12822,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>703</v>
@@ -12836,7 +12839,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>709</v>
@@ -12853,7 +12856,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>716</v>
@@ -12870,7 +12873,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>721</v>
@@ -12887,7 +12890,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>726</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>732</v>
@@ -12921,7 +12924,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>740</v>
@@ -12938,7 +12941,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>748</v>
@@ -12955,7 +12958,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>754</v>
@@ -12972,7 +12975,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>761</v>
@@ -12989,7 +12992,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>767</v>
@@ -13006,7 +13009,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>775</v>
@@ -13023,7 +13026,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>782</v>
@@ -13040,7 +13043,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>789</v>
@@ -13057,7 +13060,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>795</v>
@@ -13074,13 +13077,13 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D516" s="2" t="s">
         <v>3</v>
@@ -13091,13 +13094,13 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D517" s="2" t="s">
         <v>3</v>
@@ -13108,13 +13111,13 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D518" s="2" t="s">
         <v>3</v>
@@ -13125,13 +13128,13 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D519" s="2" t="s">
         <v>3</v>
@@ -13142,13 +13145,13 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D520" s="2" t="s">
         <v>3</v>
@@ -13159,13 +13162,13 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D521" s="2" t="s">
         <v>3</v>
@@ -13176,13 +13179,13 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D522" s="2" t="s">
         <v>3</v>
@@ -13193,13 +13196,13 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D523" s="2" t="s">
         <v>3</v>
@@ -13210,13 +13213,13 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D524" s="2" t="s">
         <v>3</v>
@@ -13227,13 +13230,13 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D525" s="2" t="s">
         <v>3</v>
@@ -13244,13 +13247,13 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D526" s="2" t="s">
         <v>3</v>
@@ -13261,13 +13264,13 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D527" s="2" t="s">
         <v>3</v>
@@ -13278,13 +13281,13 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D528" s="2" t="s">
         <v>3</v>
@@ -13295,13 +13298,13 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>3</v>
@@ -13312,13 +13315,13 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>3</v>
@@ -13329,13 +13332,13 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>3</v>
@@ -13346,13 +13349,13 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>3</v>
@@ -13363,13 +13366,13 @@
     </row>
     <row r="533">
       <c r="A533" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E533" s="2">
         <v>533</v>
@@ -13377,7 +13380,7 @@
     </row>
     <row r="534">
       <c r="A534" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>505</v>
@@ -13391,13 +13394,13 @@
     </row>
     <row r="535">
       <c r="A535" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E535" s="2">
         <v>535</v>
@@ -13405,13 +13408,13 @@
     </row>
     <row r="536">
       <c r="A536" s="3" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E536" s="2">
         <v>536</v>
@@ -13419,7 +13422,7 @@
     </row>
     <row r="537">
       <c r="A537" s="3" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>5</v>
@@ -13433,13 +13436,13 @@
     </row>
     <row r="538">
       <c r="A538" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E538" s="2">
         <v>538</v>
@@ -13447,13 +13450,13 @@
     </row>
     <row r="539">
       <c r="A539" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E539" s="2">
         <v>539</v>
@@ -13461,7 +13464,7 @@
     </row>
     <row r="540">
       <c r="A540" s="3" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>489</v>
@@ -13475,13 +13478,13 @@
     </row>
     <row r="541">
       <c r="A541" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E541" s="2">
         <v>541</v>
@@ -13489,13 +13492,13 @@
     </row>
     <row r="542">
       <c r="A542" s="3" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E542" s="2">
         <v>542</v>
@@ -13503,13 +13506,13 @@
     </row>
     <row r="543">
       <c r="A543" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E543" s="2">
         <v>543</v>
@@ -13517,13 +13520,13 @@
     </row>
     <row r="544">
       <c r="A544" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E544" s="2">
         <v>544</v>
